--- a/UUVDatabase.xlsx
+++ b/UUVDatabase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Propeller" sheetId="1" state="visible" r:id="rId2"/>
@@ -2946,11 +2946,11 @@
   </sheetPr>
   <dimension ref="A1:BS110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J76" activeCellId="0" sqref="J76"/>
     </sheetView>
   </sheetViews>
@@ -7743,7 +7743,7 @@
   </sheetPr>
   <dimension ref="A1:AB105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>

--- a/UUVDatabase.xlsx
+++ b/UUVDatabase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Propeller" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="825">
   <si>
     <t xml:space="preserve">Manufacturer</t>
   </si>
@@ -833,6 +833,12 @@
   </si>
   <si>
     <t xml:space="preserve">A [BL]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sw</t>
   </si>
   <si>
     <t xml:space="preserve">Yaw Speed [m/s]</t>
@@ -2773,19 +2779,12 @@
     <cellStyle name="Text 13" xfId="29"/>
     <cellStyle name="Warning 14" xfId="30"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FFFCFCFC"/>
+          <bgColor rgb="FF1B1E20"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2880,8 +2879,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="__Anonymous_Sheet_DB__1" displayName="__Anonymous_Sheet_DB__1" ref="A2:AB101" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <tableColumns count="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="__Anonymous_Sheet_DB__1" displayName="__Anonymous_Sheet_DB__1" ref="A2:AD101" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="30">
     <tableColumn id="1" name="Ecole Polytechnique DEA Carangiform"/>
     <tableColumn id="2" name="Shintake"/>
     <tableColumn id="3" name="Ecole Polytechnique Federale de Lausanne"/>
@@ -2901,22 +2900,24 @@
     <tableColumn id="17" name="Column27"/>
     <tableColumn id="18" name="Column16"/>
     <tableColumn id="19" name="Column17"/>
-    <tableColumn id="20" name="Column18"/>
-    <tableColumn id="21" name="Column19"/>
-    <tableColumn id="22" name="Column20"/>
-    <tableColumn id="23" name="Column21"/>
-    <tableColumn id="24" name="Column22"/>
-    <tableColumn id="25" name="Column23"/>
-    <tableColumn id="26" name="Column24"/>
-    <tableColumn id="27" name="Column25"/>
-    <tableColumn id="28" name="https://doi.org/10.1109/IROS.2016.7759728"/>
+    <tableColumn id="20" name="Column29"/>
+    <tableColumn id="21" name="Column28"/>
+    <tableColumn id="22" name="Column18"/>
+    <tableColumn id="23" name="Column19"/>
+    <tableColumn id="24" name="Column20"/>
+    <tableColumn id="25" name="Column21"/>
+    <tableColumn id="26" name="Column22"/>
+    <tableColumn id="27" name="Column23"/>
+    <tableColumn id="28" name="Column24"/>
+    <tableColumn id="29" name="Column25"/>
+    <tableColumn id="30" name="https://doi.org/10.1109/IROS.2016.7759728"/>
   </tableColumns>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="__Anonymous_Sheet_DB__2" displayName="__Anonymous_Sheet_DB__2" ref="A1:W34" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="__Anonymous_Sheet_DB__2" displayName="__Anonymous_Sheet_DB__2" ref="A1:Y34" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="25">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Author"/>
     <tableColumn id="3" name="Affiliation"/>
@@ -2935,11 +2936,13 @@
     <tableColumn id="16" name="COTopt [J]"/>
     <tableColumn id="17" name="Freq [Hz]"/>
     <tableColumn id="18" name="A [BL]"/>
-    <tableColumn id="19" name="Yaw Speed [m/s]"/>
-    <tableColumn id="20" name="Yaw Radius [m]"/>
-    <tableColumn id="21" name="Max Depth [m]"/>
-    <tableColumn id="22" name="Endurance [hr]"/>
-    <tableColumn id="23" name="Operating Voltage [V]"/>
+    <tableColumn id="19" name="Re"/>
+    <tableColumn id="20" name="Sw"/>
+    <tableColumn id="21" name="Yaw Speed [m/s]"/>
+    <tableColumn id="22" name="Yaw Radius [m]"/>
+    <tableColumn id="23" name="Max Depth [m]"/>
+    <tableColumn id="24" name="Endurance [hr]"/>
+    <tableColumn id="25" name="Operating Voltage [V]"/>
   </tableColumns>
 </table>
 </file>
@@ -2951,11 +2954,11 @@
   </sheetPr>
   <dimension ref="A1:BS110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L58" activeCellId="0" sqref="L58"/>
     </sheetView>
   </sheetViews>
@@ -7781,14 +7784,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB105"/>
+  <dimension ref="A1:AD105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
-      <selection pane="bottomRight" activeCell="H106" activeCellId="0" sqref="H106"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U3" activeCellId="0" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7806,16 +7809,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="19.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="1" width="19.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="23.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="1" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="24" style="1" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="45.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="29" style="1" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="71" style="1" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="26" style="1" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="45.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="31" style="1" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="73" style="1" width="8.62"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7883,42 +7886,48 @@
         <v>271</v>
       </c>
       <c r="V1" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="Z1" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>1</v>
@@ -7944,25 +7953,29 @@
       <c r="R2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>280</v>
+      <c r="T2" s="1" t="n">
+        <f aca="false">N2*I2/0.000001</f>
+        <v>960</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>1</v>
@@ -7997,25 +8010,33 @@
       <c r="S3" s="1" t="n">
         <v>0.0025</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>285</v>
+      <c r="T3" s="1" t="n">
+        <f aca="false">N3*I3/0.000001</f>
+        <v>2265.6</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <f aca="false">(4*PI()*R3*S3*I3^2)/0.000001</f>
+        <v>1158.11671581934</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>1</v>
@@ -8052,33 +8073,41 @@
         <v>0.025</v>
       </c>
       <c r="T4" s="1" t="n">
+        <f aca="false">N4*I4/0.000001</f>
+        <v>16352</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <f aca="false">(4*PI()*R4*S4*I4^2)/0.000001</f>
+        <v>16741.54725098</v>
+      </c>
+      <c r="V4" s="1" t="n">
         <v>0.057</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="W4" s="1" t="n">
         <v>0.136</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="AA4" s="1" t="n">
         <v>0.62</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>290</v>
+      <c r="AD4" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1</v>
@@ -8108,25 +8137,33 @@
       <c r="S5" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>295</v>
+      <c r="T5" s="1" t="n">
+        <f aca="false">N5*I5/0.000001</f>
+        <v>17680</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <f aca="false">(4*PI()*R5*S5*I5^2)/0.000001</f>
+        <v>11621.3795441594</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>1</v>
@@ -8166,25 +8203,33 @@
       <c r="S6" s="1" t="n">
         <v>0.014</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>300</v>
+      <c r="T6" s="1" t="n">
+        <f aca="false">N6*I6/0.000001</f>
+        <v>213500</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <f aca="false">(4*PI()*R6*S6*I6^2)/0.000001</f>
+        <v>224538.951199058</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>1</v>
@@ -8217,25 +8262,29 @@
       <c r="R7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>304</v>
+      <c r="T7" s="1" t="n">
+        <f aca="false">N7*I7/0.000001</f>
+        <v>1449</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>2</v>
@@ -8282,37 +8331,45 @@
       <c r="S8" s="1" t="n">
         <v>0.0016</v>
       </c>
+      <c r="T8" s="1" t="n">
+        <f aca="false">N8*I8/0.000001</f>
+        <v>5400</v>
+      </c>
       <c r="U8" s="1" t="n">
+        <f aca="false">(4*PI()*R8*S8*I8^2)/0.000001</f>
+        <v>897.54045475999</v>
+      </c>
+      <c r="W8" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W8" s="1" t="n">
+      <c r="Y8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="X8" s="1" t="n">
+      <c r="Z8" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="Y8" s="1" t="n">
+      <c r="AA8" s="1" t="n">
         <v>0.096</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>309</v>
+      <c r="AD8" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>1</v>
@@ -8358,25 +8415,33 @@
       <c r="S9" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="AB9" s="1" t="s">
-        <v>312</v>
+      <c r="T9" s="1" t="n">
+        <f aca="false">N9*I9/0.000001</f>
+        <v>14800</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <f aca="false">(4*PI()*R9*S9*I9^2)/0.000001</f>
+        <v>24084.7059194808</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>1</v>
@@ -8424,35 +8489,43 @@
         <f aca="false">ROUND(TAN(RADIANS(30))*(I10/3),2)</f>
         <v>0.09</v>
       </c>
-      <c r="W10" s="1" t="n">
+      <c r="T10" s="1" t="n">
+        <f aca="false">N10*I10/0.000001</f>
+        <v>110450</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <f aca="false">(4*PI()*R10*S10*I10^2)/0.000001</f>
+        <v>349764.819857704</v>
+      </c>
+      <c r="Y10" s="1" t="n">
         <f aca="false">ROUND(40/60,2)</f>
         <v>0.67</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="Z10" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="Y10" s="1" t="n">
+      <c r="AA10" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="AB10" s="1" t="s">
-        <v>315</v>
+      <c r="AD10" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>1</v>
@@ -8485,25 +8558,29 @@
       <c r="R11" s="1" t="n">
         <v>0.27</v>
       </c>
-      <c r="AB11" s="1" t="s">
-        <v>319</v>
+      <c r="T11" s="1" t="n">
+        <f aca="false">N11*I11/0.000001</f>
+        <v>1485</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>3</v>
@@ -8546,31 +8623,35 @@
       <c r="R12" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U12" s="1" t="n">
+      <c r="T12" s="1" t="n">
+        <f aca="false">N12*I12/0.000001</f>
+        <v>294000</v>
+      </c>
+      <c r="W12" s="1" t="n">
         <v>0.45</v>
       </c>
-      <c r="Y12" s="1" t="n">
+      <c r="AA12" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="AB12" s="1" t="s">
-        <v>323</v>
+      <c r="AD12" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>2</v>
@@ -8596,25 +8677,29 @@
       <c r="R13" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="AB13" s="1" t="s">
-        <v>328</v>
+      <c r="T13" s="1" t="n">
+        <f aca="false">N13*I13/0.000001</f>
+        <v>125136</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>1</v>
@@ -8653,25 +8738,33 @@
       <c r="S14" s="1" t="n">
         <v>0.14</v>
       </c>
-      <c r="AB14" s="1" t="s">
-        <v>332</v>
+      <c r="T14" s="1" t="n">
+        <f aca="false">N14*I14/0.000001</f>
+        <v>26000</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <f aca="false">(4*PI()*R14*S14*I14^2)/0.000001</f>
+        <v>83566.3645854885</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>1</v>
@@ -8708,28 +8801,36 @@
         <f aca="false">ROUND(TAN(RADIANS(20))*0.06,2)</f>
         <v>0.02</v>
       </c>
+      <c r="T15" s="1" t="n">
+        <f aca="false">N15*I15/0.000001</f>
+        <v>59</v>
+      </c>
       <c r="U15" s="1" t="n">
+        <f aca="false">(4*PI()*R15*S15*I15^2)/0.000001</f>
+        <v>21871.7680542921</v>
+      </c>
+      <c r="W15" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="AB15" s="1" t="s">
-        <v>337</v>
+      <c r="AD15" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>1</v>
@@ -8765,25 +8866,33 @@
       <c r="S16" s="1" t="n">
         <v>5E-005</v>
       </c>
-      <c r="AB16" s="1" t="s">
-        <v>341</v>
+      <c r="T16" s="1" t="n">
+        <f aca="false">N16*I16/0.000001</f>
+        <v>252.18</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <f aca="false">(4*PI()*R16*S16*I16^2)/0.000001</f>
+        <v>8.61123112719577</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>1</v>
@@ -8823,25 +8932,33 @@
       <c r="S17" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="AB17" s="1" t="s">
-        <v>345</v>
+      <c r="T17" s="1" t="n">
+        <f aca="false">N17*I17/0.000001</f>
+        <v>84000</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <f aca="false">(4*PI()*R17*S17*I17^2)/0.000001</f>
+        <v>49762.8276328623</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>1</v>
@@ -8878,25 +8995,33 @@
         <f aca="false">ROUND(TAN(RADIANS(30))*(I18/4),2)</f>
         <v>0.04</v>
       </c>
-      <c r="AB18" s="1" t="s">
-        <v>348</v>
+      <c r="T18" s="1" t="n">
+        <f aca="false">N18*I18/0.000001</f>
+        <v>8320</v>
+      </c>
+      <c r="U18" s="1" t="n">
+        <f aca="false">(4*PI()*R18*S18*I18^2)/0.000001</f>
+        <v>10873.4291651927</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>1</v>
@@ -8933,25 +9058,33 @@
         <f aca="false">ROUND(TAN(RADIANS(20))*(I19/4),2)</f>
         <v>0.03</v>
       </c>
-      <c r="AB19" s="1" t="s">
-        <v>352</v>
+      <c r="T19" s="1" t="n">
+        <f aca="false">N19*I19/0.000001</f>
+        <v>57760</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <f aca="false">(4*PI()*R19*S19*I19^2)/0.000001</f>
+        <v>156780.050404043</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>1</v>
@@ -8979,31 +9112,39 @@
         <f aca="false">ROUND(TAN(RADIANS(15))*0.067,2)</f>
         <v>0.02</v>
       </c>
-      <c r="X20" s="1" t="n">
+      <c r="T20" s="1" t="n">
+        <f aca="false">N20*I20/0.000001</f>
+        <v>52909</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <f aca="false">(4*PI()*R20*S20*I20^2)/0.000001</f>
+        <v>89196.8840188848</v>
+      </c>
+      <c r="Z20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y20" s="1" t="n">
+      <c r="AA20" s="1" t="n">
         <v>2.75</v>
       </c>
-      <c r="AB20" s="1" t="s">
-        <v>355</v>
+      <c r="AD20" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>1</v>
@@ -9036,28 +9177,32 @@
       <c r="R21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W21" s="1" t="n">
+      <c r="T21" s="1" t="n">
+        <f aca="false">N21*I21/0.000001</f>
+        <v>1014</v>
+      </c>
+      <c r="Y21" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="AB21" s="1" t="s">
-        <v>359</v>
+      <c r="AD21" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>1</v>
@@ -9092,25 +9237,33 @@
       <c r="S22" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="AB22" s="1" t="s">
-        <v>362</v>
+      <c r="T22" s="1" t="n">
+        <f aca="false">N22*I22/0.000001</f>
+        <v>9360</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <f aca="false">(4*PI()*R22*S22*I22^2)/0.000001</f>
+        <v>34404.2094679925</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>3</v>
@@ -9141,25 +9294,33 @@
         <f aca="false">ROUND(TAN(RADIANS(40))*(I23/4),2)</f>
         <v>0.05</v>
       </c>
-      <c r="AB23" s="1" t="s">
-        <v>366</v>
+      <c r="T23" s="1" t="n">
+        <f aca="false">N23*I23/0.000001</f>
+        <v>92500</v>
+      </c>
+      <c r="U23" s="1" t="n">
+        <f aca="false">(4*PI()*R23*S23*I23^2)/0.000001</f>
+        <v>314159.265358979</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>2</v>
@@ -9192,27 +9353,31 @@
         <v>0.75</v>
       </c>
       <c r="T24" s="1" t="n">
+        <f aca="false">N24*I24/0.000001</f>
+        <v>4125</v>
+      </c>
+      <c r="V24" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="AB24" s="1" t="s">
-        <v>371</v>
+      <c r="AD24" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>1</v>
@@ -9245,25 +9410,33 @@
       <c r="S25" s="1" t="n">
         <v>0.0231</v>
       </c>
-      <c r="AB25" s="1" t="s">
-        <v>376</v>
+      <c r="T25" s="1" t="n">
+        <f aca="false">N25*I25/0.000001</f>
+        <v>35420</v>
+      </c>
+      <c r="U25" s="1" t="n">
+        <f aca="false">(4*PI()*R25*S25*I25^2)/0.000001</f>
+        <v>14049.7050016781</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>3</v>
@@ -9296,34 +9469,38 @@
       <c r="R26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="U26" s="1" t="n">
+      <c r="T26" s="1" t="n">
+        <f aca="false">N26*I26/0.000001</f>
+        <v>3906400</v>
+      </c>
+      <c r="W26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V26" s="1" t="n">
+      <c r="X26" s="1" t="n">
         <v>91.4</v>
       </c>
-      <c r="W26" s="1" t="n">
+      <c r="Y26" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>382</v>
+      <c r="AD26" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>1</v>
@@ -9350,25 +9527,29 @@
       <c r="R27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AB27" s="1" t="s">
-        <v>386</v>
+      <c r="T27" s="1" t="n">
+        <f aca="false">N27*I27/0.000001</f>
+        <v>1875</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>1</v>
@@ -9401,32 +9582,36 @@
       <c r="R28" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="U28" s="1" t="n">
+      <c r="T28" s="1" t="n">
+        <f aca="false">N28*I28/0.000001</f>
+        <v>2340</v>
+      </c>
+      <c r="W28" s="1" t="n">
         <f aca="false">I28/20</f>
         <v>0.0039</v>
       </c>
-      <c r="W28" s="1" t="n">
+      <c r="Y28" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="AB28" s="1" t="s">
-        <v>389</v>
+      <c r="AD28" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>1</v>
@@ -9460,25 +9645,33 @@
         <f aca="false">0.14*I29</f>
         <v>0.0448</v>
       </c>
-      <c r="AB29" s="1" t="s">
-        <v>392</v>
+      <c r="T29" s="1" t="n">
+        <f aca="false">N29*I29/0.000001</f>
+        <v>54400</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <f aca="false">(4*PI()*R29*S29*I29^2)/0.000001</f>
+        <v>138356.343649884</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>1</v>
@@ -9508,28 +9701,32 @@
       <c r="R30" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="U30" s="1" t="n">
+      <c r="T30" s="1" t="n">
+        <f aca="false">N30*I30/0.000001</f>
+        <v>1260</v>
+      </c>
+      <c r="W30" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="AB30" s="1" t="s">
-        <v>396</v>
+      <c r="AD30" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>1</v>
@@ -9562,25 +9759,33 @@
       <c r="S31" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="AB31" s="1" t="s">
-        <v>399</v>
+      <c r="T31" s="1" t="n">
+        <f aca="false">N31*I31/0.000001</f>
+        <v>4460</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <f aca="false">(4*PI()*R31*S31*I31^2)/0.000001</f>
+        <v>3749.4782656888</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>2</v>
@@ -9617,27 +9822,35 @@
         <v>0.01</v>
       </c>
       <c r="T32" s="1" t="n">
+        <f aca="false">N32*I32/0.000001</f>
+        <v>52200</v>
+      </c>
+      <c r="U32" s="1" t="n">
+        <f aca="false">(4*PI()*R32*S32*I32^2)/0.000001</f>
+        <v>339292.006587698</v>
+      </c>
+      <c r="V32" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="AB32" s="1" t="s">
-        <v>402</v>
+      <c r="AD32" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>1</v>
@@ -9683,28 +9896,36 @@
       <c r="S33" s="1" t="n">
         <v>0.034</v>
       </c>
-      <c r="W33" s="1" t="n">
+      <c r="T33" s="1" t="n">
+        <f aca="false">N33*I33/0.000001</f>
+        <v>104040</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <f aca="false">(4*PI()*R33*S33*I33^2)/0.000001</f>
+        <v>416735.40709134</v>
+      </c>
+      <c r="Y33" s="1" t="n">
         <v>1.16</v>
       </c>
-      <c r="AB33" s="1" t="s">
-        <v>406</v>
+      <c r="AD33" s="1" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>1</v>
@@ -9733,25 +9954,29 @@
       <c r="R34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W34" s="1" t="n">
+      <c r="T34" s="1" t="n">
+        <f aca="false">N34*I34/0.000001</f>
+        <v>135</v>
+      </c>
+      <c r="Y34" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>4</v>
@@ -9777,25 +10002,29 @@
       <c r="S35" s="1" t="n">
         <v>0.11</v>
       </c>
-      <c r="AB35" s="1" t="s">
-        <v>413</v>
+      <c r="U35" s="1" t="n">
+        <f aca="false">(4*PI()*R35*S35*I35^2)/0.000001</f>
+        <v>152802.982600158</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>2</v>
@@ -9831,25 +10060,33 @@
         <f aca="false">ROUND(TAN(0.4)*I36,2)</f>
         <v>0.05</v>
       </c>
-      <c r="AB36" s="1" t="s">
-        <v>417</v>
+      <c r="T36" s="1" t="n">
+        <f aca="false">N36*I36/0.000001</f>
+        <v>960</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <f aca="false">(4*PI()*R36*S36*I36^2)/0.000001</f>
+        <v>3619.11473693544</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>2</v>
@@ -9878,31 +10115,35 @@
       <c r="N37" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="V37" s="1" t="n">
+      <c r="T37" s="1" t="n">
+        <f aca="false">N37*I37/0.000001</f>
+        <v>160000</v>
+      </c>
+      <c r="X37" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="W37" s="1" t="n">
+      <c r="Y37" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="AB37" s="1" t="s">
-        <v>421</v>
+      <c r="AD37" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>2</v>
@@ -9943,40 +10184,44 @@
         <f aca="false">P38*I38</f>
         <v>3.99</v>
       </c>
-      <c r="U38" s="1" t="n">
+      <c r="T38" s="1" t="n">
+        <f aca="false">N38*I38/0.000001</f>
+        <v>175000</v>
+      </c>
+      <c r="W38" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="V38" s="1" t="n">
+      <c r="X38" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="W38" s="1" t="n">
+      <c r="Y38" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="X38" s="1" t="n">
+      <c r="Z38" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="Y38" s="1" t="n">
+      <c r="AA38" s="1" t="n">
         <v>5.7</v>
       </c>
-      <c r="AB38" s="1" t="s">
-        <v>423</v>
+      <c r="AD38" s="1" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>2</v>
@@ -10017,40 +10262,44 @@
         <f aca="false">P39*I39</f>
         <v>8.4588</v>
       </c>
-      <c r="U39" s="1" t="n">
+      <c r="T39" s="1" t="n">
+        <f aca="false">N39*I39/0.000001</f>
+        <v>265000</v>
+      </c>
+      <c r="W39" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="V39" s="1" t="n">
+      <c r="X39" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="W39" s="1" t="n">
+      <c r="Y39" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="X39" s="1" t="n">
+      <c r="Z39" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="Y39" s="1" t="n">
+      <c r="AA39" s="1" t="n">
         <v>11.4</v>
       </c>
-      <c r="AB39" s="1" t="s">
-        <v>423</v>
+      <c r="AD39" s="1" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>3</v>
@@ -10091,34 +10340,38 @@
         <f aca="false">P40*I40</f>
         <v>17.612</v>
       </c>
-      <c r="W40" s="1" t="n">
+      <c r="T40" s="1" t="n">
+        <f aca="false">N40*I40/0.000001</f>
+        <v>175000</v>
+      </c>
+      <c r="Y40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X40" s="1" t="n">
+      <c r="Z40" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y40" s="1" t="n">
+      <c r="AA40" s="1" t="n">
         <v>3.4</v>
       </c>
-      <c r="AB40" s="1" t="s">
-        <v>427</v>
+      <c r="AD40" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>1</v>
@@ -10149,27 +10402,31 @@
         <v>8</v>
       </c>
       <c r="T41" s="1" t="n">
+        <f aca="false">N41*I41/0.000001</f>
+        <v>444000</v>
+      </c>
+      <c r="V41" s="1" t="n">
         <v>63.8</v>
       </c>
-      <c r="AB41" s="1" t="s">
-        <v>429</v>
+      <c r="AD41" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>2</v>
@@ -10206,32 +10463,40 @@
         <f aca="false">ROUND(TAN(RADIANS(50))*(I42/2),2)</f>
         <v>0.3</v>
       </c>
+      <c r="T42" s="1" t="n">
+        <f aca="false">N42*I42/0.000001</f>
+        <v>340000</v>
+      </c>
       <c r="U42" s="1" t="n">
+        <f aca="false">(4*PI()*R42*S42*I42^2)/0.000001</f>
+        <v>2356194.49019234</v>
+      </c>
+      <c r="W42" s="1" t="n">
         <f aca="false">0.52*I42</f>
         <v>0.26</v>
       </c>
-      <c r="W42" s="1" t="n">
+      <c r="Y42" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="AB42" s="1" t="s">
-        <v>433</v>
+      <c r="AD42" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>2</v>
@@ -10255,25 +10520,25 @@
       <c r="S43" s="1" t="n">
         <v>0.099</v>
       </c>
-      <c r="AB43" s="1" t="s">
-        <v>437</v>
+      <c r="AD43" s="1" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>2</v>
@@ -10300,28 +10565,32 @@
       <c r="R44" s="1" t="n">
         <v>2.3</v>
       </c>
-      <c r="U44" s="1" t="n">
+      <c r="T44" s="1" t="n">
+        <f aca="false">N44*I44/0.000001</f>
+        <v>68000</v>
+      </c>
+      <c r="W44" s="1" t="n">
         <v>0.0875</v>
       </c>
-      <c r="AB44" s="1" t="s">
-        <v>441</v>
+      <c r="AD44" s="1" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>2</v>
@@ -10356,25 +10625,33 @@
       <c r="S45" s="1" t="n">
         <v>0.0005</v>
       </c>
-      <c r="AB45" s="1" t="s">
-        <v>445</v>
+      <c r="T45" s="1" t="n">
+        <f aca="false">N45*I45/0.000001</f>
+        <v>256.5</v>
+      </c>
+      <c r="U45" s="1" t="n">
+        <f aca="false">(4*PI()*R45*S45*I45^2)/0.000001</f>
+        <v>183.726621567238</v>
+      </c>
+      <c r="AD45" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>2</v>
@@ -10406,25 +10683,33 @@
       <c r="S46" s="1" t="n">
         <v>0.0004</v>
       </c>
-      <c r="AB46" s="1" t="s">
-        <v>448</v>
+      <c r="T46" s="1" t="n">
+        <f aca="false">N46*I46/0.000001</f>
+        <v>12800</v>
+      </c>
+      <c r="U46" s="1" t="n">
+        <f aca="false">(4*PI()*R46*S46*I46^2)/0.000001</f>
+        <v>1125.94680704658</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>2</v>
@@ -10461,27 +10746,35 @@
         <v>0.266</v>
       </c>
       <c r="T47" s="1" t="n">
+        <f aca="false">N47*I47/0.000001</f>
+        <v>2160000</v>
+      </c>
+      <c r="U47" s="1" t="n">
+        <f aca="false">(4*PI()*R47*S47*I47^2)/0.000001</f>
+        <v>15402952.3203972</v>
+      </c>
+      <c r="V47" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="AB47" s="1" t="s">
-        <v>451</v>
+      <c r="AD47" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>4</v>
@@ -10509,25 +10802,33 @@
         <f aca="false">ROUND(TAN(RADIANS(50))*(I48/3),2)</f>
         <v>0.24</v>
       </c>
-      <c r="AB48" s="1" t="s">
-        <v>454</v>
+      <c r="T48" s="1" t="n">
+        <f aca="false">N48*I48/0.000001</f>
+        <v>300000</v>
+      </c>
+      <c r="U48" s="1" t="n">
+        <f aca="false">(4*PI()*R48*S48*I48^2)/0.000001</f>
+        <v>2171468.84216126</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>2</v>
@@ -10553,25 +10854,29 @@
       <c r="R49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AB49" s="1" t="s">
-        <v>457</v>
+      <c r="T49" s="1" t="n">
+        <f aca="false">N49*I49/0.000001</f>
+        <v>87000</v>
+      </c>
+      <c r="AD49" s="1" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F50" s="1" t="n">
         <v>1</v>
@@ -10607,25 +10912,33 @@
       <c r="S50" s="1" t="n">
         <v>0.044</v>
       </c>
-      <c r="AB50" s="1" t="s">
-        <v>459</v>
+      <c r="T50" s="1" t="n">
+        <f aca="false">N50*I50/0.000001</f>
+        <v>175000</v>
+      </c>
+      <c r="U50" s="1" t="n">
+        <f aca="false">(4*PI()*R50*S50*I50^2)/0.000001</f>
+        <v>228079.626650619</v>
+      </c>
+      <c r="AD50" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>1</v>
@@ -10661,25 +10974,33 @@
       <c r="S51" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="AB51" s="1" t="s">
-        <v>461</v>
+      <c r="T51" s="1" t="n">
+        <f aca="false">N51*I51/0.000001</f>
+        <v>1184000</v>
+      </c>
+      <c r="U51" s="1" t="n">
+        <f aca="false">(4*PI()*R51*S51*I51^2)/0.000001</f>
+        <v>1621363.40214708</v>
+      </c>
+      <c r="AD51" s="1" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>5</v>
@@ -10705,25 +11026,29 @@
       <c r="R52" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AB52" s="1" t="s">
-        <v>465</v>
+      <c r="T52" s="1" t="n">
+        <f aca="false">N52*I52/0.000001</f>
+        <v>4956</v>
+      </c>
+      <c r="AD52" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F53" s="1" t="n">
         <v>3</v>
@@ -10756,28 +11081,32 @@
       <c r="R53" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="W53" s="1" t="n">
+      <c r="T53" s="1" t="n">
+        <f aca="false">N53*I53/0.000001</f>
+        <v>420000</v>
+      </c>
+      <c r="Y53" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="AB53" s="1" t="s">
-        <v>469</v>
+      <c r="AD53" s="1" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F54" s="1" t="n">
         <v>4</v>
@@ -10814,25 +11143,33 @@
         <f aca="false">ROUND(TAN(RADIANS(30))*(I54/3),2)</f>
         <v>0.1</v>
       </c>
-      <c r="AB54" s="1" t="s">
-        <v>473</v>
+      <c r="T54" s="1" t="n">
+        <f aca="false">N54*I54/0.000001</f>
+        <v>324051.6</v>
+      </c>
+      <c r="U54" s="1" t="n">
+        <f aca="false">(4*PI()*R54*S54*I54^2)/0.000001</f>
+        <v>703466.050283809</v>
+      </c>
+      <c r="AD54" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F55" s="1" t="n">
         <v>2</v>
@@ -10855,25 +11192,29 @@
       <c r="R55" s="1" t="n">
         <v>5.4</v>
       </c>
-      <c r="AB55" s="1" t="s">
-        <v>475</v>
+      <c r="T55" s="1" t="n">
+        <f aca="false">N55*I55/0.000001</f>
+        <v>78141</v>
+      </c>
+      <c r="AD55" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F56" s="1" t="n">
         <v>6</v>
@@ -10906,36 +11247,40 @@
         <v>0.075</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="U56" s="1" t="n">
-        <v>1.3</v>
+        <f aca="false">N56*I56/0.000001</f>
+        <v>3427500</v>
       </c>
       <c r="V56" s="1" t="n">
         <v>30</v>
       </c>
       <c r="W56" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X56" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y56" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AB56" s="1" t="s">
-        <v>479</v>
+      <c r="AD56" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F57" s="1" t="n">
         <v>2</v>
@@ -10970,25 +11315,33 @@
       <c r="S57" s="1" t="n">
         <v>0.012</v>
       </c>
-      <c r="AB57" s="1" t="s">
-        <v>482</v>
+      <c r="T57" s="1" t="n">
+        <f aca="false">N57*I57/0.000001</f>
+        <v>45000</v>
+      </c>
+      <c r="U57" s="1" t="n">
+        <f aca="false">(4*PI()*R57*S57*I57^2)/0.000001</f>
+        <v>138732.731582525</v>
+      </c>
+      <c r="AD57" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F58" s="1" t="n">
         <v>3</v>
@@ -11023,28 +11376,32 @@
         <f aca="false">ROUND(DEGREES(9.5)/360,2)</f>
         <v>1.51</v>
       </c>
-      <c r="U58" s="1" t="n">
+      <c r="T58" s="1" t="n">
+        <f aca="false">N58*I58/0.000001</f>
+        <v>82800</v>
+      </c>
+      <c r="W58" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AB58" s="1" t="s">
-        <v>485</v>
+      <c r="AD58" s="1" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F59" s="1" t="n">
         <v>2</v>
@@ -11077,25 +11434,29 @@
       <c r="R59" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AB59" s="1" t="s">
-        <v>487</v>
+      <c r="T59" s="1" t="n">
+        <f aca="false">N59*I59/0.000001</f>
+        <v>260000</v>
+      </c>
+      <c r="AD59" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F60" s="1" t="n">
         <v>5</v>
@@ -11124,25 +11485,29 @@
       <c r="N60" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="AB60" s="1" t="s">
-        <v>491</v>
+      <c r="T60" s="1" t="n">
+        <f aca="false">N60*I60/0.000001</f>
+        <v>750000</v>
+      </c>
+      <c r="AD60" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F61" s="1" t="n">
         <v>2</v>
@@ -11190,37 +11555,45 @@
         <f aca="false">ROUND(TAN(RADIANS(30))*(I61/3),2)</f>
         <v>0.13</v>
       </c>
+      <c r="T61" s="1" t="n">
+        <f aca="false">N61*I61/0.000001</f>
+        <v>218130</v>
+      </c>
       <c r="U61" s="1" t="n">
+        <f aca="false">(4*PI()*R61*S61*I61^2)/0.000001</f>
+        <v>1427532.91595107</v>
+      </c>
+      <c r="W61" s="1" t="n">
         <v>0.1</v>
-      </c>
-      <c r="W61" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="X61" s="1" t="n">
-        <v>15</v>
       </c>
       <c r="Y61" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AB61" s="1" t="s">
-        <v>495</v>
+      <c r="Z61" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA61" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD61" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F62" s="1" t="n">
         <v>3</v>
@@ -11241,25 +11614,29 @@
         <f aca="false">M62</f>
         <v>0.378</v>
       </c>
-      <c r="AB62" s="1" t="s">
-        <v>499</v>
+      <c r="T62" s="1" t="n">
+        <f aca="false">N62*I62/0.000001</f>
+        <v>170100</v>
+      </c>
+      <c r="AD62" s="1" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F63" s="1" t="n">
         <v>4</v>
@@ -11296,34 +11673,42 @@
         <f aca="false">ROUND(TAN(RADIANS(40))*(I63/3),2)</f>
         <v>0.13</v>
       </c>
+      <c r="T63" s="1" t="n">
+        <f aca="false">N63*I63/0.000001</f>
+        <v>174800</v>
+      </c>
       <c r="U63" s="1" t="n">
+        <f aca="false">(4*PI()*R63*S63*I63^2)/0.000001</f>
+        <v>691351.445719584</v>
+      </c>
+      <c r="W63" s="1" t="n">
         <v>0.36</v>
       </c>
-      <c r="X63" s="1" t="n">
+      <c r="Z63" s="1" t="n">
         <v>4.8</v>
       </c>
-      <c r="Y63" s="1" t="n">
+      <c r="AA63" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="AB63" s="1" t="s">
-        <v>502</v>
+      <c r="AD63" s="1" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F64" s="1" t="n">
         <v>4</v>
@@ -11370,34 +11755,42 @@
         <f aca="false">ROUND(TAN(RADIANS(20))*(I64/3),2)</f>
         <v>0.08</v>
       </c>
-      <c r="W64" s="1" t="n">
+      <c r="T64" s="1" t="n">
+        <f aca="false">N64*I64/0.000001</f>
+        <v>455400</v>
+      </c>
+      <c r="U64" s="1" t="n">
+        <f aca="false">(4*PI()*R64*S64*I64^2)/0.000001</f>
+        <v>670079.093543597</v>
+      </c>
+      <c r="Y64" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="X64" s="1" t="n">
+      <c r="Z64" s="1" t="n">
         <v>11.1</v>
       </c>
-      <c r="Y64" s="1" t="n">
+      <c r="AA64" s="1" t="n">
         <v>2.4</v>
       </c>
-      <c r="AB64" s="1" t="s">
-        <v>506</v>
+      <c r="AD64" s="1" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F65" s="1" t="n">
         <v>4</v>
@@ -11422,27 +11815,31 @@
         <v>1.9</v>
       </c>
       <c r="T65" s="1" t="n">
+        <f aca="false">N65*I65/0.000001</f>
+        <v>275600</v>
+      </c>
+      <c r="V65" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="AB65" s="1" t="s">
-        <v>508</v>
+      <c r="AD65" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F66" s="1" t="n">
         <v>2</v>
@@ -11472,28 +11869,32 @@
       <c r="R66" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AA66" s="1" t="n">
+      <c r="T66" s="1" t="n">
+        <f aca="false">N66*I66/0.000001</f>
+        <v>744000</v>
+      </c>
+      <c r="AC66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="AB66" s="1" t="s">
-        <v>512</v>
+      <c r="AD66" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F67" s="1" t="n">
         <v>8</v>
@@ -11513,25 +11914,29 @@
       <c r="S67" s="1" t="n">
         <v>0.056</v>
       </c>
-      <c r="AB67" s="1" t="s">
-        <v>516</v>
+      <c r="U67" s="1" t="n">
+        <f aca="false">(4*PI()*R67*S67*I67^2)/0.000001</f>
+        <v>351858.377202057</v>
+      </c>
+      <c r="AD67" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F68" s="1" t="n">
         <v>3</v>
@@ -11560,28 +11965,32 @@
       <c r="N68" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W68" s="1" t="n">
+      <c r="T68" s="1" t="n">
+        <f aca="false">N68*I68/0.000001</f>
+        <v>160000</v>
+      </c>
+      <c r="Y68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AB68" s="1" t="s">
-        <v>499</v>
+      <c r="AD68" s="1" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F69" s="1" t="n">
         <v>2</v>
@@ -11614,25 +12023,29 @@
       <c r="R69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AB69" s="1" t="s">
-        <v>520</v>
+      <c r="T69" s="1" t="n">
+        <f aca="false">N69*I69/0.000001</f>
+        <v>207000</v>
+      </c>
+      <c r="AD69" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F70" s="1" t="n">
         <v>3</v>
@@ -11669,25 +12082,33 @@
         <f aca="false">ROUND(TAN(RADIANS(45))*0.01,2)</f>
         <v>0.01</v>
       </c>
-      <c r="AB70" s="1" t="s">
-        <v>523</v>
+      <c r="T70" s="1" t="n">
+        <f aca="false">N70*I70/0.000001</f>
+        <v>2600</v>
+      </c>
+      <c r="U70" s="1" t="n">
+        <f aca="false">(4*PI()*R70*S70*I70^2)/0.000001</f>
+        <v>1005.30964914873</v>
+      </c>
+      <c r="AD70" s="1" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F71" s="1" t="n">
         <v>3</v>
@@ -11723,25 +12144,33 @@
       <c r="S71" s="1" t="n">
         <v>0.0826</v>
       </c>
-      <c r="AB71" s="1" t="s">
-        <v>527</v>
+      <c r="T71" s="1" t="n">
+        <f aca="false">N71*I71/0.000001</f>
+        <v>6165</v>
+      </c>
+      <c r="U71" s="1" t="n">
+        <f aca="false">(4*PI()*R71*S71*I71^2)/0.000001</f>
+        <v>18683.6798294292</v>
+      </c>
+      <c r="AD71" s="1" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F72" s="1" t="n">
         <v>3</v>
@@ -11785,27 +12214,31 @@
         <v>0.4</v>
       </c>
       <c r="T72" s="1" t="n">
+        <f aca="false">N72*I72/0.000001</f>
+        <v>126</v>
+      </c>
+      <c r="V72" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AB72" s="1" t="s">
-        <v>531</v>
+      <c r="AD72" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F73" s="1" t="n">
         <v>1</v>
@@ -11838,28 +12271,32 @@
       <c r="R73" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="U73" s="1" t="n">
+      <c r="T73" s="1" t="n">
+        <f aca="false">N73*I73/0.000001</f>
+        <v>682500</v>
+      </c>
+      <c r="W73" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AB73" s="1" t="s">
-        <v>533</v>
+      <c r="AD73" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F74" s="1" t="n">
         <v>3</v>
@@ -11889,25 +12326,33 @@
       <c r="S74" s="1" t="n">
         <v>0.072</v>
       </c>
-      <c r="AB74" s="1" t="s">
-        <v>537</v>
+      <c r="T74" s="1" t="n">
+        <f aca="false">N74*I74/0.000001</f>
+        <v>203000</v>
+      </c>
+      <c r="U74" s="1" t="n">
+        <f aca="false">(4*PI()*R74*S74*I74^2)/0.000001</f>
+        <v>665012.332911887</v>
+      </c>
+      <c r="AD74" s="1" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F75" s="1" t="n">
         <v>7</v>
@@ -11943,31 +12388,39 @@
       <c r="S75" s="1" t="n">
         <v>0.082</v>
       </c>
+      <c r="T75" s="1" t="n">
+        <f aca="false">N75*I75/0.000001</f>
+        <v>315000</v>
+      </c>
       <c r="U75" s="1" t="n">
+        <f aca="false">(4*PI()*R75*S75*I75^2)/0.000001</f>
+        <v>833112.67262017</v>
+      </c>
+      <c r="W75" s="1" t="n">
         <v>0.23</v>
       </c>
-      <c r="W75" s="1" t="n">
+      <c r="Y75" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AB75" s="1" t="s">
-        <v>540</v>
+      <c r="AD75" s="1" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F76" s="1" t="n">
         <v>6</v>
@@ -12004,25 +12457,33 @@
         <f aca="false">ROUND(TAN(RADIANS(45))*I76,2)</f>
         <v>0.61</v>
       </c>
-      <c r="AB76" s="1" t="s">
-        <v>543</v>
+      <c r="T76" s="1" t="n">
+        <f aca="false">N76*I76/0.000001</f>
+        <v>282440</v>
+      </c>
+      <c r="U76" s="1" t="n">
+        <f aca="false">(4*PI()*R76*S76*I76^2)/0.000001</f>
+        <v>17917117.0470873</v>
+      </c>
+      <c r="AD76" s="1" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F77" s="1" t="n">
         <v>6</v>
@@ -12060,31 +12521,39 @@
         <v>0.23</v>
       </c>
       <c r="T77" s="1" t="n">
+        <f aca="false">N77*I77/0.000001</f>
+        <v>128000</v>
+      </c>
+      <c r="U77" s="1" t="n">
+        <f aca="false">(4*PI()*R77*S77*I77^2)/0.000001</f>
+        <v>924884.877216836</v>
+      </c>
+      <c r="V77" s="1" t="n">
         <f aca="false">ROUND(DEGREES(1),2)</f>
         <v>57.3</v>
       </c>
-      <c r="U77" s="1" t="n">
+      <c r="W77" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="AB77" s="1" t="s">
-        <v>545</v>
+      <c r="AD77" s="1" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F78" s="1" t="n">
         <v>4</v>
@@ -12114,28 +12583,32 @@
         <f aca="false">M78</f>
         <v>0.72</v>
       </c>
-      <c r="U78" s="1" t="n">
+      <c r="T78" s="1" t="n">
+        <f aca="false">N78*I78/0.000001</f>
+        <v>561600</v>
+      </c>
+      <c r="W78" s="1" t="n">
         <v>0.37</v>
       </c>
-      <c r="AB78" s="1" t="s">
-        <v>549</v>
+      <c r="AD78" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F79" s="1" t="n">
         <v>5</v>
@@ -12169,34 +12642,38 @@
         <v>1</v>
       </c>
       <c r="T79" s="1" t="n">
+        <f aca="false">N79*I79/0.000001</f>
+        <v>3000000</v>
+      </c>
+      <c r="V79" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="U79" s="1" t="n">
+      <c r="W79" s="1" t="n">
         <f aca="false">3.2*I79</f>
         <v>7.68</v>
       </c>
-      <c r="V79" s="1" t="n">
+      <c r="X79" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="AB79" s="1" t="s">
-        <v>553</v>
+      <c r="AD79" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F80" s="1" t="n">
         <v>4</v>
@@ -12233,25 +12710,33 @@
         <f aca="false">ROUND(0.1*I80,2)</f>
         <v>0.06</v>
       </c>
-      <c r="AB80" s="1" t="s">
-        <v>557</v>
+      <c r="T80" s="1" t="n">
+        <f aca="false">N80*I80/0.000001</f>
+        <v>208740</v>
+      </c>
+      <c r="U80" s="1" t="n">
+        <f aca="false">(4*PI()*R80*S80*I80^2)/0.000001</f>
+        <v>391027.25175219</v>
+      </c>
+      <c r="AD80" s="1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F81" s="1" t="n">
         <v>2</v>
@@ -12298,34 +12783,42 @@
         <f aca="false">ROUND(TAN(RADIANS(30))*(I81/3),2)</f>
         <v>0.1</v>
       </c>
-      <c r="W81" s="1" t="n">
+      <c r="T81" s="1" t="n">
+        <f aca="false">N81*I81/0.000001</f>
+        <v>25000</v>
+      </c>
+      <c r="U81" s="1" t="n">
+        <f aca="false">(4*PI()*R81*S81*I81^2)/0.000001</f>
+        <v>816814.089933346</v>
+      </c>
+      <c r="Y81" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="X81" s="1" t="n">
+      <c r="Z81" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="Y81" s="1" t="n">
+      <c r="AA81" s="1" t="n">
         <v>2.7</v>
       </c>
-      <c r="AB81" s="1" t="s">
-        <v>559</v>
+      <c r="AD81" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F82" s="1" t="n">
         <v>3</v>
@@ -12357,31 +12850,35 @@
       <c r="R82" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="X82" s="1" t="n">
+      <c r="T82" s="1" t="n">
+        <f aca="false">N82*I82/0.000001</f>
+        <v>63020</v>
+      </c>
+      <c r="Z82" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y82" s="1" t="n">
+      <c r="AA82" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="AB82" s="1" t="s">
-        <v>563</v>
+      <c r="AD82" s="1" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F83" s="1" t="n">
         <v>4</v>
@@ -12398,31 +12895,31 @@
       <c r="L83" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X83" s="1" t="n">
+      <c r="Z83" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y83" s="1" t="n">
+      <c r="AA83" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="AB83" s="1" t="s">
-        <v>567</v>
+      <c r="AD83" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F84" s="1" t="n">
         <v>4</v>
@@ -12457,31 +12954,39 @@
       <c r="S84" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X84" s="1" t="n">
+      <c r="T84" s="1" t="n">
+        <f aca="false">N84*I84/0.000001</f>
+        <v>169400</v>
+      </c>
+      <c r="U84" s="1" t="n">
+        <f aca="false">(4*PI()*R84*S84*I84^2)/0.000001</f>
+        <v>768134.169288176</v>
+      </c>
+      <c r="Z84" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="Y84" s="1" t="n">
+      <c r="AA84" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="AB84" s="1" t="s">
-        <v>571</v>
+      <c r="AD84" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F85" s="1" t="n">
         <v>1</v>
@@ -12501,25 +13006,25 @@
       <c r="R85" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AB85" s="1" t="s">
-        <v>576</v>
+      <c r="AD85" s="1" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F86" s="1" t="n">
         <v>4</v>
@@ -12550,27 +13055,31 @@
         <v>0.02595</v>
       </c>
       <c r="T86" s="1" t="n">
+        <f aca="false">N86*I86/0.000001</f>
+        <v>2019.948</v>
+      </c>
+      <c r="V86" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="AB86" s="1" t="s">
-        <v>580</v>
+      <c r="AD86" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F87" s="1" t="n">
         <v>4</v>
@@ -12607,31 +13116,39 @@
         <f aca="false">ROUND(TAN(RADIANS(40))*0.136,2)</f>
         <v>0.11</v>
       </c>
-      <c r="X87" s="1" t="n">
+      <c r="T87" s="1" t="n">
+        <f aca="false">N87*I87/0.000001</f>
+        <v>236720</v>
+      </c>
+      <c r="U87" s="1" t="n">
+        <f aca="false">(4*PI()*R87*S87*I87^2)/0.000001</f>
+        <v>695794.914368822</v>
+      </c>
+      <c r="Z87" s="1" t="n">
         <v>11.1</v>
       </c>
-      <c r="Y87" s="1" t="n">
+      <c r="AA87" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AB87" s="1" t="s">
-        <v>583</v>
+      <c r="AD87" s="1" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F88" s="1" t="n">
         <v>1</v>
@@ -12677,37 +13194,45 @@
       <c r="S88" s="1" t="n">
         <v>0.31</v>
       </c>
+      <c r="T88" s="1" t="n">
+        <f aca="false">N88*I88/0.000001</f>
+        <v>1936000</v>
+      </c>
       <c r="U88" s="1" t="n">
+        <f aca="false">(4*PI()*R88*S88*I88^2)/0.000001</f>
+        <v>24133865.5613242</v>
+      </c>
+      <c r="W88" s="1" t="n">
         <v>1.75</v>
       </c>
-      <c r="W88" s="1" t="n">
+      <c r="Y88" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="Z88" s="1" t="n">
+      <c r="AB88" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AA88" s="1" t="n">
+      <c r="AC88" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="AB88" s="1" t="s">
-        <v>587</v>
+      <c r="AD88" s="1" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F89" s="1" t="n">
         <v>5</v>
@@ -12739,34 +13264,38 @@
       <c r="R89" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="U89" s="1" t="n">
+      <c r="T89" s="1" t="n">
+        <f aca="false">N89*I89/0.000001</f>
+        <v>344960</v>
+      </c>
+      <c r="W89" s="1" t="n">
         <v>0.224</v>
       </c>
-      <c r="W89" s="1" t="n">
+      <c r="Y89" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="X89" s="1" t="n">
+      <c r="Z89" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="AB89" s="1" t="s">
-        <v>590</v>
+      <c r="AD89" s="1" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F90" s="1" t="n">
         <v>5</v>
@@ -12799,25 +13328,29 @@
       <c r="R90" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="AB90" s="1" t="s">
-        <v>594</v>
+      <c r="T90" s="1" t="n">
+        <f aca="false">N90*I90/0.000001</f>
+        <v>12675</v>
+      </c>
+      <c r="AD90" s="1" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F91" s="1" t="n">
         <v>6</v>
@@ -12850,25 +13383,33 @@
       <c r="S91" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="AB91" s="1" t="s">
-        <v>597</v>
+      <c r="T91" s="1" t="n">
+        <f aca="false">N91*I91/0.000001</f>
+        <v>1131000</v>
+      </c>
+      <c r="U91" s="1" t="n">
+        <f aca="false">(4*PI()*R91*S91*I91^2)/0.000001</f>
+        <v>9291260.27299181</v>
+      </c>
+      <c r="AD91" s="1" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F92" s="1" t="n">
         <v>3</v>
@@ -12909,37 +13450,45 @@
         <v>0.3</v>
       </c>
       <c r="T92" s="1" t="n">
+        <f aca="false">N92*I92/0.000001</f>
+        <v>73800</v>
+      </c>
+      <c r="U92" s="1" t="n">
+        <f aca="false">(4*PI()*R92*S92*I92^2)/0.000001</f>
+        <v>2534888.28032853</v>
+      </c>
+      <c r="V92" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="U92" s="1" t="n">
+      <c r="W92" s="1" t="n">
         <f aca="false">ROUND(TAN(RADIANS(30)),2)</f>
         <v>0.58</v>
       </c>
-      <c r="Z92" s="1" t="n">
+      <c r="AB92" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA92" s="1" t="n">
+      <c r="AC92" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AB92" s="1" t="s">
-        <v>601</v>
+      <c r="AD92" s="1" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F93" s="1" t="n">
         <v>6</v>
@@ -12969,25 +13518,33 @@
       <c r="S93" s="1" t="n">
         <v>0.0396</v>
       </c>
-      <c r="AB93" s="1" t="s">
-        <v>605</v>
+      <c r="T93" s="1" t="n">
+        <f aca="false">N93*I93/0.000001</f>
+        <v>9000</v>
+      </c>
+      <c r="U93" s="1" t="n">
+        <f aca="false">(4*PI()*R93*S93*I93^2)/0.000001</f>
+        <v>22393.272434788</v>
+      </c>
+      <c r="AD93" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F94" s="1" t="n">
         <v>7</v>
@@ -13013,25 +13570,33 @@
       <c r="S94" s="1" t="n">
         <v>0.661</v>
       </c>
-      <c r="AB94" s="1" t="s">
-        <v>608</v>
+      <c r="T94" s="1" t="n">
+        <f aca="false">N94*I94/0.000001</f>
+        <v>170940</v>
+      </c>
+      <c r="U94" s="1" t="n">
+        <f aca="false">(4*PI()*R94*S94*I94^2)/0.000001</f>
+        <v>4924847.3517246</v>
+      </c>
+      <c r="AD94" s="1" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F95" s="1" t="n">
         <v>1</v>
@@ -13057,25 +13622,33 @@
       <c r="S95" s="1" t="n">
         <v>0.125</v>
       </c>
-      <c r="AB95" s="1" t="s">
-        <v>610</v>
+      <c r="T95" s="1" t="n">
+        <f aca="false">N95*I95/0.000001</f>
+        <v>125244</v>
+      </c>
+      <c r="U95" s="1" t="n">
+        <f aca="false">(4*PI()*R95*S95*I95^2)/0.000001</f>
+        <v>415632.70806993</v>
+      </c>
+      <c r="AD95" s="1" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F96" s="1" t="n">
         <v>3</v>
@@ -13113,33 +13686,41 @@
         <v>0.05</v>
       </c>
       <c r="T96" s="1" t="n">
+        <f aca="false">N96*I96/0.000001</f>
+        <v>215070.24</v>
+      </c>
+      <c r="U96" s="1" t="n">
+        <f aca="false">(4*PI()*R96*S96*I96^2)/0.000001</f>
+        <v>321744.326661806</v>
+      </c>
+      <c r="V96" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="X96" s="1" t="n">
+      <c r="Z96" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y96" s="1" t="n">
+      <c r="AA96" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="AB96" s="1" t="s">
-        <v>614</v>
+      <c r="AD96" s="1" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>613</v>
-      </c>
       <c r="D97" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F97" s="1" t="n">
         <v>2</v>
@@ -13176,25 +13757,33 @@
         <f aca="false">ROUND(TAN(RADIANS(30))*0.36,2)</f>
         <v>0.21</v>
       </c>
-      <c r="AB97" s="1" t="s">
-        <v>617</v>
+      <c r="T97" s="1" t="n">
+        <f aca="false">N97*I97/0.000001</f>
+        <v>77760</v>
+      </c>
+      <c r="U97" s="1" t="n">
+        <f aca="false">(4*PI()*R97*S97*I97^2)/0.000001</f>
+        <v>1900035.23689111</v>
+      </c>
+      <c r="AD97" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F98" s="1" t="n">
         <v>9</v>
@@ -13227,34 +13816,42 @@
       <c r="S98" s="1" t="n">
         <v>0.2886</v>
       </c>
-      <c r="Y98" s="1" t="n">
+      <c r="T98" s="1" t="n">
+        <f aca="false">N98*I98/0.000001</f>
+        <v>561000</v>
+      </c>
+      <c r="U98" s="1" t="n">
+        <f aca="false">(4*PI()*R98*S98*I98^2)/0.000001</f>
+        <v>4388252.01675791</v>
+      </c>
+      <c r="AA98" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z98" s="1" t="n">
+      <c r="AB98" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="AA98" s="1" t="n">
+      <c r="AC98" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB98" s="1" t="s">
-        <v>619</v>
+      <c r="AD98" s="1" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F99" s="1" t="n">
         <v>13</v>
@@ -13286,25 +13883,33 @@
       <c r="S99" s="1" t="n">
         <v>0.11</v>
       </c>
-      <c r="AB99" s="1" t="s">
-        <v>623</v>
+      <c r="T99" s="1" t="n">
+        <f aca="false">N99*I99/0.000001</f>
+        <v>131100</v>
+      </c>
+      <c r="U99" s="1" t="n">
+        <f aca="false">(4*PI()*R99*S99*I99^2)/0.000001</f>
+        <v>988040.942650481</v>
+      </c>
+      <c r="AD99" s="1" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F100" s="1" t="n">
         <v>8</v>
@@ -13350,40 +13955,48 @@
       <c r="S100" s="1" t="n">
         <v>0.15</v>
       </c>
+      <c r="T100" s="1" t="n">
+        <f aca="false">N100*I100/0.000001</f>
+        <v>21600</v>
+      </c>
       <c r="U100" s="1" t="n">
+        <f aca="false">(4*PI()*R100*S100*I100^2)/0.000001</f>
+        <v>1526814.02964464</v>
+      </c>
+      <c r="W100" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="X100" s="1" t="n">
+      <c r="Z100" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y100" s="1" t="n">
+      <c r="AA100" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="Z100" s="1" t="n">
+      <c r="AB100" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="AA100" s="1" t="n">
+      <c r="AC100" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="AB100" s="1" t="s">
-        <v>627</v>
+      <c r="AD100" s="1" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F101" s="1" t="n">
         <v>18</v>
@@ -13412,25 +14025,29 @@
       <c r="N101" s="1" t="n">
         <v>0.07</v>
       </c>
-      <c r="AB101" s="1" t="s">
-        <v>629</v>
+      <c r="T101" s="1" t="n">
+        <f aca="false">N101*I101/0.000001</f>
+        <v>8190</v>
+      </c>
+      <c r="AD101" s="1" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F102" s="1" t="n">
         <v>9</v>
@@ -13470,25 +14087,33 @@
       <c r="S102" s="1" t="n">
         <v>0.46185</v>
       </c>
-      <c r="AB102" s="1" t="s">
-        <v>633</v>
+      <c r="T102" s="1" t="n">
+        <f aca="false">N102*I102/0.000001</f>
+        <v>120000</v>
+      </c>
+      <c r="U102" s="1" t="n">
+        <f aca="false">(4*PI()*R102*S102*I102^2)/0.000001</f>
+        <v>31097108.2635009</v>
+      </c>
+      <c r="AD102" s="1" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F103" s="1" t="n">
         <v>10</v>
@@ -13531,43 +14156,47 @@
       <c r="R103" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="U103" s="1" t="n">
+      <c r="T103" s="1" t="n">
+        <f aca="false">N103*I103/0.000001</f>
+        <v>245025</v>
+      </c>
+      <c r="W103" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W103" s="1" t="n">
+      <c r="Y103" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="X103" s="1" t="n">
+      <c r="Z103" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y103" s="1" t="n">
+      <c r="AA103" s="1" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z103" s="1" t="n">
+      <c r="AB103" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="AA103" s="1" t="n">
+      <c r="AC103" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AB103" s="1" t="s">
-        <v>637</v>
+      <c r="AD103" s="1" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F104" s="1" t="n">
         <v>2</v>
@@ -13595,27 +14224,31 @@
         <v>1</v>
       </c>
       <c r="T104" s="1" t="n">
+        <f aca="false">N104*I104/0.000001</f>
+        <v>165825</v>
+      </c>
+      <c r="V104" s="1" t="n">
         <v>51.4</v>
       </c>
-      <c r="AB104" s="1" t="s">
-        <v>640</v>
+      <c r="AD104" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F105" s="1" t="n">
         <v>1</v>
@@ -13658,11 +14291,15 @@
       <c r="R105" s="1" t="n">
         <v>1.35</v>
       </c>
-      <c r="Y105" s="1" t="n">
+      <c r="T105" s="1" t="n">
+        <f aca="false">N105*I105/0.000001</f>
+        <v>321192</v>
+      </c>
+      <c r="AA105" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="AB105" s="1" t="s">
-        <v>644</v>
+      <c r="AD105" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -13684,14 +14321,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="bottomRight" activeCell="R6" activeCellId="0" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13706,14 +14343,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="9" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="9" width="19.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="9" width="23.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="9" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="10" width="21.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="9" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="10" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="9" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="24" style="9" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="68" style="1" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="9" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="10" width="21.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="9" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="10" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="9" width="22.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="26" style="9" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="70" style="1" width="8.62"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13778,42 +14415,48 @@
         <v>271</v>
       </c>
       <c r="U1" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="W1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>273</v>
-      </c>
       <c r="Y1" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F2" s="9" t="n">
         <v>16</v>
@@ -13847,26 +14490,30 @@
       <c r="Q2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="W2" s="11"/>
-      <c r="AA2" s="9" t="s">
-        <v>648</v>
+      <c r="S2" s="9" t="n">
+        <f aca="false">(H2*M2)/0.000001</f>
+        <v>78540</v>
+      </c>
+      <c r="Y2" s="11"/>
+      <c r="AC2" s="9" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>647</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F3" s="9" t="n">
         <v>6</v>
@@ -13888,36 +14535,35 @@
         <v>0.08</v>
       </c>
       <c r="M3" s="9" t="n">
-        <f aca="false">L3</f>
-        <v>0.08</v>
-      </c>
-      <c r="Q3" s="9" t="n">
-        <v>4</v>
+        <v>0.03</v>
       </c>
       <c r="R3" s="9" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(28))*0.07,2)</f>
-        <v>0.04</v>
-      </c>
-      <c r="W3" s="11"/>
-      <c r="AA3" s="9" t="s">
-        <v>652</v>
+        <v>0.136836</v>
+      </c>
+      <c r="S3" s="9" t="n">
+        <f aca="false">(H3*M3)/0.000001</f>
+        <v>8160</v>
+      </c>
+      <c r="Y3" s="11"/>
+      <c r="AC3" s="9" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F4" s="9" t="n">
         <v>8</v>
@@ -13948,33 +14594,41 @@
         <v>0.88</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W4" s="11" t="n">
+        <v>0.1443</v>
+      </c>
+      <c r="S4" s="9" t="n">
+        <f aca="false">(H4*M4)/0.000001</f>
+        <v>160000</v>
+      </c>
+      <c r="T4" s="9" t="n">
+        <f aca="false">(4*PI()*Q4*R4*H4^2)/0.000001</f>
+        <v>1021265.92390002</v>
+      </c>
+      <c r="Y4" s="11" t="n">
         <v>7.5</v>
       </c>
-      <c r="X4" s="9" t="n">
+      <c r="Z4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AA4" s="9" t="s">
-        <v>654</v>
+      <c r="AC4" s="9" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F5" s="9" t="n">
         <v>12</v>
@@ -13995,35 +14649,42 @@
         <v>0.053</v>
       </c>
       <c r="M5" s="9" t="n">
-        <f aca="false">L5</f>
-        <v>0.053</v>
+        <v>0.032</v>
       </c>
       <c r="Q5" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="R5" s="9" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="W5" s="11"/>
-      <c r="AA5" s="9" t="s">
-        <v>657</v>
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="9" t="n">
+        <f aca="false">(H5*M5)/0.000001</f>
+        <v>1600</v>
+      </c>
+      <c r="T5" s="9" t="n">
+        <f aca="false">(4*PI()*Q5*R5*H5^2)/0.000001</f>
+        <v>628.318530717959</v>
+      </c>
+      <c r="Y5" s="11"/>
+      <c r="AC5" s="9" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F6" s="9" t="n">
         <v>4</v>
@@ -14054,29 +14715,36 @@
         <v>1</v>
       </c>
       <c r="R6" s="9" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(60))*0.09,2)</f>
-        <v>0.16</v>
-      </c>
-      <c r="W6" s="11"/>
-      <c r="AA6" s="9" t="s">
-        <v>662</v>
+        <v>0.41569</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <f aca="false">(H6*M6)/0.000001</f>
+        <v>13162.5</v>
+      </c>
+      <c r="T6" s="9" t="n">
+        <f aca="false">(4*PI()*Q6*R6*H6^2)/0.000001</f>
+        <v>734584.865721042</v>
+      </c>
+      <c r="Y6" s="11"/>
+      <c r="AC6" s="9" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>661</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F7" s="9" t="n">
         <v>7</v>
@@ -14101,26 +14769,30 @@
       <c r="Q7" s="9" t="n">
         <v>6.4</v>
       </c>
-      <c r="W7" s="11"/>
-      <c r="AA7" s="9" t="s">
-        <v>665</v>
+      <c r="S7" s="9" t="n">
+        <f aca="false">(H7*M7)/0.000001</f>
+        <v>69000</v>
+      </c>
+      <c r="Y7" s="11"/>
+      <c r="AC7" s="9" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F8" s="9" t="n">
         <v>2</v>
@@ -14155,34 +14827,38 @@
         <v>2</v>
       </c>
       <c r="S8" s="9" t="n">
+        <f aca="false">(H8*M8)/0.000001</f>
+        <v>60000</v>
+      </c>
+      <c r="U8" s="9" t="n">
         <v>0.15</v>
       </c>
-      <c r="T8" s="10" t="n">
+      <c r="V8" s="10" t="n">
         <v>0.25</v>
       </c>
-      <c r="W8" s="11"/>
-      <c r="Z8" s="9" t="n">
+      <c r="Y8" s="11"/>
+      <c r="AB8" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>669</v>
+      <c r="AC8" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F9" s="9" t="n">
         <v>12</v>
@@ -14217,28 +14893,36 @@
         <v>0.02</v>
       </c>
       <c r="S9" s="9" t="n">
+        <f aca="false">(H9*M9)/0.000001</f>
+        <v>79200</v>
+      </c>
+      <c r="T9" s="9" t="n">
+        <f aca="false">(4*PI()*Q9*R9*H9^2)/0.000001</f>
+        <v>49265.1993565337</v>
+      </c>
+      <c r="U9" s="9" t="n">
         <v>260</v>
       </c>
-      <c r="W9" s="11"/>
-      <c r="AA9" s="9" t="s">
-        <v>673</v>
+      <c r="Y9" s="11"/>
+      <c r="AC9" s="9" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F10" s="9" t="n">
         <v>2</v>
@@ -14269,29 +14953,33 @@
         <v>1.57</v>
       </c>
       <c r="S10" s="9" t="n">
+        <f aca="false">(H10*M10)/0.000001</f>
+        <v>149000</v>
+      </c>
+      <c r="U10" s="9" t="n">
         <v>2.2</v>
       </c>
-      <c r="V10" s="9"/>
-      <c r="W10" s="11"/>
-      <c r="AA10" s="9" t="s">
-        <v>677</v>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="11"/>
+      <c r="AC10" s="9" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>676</v>
-      </c>
       <c r="D11" s="9" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F11" s="9" t="n">
         <v>2</v>
@@ -14319,26 +15007,30 @@
         <f aca="false">L11</f>
         <v>0.13</v>
       </c>
-      <c r="W11" s="11"/>
-      <c r="AA11" s="9" t="s">
-        <v>679</v>
+      <c r="S11" s="9" t="n">
+        <f aca="false">(H11*M11)/0.000001</f>
+        <v>130000</v>
+      </c>
+      <c r="Y11" s="11"/>
+      <c r="AC11" s="9" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F12" s="9" t="n">
         <v>3</v>
@@ -14370,31 +15062,35 @@
         <v>3</v>
       </c>
       <c r="S12" s="9" t="n">
+        <f aca="false">(H12*M12)/0.000001</f>
+        <v>79200</v>
+      </c>
+      <c r="U12" s="9" t="n">
         <v>0.16</v>
       </c>
-      <c r="U12" s="9" t="n">
+      <c r="W12" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="W12" s="11"/>
-      <c r="AA12" s="9" t="s">
-        <v>681</v>
+      <c r="Y12" s="11"/>
+      <c r="AC12" s="9" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F13" s="9" t="n">
         <v>3</v>
@@ -14430,28 +15126,36 @@
         <v>0.14</v>
       </c>
       <c r="S13" s="9" t="n">
+        <f aca="false">(H13*M13)/0.000001</f>
+        <v>436590</v>
+      </c>
+      <c r="T13" s="9" t="n">
+        <f aca="false">(4*PI()*Q13*R13*H13^2)/0.000001</f>
+        <v>6158679.21509699</v>
+      </c>
+      <c r="U13" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="W13" s="11"/>
-      <c r="AA13" s="12" t="s">
-        <v>685</v>
+      <c r="Y13" s="11"/>
+      <c r="AC13" s="12" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>684</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F14" s="9" t="n">
         <v>34</v>
@@ -14486,26 +15190,34 @@
         <f aca="false">ROUND(TAN(RADIANS(40))*0.1,2)</f>
         <v>0.08</v>
       </c>
-      <c r="W14" s="11"/>
-      <c r="AA14" s="12" t="s">
-        <v>689</v>
+      <c r="S14" s="9" t="n">
+        <f aca="false">(H14*M14)/0.000001</f>
+        <v>291456</v>
+      </c>
+      <c r="T14" s="9" t="n">
+        <f aca="false">(4*PI()*Q14*R14*H14^2)/0.000001</f>
+        <v>784183.990615593</v>
+      </c>
+      <c r="Y14" s="11"/>
+      <c r="AC14" s="12" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F15" s="9" t="n">
         <v>4</v>
@@ -14536,26 +15248,30 @@
       <c r="Q15" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="W15" s="11"/>
-      <c r="AA15" s="12" t="s">
-        <v>693</v>
+      <c r="S15" s="9" t="n">
+        <f aca="false">(H15*M15)/0.000001</f>
+        <v>3432</v>
+      </c>
+      <c r="Y15" s="11"/>
+      <c r="AC15" s="12" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F16" s="9" t="n">
         <v>16</v>
@@ -14590,26 +15306,34 @@
         <f aca="false">ROUND(TAN(RADIANS(39.5))*(I16/3),2)</f>
         <v>0.11</v>
       </c>
-      <c r="W16" s="11"/>
-      <c r="AA16" s="12" t="s">
-        <v>697</v>
+      <c r="S16" s="9" t="n">
+        <f aca="false">(H16*M16)/0.000001</f>
+        <v>154400</v>
+      </c>
+      <c r="T16" s="9" t="n">
+        <f aca="false">(4*PI()*Q16*R16*H16^2)/0.000001</f>
+        <v>1327008.73687633</v>
+      </c>
+      <c r="Y16" s="11"/>
+      <c r="AC16" s="12" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F17" s="9" t="n">
         <v>1</v>
@@ -14644,29 +15368,37 @@
         <f aca="false">ROUND(TAN(RADIANS(40))*0.2,2)</f>
         <v>0.17</v>
       </c>
-      <c r="T17" s="10" t="n">
+      <c r="S17" s="9" t="n">
+        <f aca="false">(H17*M17)/0.000001</f>
+        <v>350000</v>
+      </c>
+      <c r="T17" s="9" t="n">
+        <f aca="false">(4*PI()*Q17*R17*H17^2)/0.000001</f>
+        <v>1068141.50222053</v>
+      </c>
+      <c r="V17" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="W17" s="11"/>
-      <c r="AA17" s="9" t="s">
-        <v>700</v>
+      <c r="Y17" s="11"/>
+      <c r="AC17" s="9" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>699</v>
-      </c>
       <c r="E18" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F18" s="9" t="n">
         <v>2</v>
@@ -14697,26 +15429,30 @@
       <c r="Q18" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="W18" s="11"/>
-      <c r="AA18" s="9" t="s">
-        <v>702</v>
+      <c r="S18" s="9" t="n">
+        <f aca="false">(H18*M18)/0.000001</f>
+        <v>240000</v>
+      </c>
+      <c r="Y18" s="11"/>
+      <c r="AC18" s="9" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F19" s="9" t="n">
         <v>3</v>
@@ -14744,26 +15480,30 @@
         <f aca="false">L19</f>
         <v>0.4</v>
       </c>
-      <c r="W19" s="11"/>
-      <c r="AA19" s="9" t="s">
-        <v>459</v>
+      <c r="S19" s="9" t="n">
+        <f aca="false">(H19*M19)/0.000001</f>
+        <v>200000</v>
+      </c>
+      <c r="Y19" s="11"/>
+      <c r="AC19" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F20" s="9" t="n">
         <v>3</v>
@@ -14798,26 +15538,34 @@
         <f aca="false">ROUND(TAN(RADIANS(40))*(I20/2),2)</f>
         <v>0.35</v>
       </c>
-      <c r="W20" s="11"/>
-      <c r="AA20" s="9" t="s">
-        <v>459</v>
+      <c r="S20" s="9" t="n">
+        <f aca="false">(H20*M20)/0.000001</f>
+        <v>220800</v>
+      </c>
+      <c r="T20" s="9" t="n">
+        <f aca="false">(4*PI()*Q20*R20*H20^2)/0.000001</f>
+        <v>465332.70384972</v>
+      </c>
+      <c r="Y20" s="11"/>
+      <c r="AC20" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F21" s="9" t="n">
         <v>2</v>
@@ -14852,26 +15600,34 @@
         <f aca="false">ROUND(TAN(RADIANS(40))*(I21/2),2)</f>
         <v>0.25</v>
       </c>
-      <c r="W21" s="11"/>
-      <c r="AA21" s="9" t="s">
-        <v>709</v>
+      <c r="S21" s="9" t="n">
+        <f aca="false">(H21*M21)/0.000001</f>
+        <v>350000</v>
+      </c>
+      <c r="T21" s="9" t="n">
+        <f aca="false">(4*PI()*Q21*R21*H21^2)/0.000001</f>
+        <v>628318.530717959</v>
+      </c>
+      <c r="Y21" s="11"/>
+      <c r="AC21" s="9" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>708</v>
-      </c>
       <c r="D22" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F22" s="9" t="n">
         <v>2</v>
@@ -14906,26 +15662,34 @@
         <f aca="false">ROUND(TAN(RADIANS(20))*(I22/2),2)</f>
         <v>0.16</v>
       </c>
-      <c r="W22" s="11"/>
-      <c r="AA22" s="9" t="s">
-        <v>711</v>
+      <c r="S22" s="9" t="n">
+        <f aca="false">(H22*M22)/0.000001</f>
+        <v>403000</v>
+      </c>
+      <c r="T22" s="9" t="n">
+        <f aca="false">(4*PI()*Q22*R22*H22^2)/0.000001</f>
+        <v>1698973.30706136</v>
+      </c>
+      <c r="Y22" s="11"/>
+      <c r="AC22" s="9" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F23" s="9" t="n">
         <v>1</v>
@@ -14959,26 +15723,34 @@
       <c r="R23" s="9" t="n">
         <v>0.11</v>
       </c>
-      <c r="W23" s="11"/>
-      <c r="AA23" s="9" t="s">
-        <v>713</v>
+      <c r="S23" s="9" t="n">
+        <f aca="false">(H23*M23)/0.000001</f>
+        <v>350000</v>
+      </c>
+      <c r="T23" s="9" t="n">
+        <f aca="false">(4*PI()*Q23*R23*H23^2)/0.000001</f>
+        <v>345575.191894877</v>
+      </c>
+      <c r="Y23" s="11"/>
+      <c r="AC23" s="9" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F24" s="9" t="n">
         <v>1</v>
@@ -15012,26 +15784,34 @@
       <c r="R24" s="9" t="n">
         <v>0.052</v>
       </c>
-      <c r="W24" s="11"/>
-      <c r="AA24" s="9" t="s">
-        <v>715</v>
+      <c r="S24" s="9" t="n">
+        <f aca="false">(H24*M24)/0.000001</f>
+        <v>630000</v>
+      </c>
+      <c r="T24" s="9" t="n">
+        <f aca="false">(4*PI()*Q24*R24*H24^2)/0.000001</f>
+        <v>384229.347904646</v>
+      </c>
+      <c r="Y24" s="11"/>
+      <c r="AC24" s="9" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F25" s="9" t="n">
         <v>3</v>
@@ -15062,32 +15842,36 @@
       <c r="R25" s="9" t="n">
         <v>0.55</v>
       </c>
-      <c r="U25" s="9" t="n">
+      <c r="S25" s="9" t="n">
+        <f aca="false">(H25*M25)/0.000001</f>
+        <v>307500</v>
+      </c>
+      <c r="W25" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="V25" s="10" t="n">
+      <c r="X25" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="W25" s="11"/>
-      <c r="AA25" s="9" t="s">
-        <v>718</v>
+      <c r="Y25" s="11"/>
+      <c r="AC25" s="9" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F26" s="9" t="n">
         <v>4</v>
@@ -15121,29 +15905,37 @@
       <c r="R26" s="9" t="n">
         <v>0.057</v>
       </c>
-      <c r="T26" s="10" t="n">
+      <c r="S26" s="9" t="n">
+        <f aca="false">(H26*M26)/0.000001</f>
+        <v>7581</v>
+      </c>
+      <c r="T26" s="9" t="n">
+        <f aca="false">(4*PI()*Q26*R26*H26^2)/0.000001</f>
+        <v>16218.0252140183</v>
+      </c>
+      <c r="V26" s="10" t="n">
         <v>0.118</v>
       </c>
-      <c r="W26" s="11"/>
-      <c r="AA26" s="9" t="s">
-        <v>720</v>
+      <c r="Y26" s="11"/>
+      <c r="AC26" s="9" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F27" s="9" t="n">
         <v>2</v>
@@ -15174,26 +15966,30 @@
       <c r="Q27" s="9" t="n">
         <v>1.4</v>
       </c>
-      <c r="W27" s="11"/>
-      <c r="AA27" s="9" t="s">
-        <v>723</v>
+      <c r="S27" s="9" t="n">
+        <f aca="false">(H27*M27)/0.000001</f>
+        <v>117000</v>
+      </c>
+      <c r="Y27" s="11"/>
+      <c r="AC27" s="9" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F28" s="9" t="n">
         <v>16</v>
@@ -15227,26 +16023,34 @@
       <c r="R28" s="9" t="n">
         <v>0.00275</v>
       </c>
-      <c r="W28" s="11"/>
-      <c r="AA28" s="9" t="s">
-        <v>727</v>
+      <c r="S28" s="9" t="n">
+        <f aca="false">(H28*M28)/0.000001</f>
+        <v>3240</v>
+      </c>
+      <c r="T28" s="9" t="n">
+        <f aca="false">(4*PI()*Q28*R28*H28^2)/0.000001</f>
+        <v>1399.57952717425</v>
+      </c>
+      <c r="Y28" s="11"/>
+      <c r="AC28" s="9" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F29" s="9" t="n">
         <v>6</v>
@@ -15277,29 +16081,33 @@
       <c r="Q29" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="T29" s="10" t="n">
+      <c r="S29" s="9" t="n">
+        <f aca="false">(H29*M29)/0.000001</f>
+        <v>200000</v>
+      </c>
+      <c r="V29" s="10" t="n">
         <v>0.1</v>
       </c>
-      <c r="W29" s="11"/>
-      <c r="AA29" s="9" t="s">
-        <v>730</v>
+      <c r="Y29" s="11"/>
+      <c r="AC29" s="9" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F30" s="9" t="n">
         <v>6</v>
@@ -15334,29 +16142,37 @@
         <f aca="false">ROUND(TAN(RADIANS(40))*0.43,2)</f>
         <v>0.36</v>
       </c>
-      <c r="T30" s="10" t="n">
+      <c r="S30" s="9" t="n">
+        <f aca="false">(H30*M30)/0.000001</f>
+        <v>111000</v>
+      </c>
+      <c r="T30" s="9" t="n">
+        <f aca="false">(4*PI()*Q30*R30*H30^2)/0.000001</f>
+        <v>928981.514037116</v>
+      </c>
+      <c r="V30" s="10" t="n">
         <v>0.01</v>
       </c>
-      <c r="W30" s="11"/>
-      <c r="AA30" s="9" t="s">
-        <v>732</v>
+      <c r="Y30" s="11"/>
+      <c r="AC30" s="9" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F31" s="9" t="n">
         <v>8</v>
@@ -15391,26 +16207,34 @@
         <f aca="false">ROUND(TAN(RADIANS(45))*(I31/2),2)</f>
         <v>0.25</v>
       </c>
-      <c r="W31" s="11"/>
-      <c r="AA31" s="9" t="s">
-        <v>736</v>
+      <c r="S31" s="9" t="n">
+        <f aca="false">(H31*M31)/0.000001</f>
+        <v>39000</v>
+      </c>
+      <c r="T31" s="9" t="n">
+        <f aca="false">(4*PI()*Q31*R31*H31^2)/0.000001</f>
+        <v>282743.338823081</v>
+      </c>
+      <c r="Y31" s="11"/>
+      <c r="AC31" s="9" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F32" s="9" t="n">
         <v>2</v>
@@ -15444,26 +16268,34 @@
       <c r="R32" s="9" t="n">
         <v>0.04</v>
       </c>
-      <c r="W32" s="11"/>
-      <c r="AA32" s="9" t="s">
-        <v>740</v>
+      <c r="S32" s="9" t="n">
+        <f aca="false">(H32*M32)/0.000001</f>
+        <v>15000</v>
+      </c>
+      <c r="T32" s="9" t="n">
+        <f aca="false">(4*PI()*Q32*R32*H32^2)/0.000001</f>
+        <v>113097.335529233</v>
+      </c>
+      <c r="Y32" s="11"/>
+      <c r="AC32" s="9" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F33" s="9" t="n">
         <v>4</v>
@@ -15494,26 +16326,30 @@
       <c r="Q33" s="9" t="n">
         <v>0.4167</v>
       </c>
-      <c r="W33" s="11"/>
-      <c r="AA33" s="9" t="s">
-        <v>745</v>
+      <c r="S33" s="9" t="n">
+        <f aca="false">(H33*M33)/0.000001</f>
+        <v>315</v>
+      </c>
+      <c r="Y33" s="11"/>
+      <c r="AC33" s="9" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>746</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>744</v>
       </c>
       <c r="F34" s="9" t="n">
         <v>16</v>
@@ -15547,26 +16383,34 @@
       <c r="R34" s="9" t="n">
         <v>0.015</v>
       </c>
-      <c r="W34" s="11"/>
-      <c r="AA34" s="9" t="s">
-        <v>748</v>
+      <c r="S34" s="9" t="n">
+        <f aca="false">(H34*M34)/0.000001</f>
+        <v>700</v>
+      </c>
+      <c r="T34" s="9" t="n">
+        <f aca="false">(4*PI()*Q34*R34*H34^2)/0.000001</f>
+        <v>1477.80518424864</v>
+      </c>
+      <c r="Y34" s="11"/>
+      <c r="AC34" s="9" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F35" s="9" t="n">
         <v>2</v>
@@ -15597,26 +16441,34 @@
       <c r="R35" s="9" t="n">
         <v>0.025</v>
       </c>
-      <c r="W35" s="11"/>
-      <c r="AA35" s="9" t="s">
-        <v>752</v>
+      <c r="S35" s="9" t="n">
+        <f aca="false">(H35*M35)/0.000001</f>
+        <v>22000</v>
+      </c>
+      <c r="T35" s="9" t="n">
+        <f aca="false">(4*PI()*Q35*R35*H35^2)/0.000001</f>
+        <v>38013.2711084365</v>
+      </c>
+      <c r="Y35" s="11"/>
+      <c r="AC35" s="9" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F36" s="9" t="n">
         <v>2</v>
@@ -15657,26 +16509,30 @@
       <c r="Q36" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="W36" s="11"/>
-      <c r="AA36" s="9" t="s">
-        <v>482</v>
+      <c r="S36" s="9" t="n">
+        <f aca="false">(H36*M36)/0.000001</f>
+        <v>54240</v>
+      </c>
+      <c r="Y36" s="11"/>
+      <c r="AC36" s="9" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F37" s="9" t="n">
         <v>2</v>
@@ -15710,26 +16566,34 @@
       <c r="R37" s="9" t="n">
         <v>0.3</v>
       </c>
-      <c r="W37" s="11"/>
-      <c r="AA37" s="9" t="s">
-        <v>756</v>
+      <c r="S37" s="9" t="n">
+        <f aca="false">(H37*M37)/0.000001</f>
+        <v>355000</v>
+      </c>
+      <c r="T37" s="9" t="n">
+        <f aca="false">(4*PI()*Q37*R37*H37^2)/0.000001</f>
+        <v>950206.114004769</v>
+      </c>
+      <c r="Y37" s="11"/>
+      <c r="AC37" s="9" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F38" s="9" t="n">
         <v>2</v>
@@ -15764,26 +16628,34 @@
         <f aca="false">0.2*0.1</f>
         <v>0.02</v>
       </c>
-      <c r="W38" s="11"/>
-      <c r="AA38" s="9" t="s">
-        <v>758</v>
+      <c r="S38" s="9" t="n">
+        <f aca="false">(H38*M38)/0.000001</f>
+        <v>14700</v>
+      </c>
+      <c r="T38" s="9" t="n">
+        <f aca="false">(4*PI()*Q38*R38*H38^2)/0.000001</f>
+        <v>1740.11560445277</v>
+      </c>
+      <c r="Y38" s="11"/>
+      <c r="AC38" s="9" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F39" s="9" t="n">
         <v>2</v>
@@ -15828,26 +16700,34 @@
         <f aca="false">0.45*0.085</f>
         <v>0.03825</v>
       </c>
-      <c r="W39" s="11"/>
-      <c r="AA39" s="9" t="s">
-        <v>760</v>
+      <c r="S39" s="9" t="n">
+        <f aca="false">(H39*M39)/0.000001</f>
+        <v>810.7</v>
+      </c>
+      <c r="T39" s="9" t="n">
+        <f aca="false">(4*PI()*Q39*R39*H39^2)/0.000001</f>
+        <v>971.277090091661</v>
+      </c>
+      <c r="Y39" s="11"/>
+      <c r="AC39" s="9" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F40" s="9" t="n">
         <v>2</v>
@@ -15872,32 +16752,36 @@
       <c r="Q40" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="T40" s="10" t="n">
+      <c r="S40" s="9" t="n">
+        <f aca="false">(H40*M40)/0.000001</f>
+        <v>5952</v>
+      </c>
+      <c r="V40" s="10" t="n">
         <v>0.085</v>
       </c>
-      <c r="V40" s="10" t="n">
+      <c r="X40" s="10" t="n">
         <v>3.25</v>
       </c>
-      <c r="W40" s="11"/>
-      <c r="AA40" s="9" t="s">
-        <v>764</v>
+      <c r="Y40" s="11"/>
+      <c r="AC40" s="9" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F41" s="9" t="n">
         <v>4</v>
@@ -15922,6 +16806,10 @@
       </c>
       <c r="R41" s="9" t="n">
         <v>0.33</v>
+      </c>
+      <c r="S41" s="9" t="n">
+        <f aca="false">(H41*M41)/0.000001</f>
+        <v>86250</v>
       </c>
     </row>
   </sheetData>
@@ -15943,14 +16831,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BN17"/>
+  <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="bottomRight" activeCell="T6" activeCellId="0" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15966,13 +16854,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="9" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="9" width="19.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="9" width="23.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="9" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="10" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="9" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="9" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="10" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="11" width="45.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="24" style="9" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="11" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="9" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="10" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="11" width="45.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="26" style="9" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="11" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16037,28 +16925,32 @@
         <v>271</v>
       </c>
       <c r="U1" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="W1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>273</v>
-      </c>
       <c r="Y1" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
       <c r="AD1" s="11"/>
       <c r="AE1" s="11"/>
       <c r="AF1" s="11"/>
@@ -16096,22 +16988,24 @@
       <c r="BL1" s="11"/>
       <c r="BM1" s="11"/>
       <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F2" s="9" t="n">
         <v>2</v>
@@ -16139,28 +17033,32 @@
         <f aca="false">L2</f>
         <v>1.389</v>
       </c>
-      <c r="V2" s="10" t="n">
+      <c r="S2" s="9" t="n">
+        <f aca="false">(M2*H2)/0.000001</f>
+        <v>1069530</v>
+      </c>
+      <c r="X2" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="AA2" s="11" t="s">
-        <v>770</v>
+      <c r="AC2" s="11" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>769</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F3" s="9" t="n">
         <v>12</v>
@@ -16192,27 +17090,31 @@
         <v>0.5</v>
       </c>
       <c r="S3" s="9" t="n">
+        <f aca="false">(M3*H3)/0.000001</f>
+        <v>10500</v>
+      </c>
+      <c r="U3" s="9" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA3" s="11" t="s">
-        <v>774</v>
+      <c r="AC3" s="11" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F4" s="9" t="n">
         <v>4</v>
@@ -16243,28 +17145,32 @@
       <c r="Q4" s="9" t="n">
         <v>3.5</v>
       </c>
-      <c r="U4" s="9" t="n">
+      <c r="S4" s="9" t="n">
+        <f aca="false">(M4*H4)/0.000001</f>
+        <v>177800</v>
+      </c>
+      <c r="W4" s="9" t="n">
         <v>12.19</v>
       </c>
-      <c r="AA4" s="11" t="s">
-        <v>778</v>
+      <c r="AC4" s="11" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F5" s="9" t="n">
         <v>4</v>
@@ -16306,28 +17212,35 @@
         <v>6</v>
       </c>
       <c r="R5" s="9" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(20))*0.153,2)</f>
-        <v>0.06</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>782</v>
+        <v>0.0288</v>
+      </c>
+      <c r="S5" s="9" t="n">
+        <f aca="false">(M5*H5)/0.000001</f>
+        <v>600600</v>
+      </c>
+      <c r="T5" s="9" t="n">
+        <f aca="false">(4*PI()*Q5*R5*H5^2)/0.000001</f>
+        <v>1321121.64357091</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F6" s="9" t="n">
         <v>8</v>
@@ -16368,28 +17281,32 @@
       <c r="Q6" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="U6" s="9" t="n">
+      <c r="S6" s="9" t="n">
+        <f aca="false">(M6*H6)/0.000001</f>
+        <v>2000000</v>
+      </c>
+      <c r="W6" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="AA6" s="11" t="s">
-        <v>785</v>
+      <c r="AC6" s="11" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F7" s="9" t="n">
         <v>20</v>
@@ -16421,27 +17338,31 @@
         <v>2.5</v>
       </c>
       <c r="S7" s="9" t="n">
+        <f aca="false">(M7*H7)/0.000001</f>
+        <v>1212000</v>
+      </c>
+      <c r="U7" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="AA7" s="11" t="s">
-        <v>787</v>
+      <c r="AC7" s="11" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F8" s="9" t="n">
         <v>8</v>
@@ -16472,25 +17393,29 @@
       <c r="Q8" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="AA8" s="11" t="s">
-        <v>789</v>
+      <c r="S8" s="9" t="n">
+        <f aca="false">(M8*H8)/0.000001</f>
+        <v>39600</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F9" s="9" t="n">
         <v>4</v>
@@ -16522,30 +17447,34 @@
         <v>6.4</v>
       </c>
       <c r="S9" s="9" t="n">
-        <v>100</v>
+        <f aca="false">(M9*H9)/0.000001</f>
+        <v>606000</v>
       </c>
       <c r="U9" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="AA9" s="11" t="s">
-        <v>793</v>
+      <c r="W9" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F10" s="9" t="n">
         <v>4</v>
@@ -16576,31 +17505,35 @@
       <c r="Q10" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="U10" s="9" t="n">
+      <c r="S10" s="9" t="n">
+        <f aca="false">(M10*H10)/0.000001</f>
+        <v>2040000</v>
+      </c>
+      <c r="W10" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="V10" s="10" t="n">
+      <c r="X10" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="AA10" s="11" t="s">
-        <v>797</v>
+      <c r="AC10" s="11" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>229</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F11" s="9" t="n">
         <v>12</v>
@@ -16628,25 +17561,29 @@
         <f aca="false">L11</f>
         <v>0.168</v>
       </c>
-      <c r="AA11" s="11" t="s">
-        <v>799</v>
+      <c r="S11" s="9" t="n">
+        <f aca="false">(M11*H11)/0.000001</f>
+        <v>282240</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F12" s="9" t="n">
         <v>8</v>
@@ -16674,25 +17611,29 @@
         <f aca="false">L12</f>
         <v>2</v>
       </c>
-      <c r="AA12" s="11" t="s">
-        <v>803</v>
+      <c r="S12" s="9" t="n">
+        <f aca="false">(M12*H12)/0.000001</f>
+        <v>4000000</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="F13" s="9" t="n">
         <v>8</v>
@@ -16720,28 +17661,39 @@
         <f aca="false">L13</f>
         <v>0.0225</v>
       </c>
+      <c r="Q13" s="9" t="n">
+        <v>1.11</v>
+      </c>
       <c r="R13" s="9" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="AA13" s="11" t="s">
-        <v>807</v>
+        <v>0.45833</v>
+      </c>
+      <c r="S13" s="9" t="n">
+        <f aca="false">(M13*H13)/0.000001</f>
+        <v>2700</v>
+      </c>
+      <c r="T13" s="9" t="n">
+        <f aca="false">(4*PI()*Q13*R13*H13^2)/0.000001</f>
+        <v>92060.561584569</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F14" s="9" t="n">
         <v>6</v>
@@ -16766,31 +17718,34 @@
         <v>0.06</v>
       </c>
       <c r="M14" s="9" t="n">
-        <f aca="false">L14</f>
-        <v>0.06</v>
+        <v>0.04788</v>
       </c>
       <c r="Q14" s="9" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AA14" s="11" t="s">
-        <v>811</v>
+        <v>0.35</v>
+      </c>
+      <c r="S14" s="9" t="n">
+        <f aca="false">(M14*H14)/0.000001</f>
+        <v>27291.6</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F15" s="9" t="n">
         <v>6</v>
@@ -16820,32 +17775,36 @@
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="T15" s="9" t="n">
+      <c r="S15" s="9" t="n">
+        <f aca="false">(M15*H15)/0.000001</f>
+        <v>650000</v>
+      </c>
+      <c r="V15" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="U15" s="10" t="n">
+      <c r="W15" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="V15" s="9"/>
-      <c r="AA15" s="11" t="s">
-        <v>815</v>
+      <c r="X15" s="9"/>
+      <c r="AC15" s="11" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F16" s="9" t="n">
         <v>6</v>
@@ -16875,32 +17834,36 @@
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
-      <c r="T16" s="9" t="n">
+      <c r="S16" s="9" t="n">
+        <f aca="false">(M16*H16)/0.000001</f>
+        <v>638000</v>
+      </c>
+      <c r="V16" s="9" t="n">
         <v>30.48</v>
       </c>
-      <c r="U16" s="10" t="n">
+      <c r="W16" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="V16" s="9"/>
-      <c r="AA16" s="11" t="s">
-        <v>818</v>
+      <c r="X16" s="9"/>
+      <c r="AC16" s="11" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F17" s="9" t="n">
         <v>8</v>
@@ -16928,8 +17891,12 @@
         <f aca="false">L17</f>
         <v>0.05</v>
       </c>
-      <c r="AA17" s="11" t="s">
-        <v>822</v>
+      <c r="S17" s="9" t="n">
+        <f aca="false">(M17*H17)/0.000001</f>
+        <v>11250</v>
+      </c>
+      <c r="AC17" s="11" t="s">
+        <v>824</v>
       </c>
     </row>
   </sheetData>

--- a/UUVDatabase.xlsx
+++ b/UUVDatabase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Propeller" sheetId="1" state="visible" r:id="rId2"/>
@@ -1441,7 +1441,7 @@
     <t xml:space="preserve">https://www.researchgate.net/publication/233379444_Design_Fabrication_and_Hydrodynamic_Analysis_of_a_Biomimetic_Robot_Fish</t>
   </si>
   <si>
-    <t xml:space="preserve">Univesrity of Washington Robotic Fish</t>
+    <t xml:space="preserve">University of Washington Robotic Fish</t>
   </si>
   <si>
     <t xml:space="preserve">Morgansen</t>
@@ -7786,12 +7786,12 @@
   </sheetPr>
   <dimension ref="A1:AD105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D68" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U3" activeCellId="0" sqref="U3"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="M96" activeCellId="0" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7806,9 +7806,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="1" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="23.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="7.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="1" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="12.5"/>
@@ -8008,7 +8010,7 @@
         <v>4</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0.0025</v>
+        <v>0.013</v>
       </c>
       <c r="T3" s="1" t="n">
         <f aca="false">N3*I3/0.000001</f>
@@ -8016,7 +8018,7 @@
       </c>
       <c r="U3" s="1" t="n">
         <f aca="false">(4*PI()*R3*S3*I3^2)/0.000001</f>
-        <v>1158.11671581934</v>
+        <v>6022.20692226058</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>287</v>
@@ -8070,7 +8072,7 @@
         <v>2.5</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.025</v>
+        <v>0.01299</v>
       </c>
       <c r="T4" s="1" t="n">
         <f aca="false">N4*I4/0.000001</f>
@@ -8078,7 +8080,7 @@
       </c>
       <c r="U4" s="1" t="n">
         <f aca="false">(4*PI()*R4*S4*I4^2)/0.000001</f>
-        <v>16741.54725098</v>
+        <v>8698.90795160921</v>
       </c>
       <c r="V4" s="1" t="n">
         <v>0.057</v>
@@ -8135,7 +8137,7 @@
         <v>1.6</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
       <c r="T5" s="1" t="n">
         <f aca="false">N5*I5/0.000001</f>
@@ -8143,7 +8145,7 @@
       </c>
       <c r="U5" s="1" t="n">
         <f aca="false">(4*PI()*R5*S5*I5^2)/0.000001</f>
-        <v>11621.3795441594</v>
+        <v>15107.7934074072</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>297</v>
@@ -8201,7 +8203,7 @@
         <v>7</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>0.014</v>
+        <v>0.0187</v>
       </c>
       <c r="T6" s="1" t="n">
         <f aca="false">N6*I6/0.000001</f>
@@ -8209,7 +8211,7 @@
       </c>
       <c r="U6" s="1" t="n">
         <f aca="false">(4*PI()*R6*S6*I6^2)/0.000001</f>
-        <v>224538.951199058</v>
+        <v>299919.884815885</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>302</v>
@@ -8328,17 +8330,10 @@
       <c r="R8" s="1" t="n">
         <v>3.1</v>
       </c>
-      <c r="S8" s="1" t="n">
-        <v>0.0016</v>
-      </c>
       <c r="T8" s="1" t="n">
         <f aca="false">N8*I8/0.000001</f>
         <v>5400</v>
       </c>
-      <c r="U8" s="1" t="n">
-        <f aca="false">(4*PI()*R8*S8*I8^2)/0.000001</f>
-        <v>897.54045475999</v>
-      </c>
       <c r="W8" s="1" t="n">
         <v>0.4</v>
       </c>
@@ -8412,17 +8407,10 @@
       <c r="R9" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="S9" s="1" t="n">
-        <v>0.025</v>
-      </c>
       <c r="T9" s="1" t="n">
         <f aca="false">N9*I9/0.000001</f>
         <v>14800</v>
       </c>
-      <c r="U9" s="1" t="n">
-        <f aca="false">(4*PI()*R9*S9*I9^2)/0.000001</f>
-        <v>24084.7059194808</v>
-      </c>
       <c r="AD9" s="1" t="s">
         <v>314</v>
       </c>
@@ -8485,18 +8473,10 @@
       <c r="R10" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="S10" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(30))*(I10/3),2)</f>
-        <v>0.09</v>
-      </c>
       <c r="T10" s="1" t="n">
         <f aca="false">N10*I10/0.000001</f>
         <v>110450</v>
       </c>
-      <c r="U10" s="1" t="n">
-        <f aca="false">(4*PI()*R10*S10*I10^2)/0.000001</f>
-        <v>349764.819857704</v>
-      </c>
       <c r="Y10" s="1" t="n">
         <f aca="false">ROUND(40/60,2)</f>
         <v>0.67</v>
@@ -8736,7 +8716,7 @@
         <v>19</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="T14" s="1" t="n">
         <f aca="false">N14*I14/0.000001</f>
@@ -8744,7 +8724,7 @@
       </c>
       <c r="U14" s="1" t="n">
         <f aca="false">(4*PI()*R14*S14*I14^2)/0.000001</f>
-        <v>83566.3645854885</v>
+        <v>119380.520836412</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>334</v>
@@ -8798,8 +8778,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(20))*0.06,2)</f>
-        <v>0.02</v>
+        <v>0.074</v>
       </c>
       <c r="T15" s="1" t="n">
         <f aca="false">N15*I15/0.000001</f>
@@ -8807,7 +8786,7 @@
       </c>
       <c r="U15" s="1" t="n">
         <f aca="false">(4*PI()*R15*S15*I15^2)/0.000001</f>
-        <v>21871.7680542921</v>
+        <v>80925.5418008809</v>
       </c>
       <c r="W15" s="1" t="n">
         <v>0.6</v>
@@ -8864,7 +8843,7 @@
         <v>4.7</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>5E-005</v>
+        <v>0.001296</v>
       </c>
       <c r="T16" s="1" t="n">
         <f aca="false">N16*I16/0.000001</f>
@@ -8872,7 +8851,7 @@
       </c>
       <c r="U16" s="1" t="n">
         <f aca="false">(4*PI()*R16*S16*I16^2)/0.000001</f>
-        <v>8.61123112719577</v>
+        <v>223.203110816914</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>343</v>
@@ -8992,8 +8971,7 @@
         <v>0.32</v>
       </c>
       <c r="S18" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(30))*(I18/4),2)</f>
-        <v>0.04</v>
+        <v>0.346</v>
       </c>
       <c r="T18" s="1" t="n">
         <f aca="false">N18*I18/0.000001</f>
@@ -9001,7 +8979,7 @@
       </c>
       <c r="U18" s="1" t="n">
         <f aca="false">(4*PI()*R18*S18*I18^2)/0.000001</f>
-        <v>10873.4291651927</v>
+        <v>94055.1622789169</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>350</v>
@@ -9055,8 +9033,7 @@
         <v>4.5</v>
       </c>
       <c r="S19" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(20))*(I19/4),2)</f>
-        <v>0.03</v>
+        <v>0.0784</v>
       </c>
       <c r="T19" s="1" t="n">
         <f aca="false">N19*I19/0.000001</f>
@@ -9064,7 +9041,7 @@
       </c>
       <c r="U19" s="1" t="n">
         <f aca="false">(4*PI()*R19*S19*I19^2)/0.000001</f>
-        <v>156780.050404043</v>
+        <v>409718.531722567</v>
       </c>
       <c r="AD19" s="1" t="s">
         <v>354</v>
@@ -9109,8 +9086,7 @@
         <v>3.125</v>
       </c>
       <c r="S20" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(15))*0.067,2)</f>
-        <v>0.02</v>
+        <v>0.10654</v>
       </c>
       <c r="T20" s="1" t="n">
         <f aca="false">N20*I20/0.000001</f>
@@ -9118,7 +9094,7 @@
       </c>
       <c r="U20" s="1" t="n">
         <f aca="false">(4*PI()*R20*S20*I20^2)/0.000001</f>
-        <v>89196.8840188848</v>
+        <v>475151.801168599</v>
       </c>
       <c r="Z20" s="1" t="n">
         <v>5</v>
@@ -9214,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.117</v>
+        <v>0.167</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>0.026</v>
@@ -9235,15 +9211,15 @@
         <v>2</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0.1</v>
+        <v>0.1497</v>
       </c>
       <c r="T22" s="1" t="n">
         <f aca="false">N22*I22/0.000001</f>
-        <v>9360</v>
+        <v>13360</v>
       </c>
       <c r="U22" s="1" t="n">
         <f aca="false">(4*PI()*R22*S22*I22^2)/0.000001</f>
-        <v>34404.2094679925</v>
+        <v>104928.774913121</v>
       </c>
       <c r="AD22" s="1" t="s">
         <v>364</v>
@@ -9291,8 +9267,7 @@
         <v>8</v>
       </c>
       <c r="S23" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(40))*(I23/4),2)</f>
-        <v>0.05</v>
+        <v>0.20977</v>
       </c>
       <c r="T23" s="1" t="n">
         <f aca="false">N23*I23/0.000001</f>
@@ -9300,7 +9275,7 @@
       </c>
       <c r="U23" s="1" t="n">
         <f aca="false">(4*PI()*R23*S23*I23^2)/0.000001</f>
-        <v>314159.265358979</v>
+        <v>1318023.78188706</v>
       </c>
       <c r="AD23" s="1" t="s">
         <v>368</v>
@@ -9408,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0.0231</v>
+        <v>0.105</v>
       </c>
       <c r="T25" s="1" t="n">
         <f aca="false">N25*I25/0.000001</f>
@@ -9416,7 +9391,7 @@
       </c>
       <c r="U25" s="1" t="n">
         <f aca="false">(4*PI()*R25*S25*I25^2)/0.000001</f>
-        <v>14049.7050016781</v>
+        <v>63862.2954621733</v>
       </c>
       <c r="AD25" s="1" t="s">
         <v>378</v>
@@ -9632,26 +9607,24 @@
         <v>0.1</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="N29" s="1" t="n">
-        <f aca="false">M29</f>
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="R29" s="1" t="n">
         <v>2.4</v>
       </c>
       <c r="S29" s="1" t="n">
-        <f aca="false">0.14*I29</f>
-        <v>0.0448</v>
+        <v>0.141</v>
       </c>
       <c r="T29" s="1" t="n">
         <f aca="false">N29*I29/0.000001</f>
-        <v>54400</v>
+        <v>55360</v>
       </c>
       <c r="U29" s="1" t="n">
         <f aca="false">(4*PI()*R29*S29*I29^2)/0.000001</f>
-        <v>138356.343649884</v>
+        <v>435451.885148072</v>
       </c>
       <c r="AD29" s="1" t="s">
         <v>394</v>
@@ -9757,7 +9730,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0.006</v>
+        <v>0.089686</v>
       </c>
       <c r="T31" s="1" t="n">
         <f aca="false">N31*I31/0.000001</f>
@@ -9765,7 +9738,7 @@
       </c>
       <c r="U31" s="1" t="n">
         <f aca="false">(4*PI()*R31*S31*I31^2)/0.000001</f>
-        <v>3749.4782656888</v>
+        <v>56045.9512894277</v>
       </c>
       <c r="AD31" s="1" t="s">
         <v>401</v>
@@ -9819,7 +9792,7 @@
         <v>30</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0.01</v>
+        <v>0.0471</v>
       </c>
       <c r="T32" s="1" t="n">
         <f aca="false">N32*I32/0.000001</f>
@@ -9827,7 +9800,7 @@
       </c>
       <c r="U32" s="1" t="n">
         <f aca="false">(4*PI()*R32*S32*I32^2)/0.000001</f>
-        <v>339292.006587698</v>
+        <v>1598065.35102806</v>
       </c>
       <c r="V32" s="1" t="n">
         <v>7.5</v>
@@ -9891,10 +9864,10 @@
         <v>0.9944235</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>15</v>
+        <v>5.8</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0.034</v>
+        <v>0.17</v>
       </c>
       <c r="T33" s="1" t="n">
         <f aca="false">N33*I33/0.000001</f>
@@ -9902,7 +9875,7 @@
       </c>
       <c r="U33" s="1" t="n">
         <f aca="false">(4*PI()*R33*S33*I33^2)/0.000001</f>
-        <v>416735.40709134</v>
+        <v>805688.453709923</v>
       </c>
       <c r="Y33" s="1" t="n">
         <v>1.16</v>
@@ -10056,18 +10029,10 @@
       <c r="R36" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="S36" s="1" t="n">
-        <f aca="false">ROUND(TAN(0.4)*I36,2)</f>
-        <v>0.05</v>
-      </c>
       <c r="T36" s="1" t="n">
         <f aca="false">N36*I36/0.000001</f>
         <v>960</v>
       </c>
-      <c r="U36" s="1" t="n">
-        <f aca="false">(4*PI()*R36*S36*I36^2)/0.000001</f>
-        <v>3619.11473693544</v>
-      </c>
       <c r="AD36" s="1" t="s">
         <v>419</v>
       </c>
@@ -10460,8 +10425,7 @@
         <v>2.5</v>
       </c>
       <c r="S42" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(50))*(I42/2),2)</f>
-        <v>0.3</v>
+        <v>0.18198</v>
       </c>
       <c r="T42" s="1" t="n">
         <f aca="false">N42*I42/0.000001</f>
@@ -10469,7 +10433,7 @@
       </c>
       <c r="U42" s="1" t="n">
         <f aca="false">(4*PI()*R42*S42*I42^2)/0.000001</f>
-        <v>2356194.49019234</v>
+        <v>1429267.57775068</v>
       </c>
       <c r="W42" s="1" t="n">
         <f aca="false">0.52*I42</f>
@@ -10517,9 +10481,6 @@
       <c r="R43" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="S43" s="1" t="n">
-        <v>0.099</v>
-      </c>
       <c r="AD43" s="1" t="s">
         <v>439</v>
       </c>
@@ -10623,7 +10584,7 @@
         <v>9</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0.0005</v>
+        <v>0.00877</v>
       </c>
       <c r="T45" s="1" t="n">
         <f aca="false">N45*I45/0.000001</f>
@@ -10631,7 +10592,7 @@
       </c>
       <c r="U45" s="1" t="n">
         <f aca="false">(4*PI()*R45*S45*I45^2)/0.000001</f>
-        <v>183.726621567238</v>
+        <v>3222.56494228936</v>
       </c>
       <c r="AD45" s="1" t="s">
         <v>447</v>
@@ -10681,7 +10642,7 @@
         <v>1.4</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0.0004</v>
+        <v>0.001</v>
       </c>
       <c r="T46" s="1" t="n">
         <f aca="false">N46*I46/0.000001</f>
@@ -10689,7 +10650,7 @@
       </c>
       <c r="U46" s="1" t="n">
         <f aca="false">(4*PI()*R46*S46*I46^2)/0.000001</f>
-        <v>1125.94680704658</v>
+        <v>2814.86701761645</v>
       </c>
       <c r="AD46" s="1" t="s">
         <v>450</v>
@@ -10743,7 +10704,7 @@
         <v>0.8</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0.266</v>
+        <v>0.11083</v>
       </c>
       <c r="T47" s="1" t="n">
         <f aca="false">N47*I47/0.000001</f>
@@ -10751,7 +10712,7 @@
       </c>
       <c r="U47" s="1" t="n">
         <f aca="false">(4*PI()*R47*S47*I47^2)/0.000001</f>
-        <v>15402952.3203972</v>
+        <v>6417703.78071288</v>
       </c>
       <c r="V47" s="1" t="n">
         <v>1.9</v>
@@ -10798,18 +10759,10 @@
       <c r="R48" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="S48" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(50))*(I48/3),2)</f>
-        <v>0.24</v>
-      </c>
       <c r="T48" s="1" t="n">
         <f aca="false">N48*I48/0.000001</f>
         <v>300000</v>
       </c>
-      <c r="U48" s="1" t="n">
-        <f aca="false">(4*PI()*R48*S48*I48^2)/0.000001</f>
-        <v>2171468.84216126</v>
-      </c>
       <c r="AD48" s="1" t="s">
         <v>456</v>
       </c>
@@ -10910,7 +10863,7 @@
         <v>6.6</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0.044</v>
+        <v>0.176</v>
       </c>
       <c r="T50" s="1" t="n">
         <f aca="false">N50*I50/0.000001</f>
@@ -10918,7 +10871,7 @@
       </c>
       <c r="U50" s="1" t="n">
         <f aca="false">(4*PI()*R50*S50*I50^2)/0.000001</f>
-        <v>228079.626650619</v>
+        <v>912318.506602476</v>
       </c>
       <c r="AD50" s="1" t="s">
         <v>461</v>
@@ -10972,7 +10925,7 @@
         <v>20</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0.063</v>
+        <v>0.196875</v>
       </c>
       <c r="T51" s="1" t="n">
         <f aca="false">N51*I51/0.000001</f>
@@ -10980,7 +10933,7 @@
       </c>
       <c r="U51" s="1" t="n">
         <f aca="false">(4*PI()*R51*S51*I51^2)/0.000001</f>
-        <v>1621363.40214708</v>
+        <v>5066760.63170962</v>
       </c>
       <c r="AD51" s="1" t="s">
         <v>463</v>
@@ -11140,8 +11093,7 @@
         <v>1.9</v>
       </c>
       <c r="S54" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(30))*(I54/3),2)</f>
-        <v>0.1</v>
+        <v>0.11647</v>
       </c>
       <c r="T54" s="1" t="n">
         <f aca="false">N54*I54/0.000001</f>
@@ -11149,7 +11101,7 @@
       </c>
       <c r="U54" s="1" t="n">
         <f aca="false">(4*PI()*R54*S54*I54^2)/0.000001</f>
-        <v>703466.050283809</v>
+        <v>819326.908765552</v>
       </c>
       <c r="AD54" s="1" t="s">
         <v>475</v>
@@ -11292,7 +11244,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="J57" s="1" t="n">
         <v>0.02</v>
@@ -11313,15 +11265,15 @@
         <v>23</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0.012</v>
+        <v>0.1454</v>
       </c>
       <c r="T57" s="1" t="n">
         <f aca="false">N57*I57/0.000001</f>
-        <v>45000</v>
+        <v>24750</v>
       </c>
       <c r="U57" s="1" t="n">
         <f aca="false">(4*PI()*R57*S57*I57^2)/0.000001</f>
-        <v>138732.731582525</v>
+        <v>508495.924963333</v>
       </c>
       <c r="AD57" s="1" t="s">
         <v>484</v>
@@ -11551,18 +11503,10 @@
       <c r="R61" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="S61" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(30))*(I61/3),2)</f>
-        <v>0.13</v>
-      </c>
       <c r="T61" s="1" t="n">
         <f aca="false">N61*I61/0.000001</f>
         <v>218130</v>
       </c>
-      <c r="U61" s="1" t="n">
-        <f aca="false">(4*PI()*R61*S61*I61^2)/0.000001</f>
-        <v>1427532.91595107</v>
-      </c>
       <c r="W61" s="1" t="n">
         <v>0.1</v>
       </c>
@@ -11669,18 +11613,10 @@
       <c r="R63" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="S63" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(40))*(I63/3),2)</f>
-        <v>0.13</v>
-      </c>
       <c r="T63" s="1" t="n">
         <f aca="false">N63*I63/0.000001</f>
         <v>174800</v>
       </c>
-      <c r="U63" s="1" t="n">
-        <f aca="false">(4*PI()*R63*S63*I63^2)/0.000001</f>
-        <v>691351.445719584</v>
-      </c>
       <c r="W63" s="1" t="n">
         <v>0.36</v>
       </c>
@@ -12079,8 +12015,7 @@
         <v>5</v>
       </c>
       <c r="S70" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(45))*0.01,2)</f>
-        <v>0.01</v>
+        <v>0.1558</v>
       </c>
       <c r="T70" s="1" t="n">
         <f aca="false">N70*I70/0.000001</f>
@@ -12088,7 +12023,7 @@
       </c>
       <c r="U70" s="1" t="n">
         <f aca="false">(4*PI()*R70*S70*I70^2)/0.000001</f>
-        <v>1005.30964914873</v>
+        <v>15662.7243337373</v>
       </c>
       <c r="AD70" s="1" t="s">
         <v>525</v>
@@ -12141,17 +12076,10 @@
       <c r="R71" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="S71" s="1" t="n">
-        <v>0.0826</v>
-      </c>
       <c r="T71" s="1" t="n">
         <f aca="false">N71*I71/0.000001</f>
         <v>6165</v>
       </c>
-      <c r="U71" s="1" t="n">
-        <f aca="false">(4*PI()*R71*S71*I71^2)/0.000001</f>
-        <v>18683.6798294292</v>
-      </c>
       <c r="AD71" s="1" t="s">
         <v>529</v>
       </c>
@@ -12324,7 +12252,7 @@
         <v>1.5</v>
       </c>
       <c r="S74" s="1" t="n">
-        <v>0.072</v>
+        <v>0.0836</v>
       </c>
       <c r="T74" s="1" t="n">
         <f aca="false">N74*I74/0.000001</f>
@@ -12332,7 +12260,7 @@
       </c>
       <c r="U74" s="1" t="n">
         <f aca="false">(4*PI()*R74*S74*I74^2)/0.000001</f>
-        <v>665012.332911887</v>
+        <v>772153.208769914</v>
       </c>
       <c r="AD74" s="1" t="s">
         <v>539</v>
@@ -12453,18 +12381,10 @@
       <c r="R76" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="S76" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(45))*I76,2)</f>
-        <v>0.61</v>
-      </c>
       <c r="T76" s="1" t="n">
         <f aca="false">N76*I76/0.000001</f>
         <v>282440</v>
       </c>
-      <c r="U76" s="1" t="n">
-        <f aca="false">(4*PI()*R76*S76*I76^2)/0.000001</f>
-        <v>17917117.0470873</v>
-      </c>
       <c r="AD76" s="1" t="s">
         <v>545</v>
       </c>
@@ -12516,18 +12436,10 @@
       <c r="R77" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="S77" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(30))*I77,2)</f>
-        <v>0.23</v>
-      </c>
       <c r="T77" s="1" t="n">
         <f aca="false">N77*I77/0.000001</f>
         <v>128000</v>
       </c>
-      <c r="U77" s="1" t="n">
-        <f aca="false">(4*PI()*R77*S77*I77^2)/0.000001</f>
-        <v>924884.877216836</v>
-      </c>
       <c r="V77" s="1" t="n">
         <f aca="false">ROUND(DEGREES(1),2)</f>
         <v>57.3</v>
@@ -12707,8 +12619,7 @@
         <v>1.5</v>
       </c>
       <c r="S80" s="1" t="n">
-        <f aca="false">ROUND(0.1*I80,2)</f>
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="T80" s="1" t="n">
         <f aca="false">N80*I80/0.000001</f>
@@ -12716,7 +12627,7 @@
       </c>
       <c r="U80" s="1" t="n">
         <f aca="false">(4*PI()*R80*S80*I80^2)/0.000001</f>
-        <v>391027.25175219</v>
+        <v>651712.08625365</v>
       </c>
       <c r="AD80" s="1" t="s">
         <v>559</v>
@@ -12952,7 +12863,7 @@
         <v>1.67</v>
       </c>
       <c r="S84" s="1" t="n">
-        <v>0.1</v>
+        <v>0.099</v>
       </c>
       <c r="T84" s="1" t="n">
         <f aca="false">N84*I84/0.000001</f>
@@ -12960,7 +12871,7 @@
       </c>
       <c r="U84" s="1" t="n">
         <f aca="false">(4*PI()*R84*S84*I84^2)/0.000001</f>
-        <v>768134.169288176</v>
+        <v>760452.827595295</v>
       </c>
       <c r="Z84" s="1" t="n">
         <v>6</v>
@@ -13112,18 +13023,10 @@
       <c r="R87" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="S87" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(40))*0.136,2)</f>
-        <v>0.11</v>
-      </c>
       <c r="T87" s="1" t="n">
         <f aca="false">N87*I87/0.000001</f>
         <v>236720</v>
       </c>
-      <c r="U87" s="1" t="n">
-        <f aca="false">(4*PI()*R87*S87*I87^2)/0.000001</f>
-        <v>695794.914368822</v>
-      </c>
       <c r="Z87" s="1" t="n">
         <v>11.1</v>
       </c>
@@ -13191,17 +13094,10 @@
       <c r="R88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="S88" s="1" t="n">
-        <v>0.31</v>
-      </c>
       <c r="T88" s="1" t="n">
         <f aca="false">N88*I88/0.000001</f>
         <v>1936000</v>
       </c>
-      <c r="U88" s="1" t="n">
-        <f aca="false">(4*PI()*R88*S88*I88^2)/0.000001</f>
-        <v>24133865.5613242</v>
-      </c>
       <c r="W88" s="1" t="n">
         <v>1.75</v>
       </c>
@@ -13380,17 +13276,10 @@
       <c r="R91" s="1" t="n">
         <v>1.25</v>
       </c>
-      <c r="S91" s="1" t="n">
-        <v>0.35</v>
-      </c>
       <c r="T91" s="1" t="n">
         <f aca="false">N91*I91/0.000001</f>
         <v>1131000</v>
       </c>
-      <c r="U91" s="1" t="n">
-        <f aca="false">(4*PI()*R91*S91*I91^2)/0.000001</f>
-        <v>9291260.27299181</v>
-      </c>
       <c r="AD91" s="1" t="s">
         <v>599</v>
       </c>
@@ -13447,7 +13336,7 @@
         <v>1</v>
       </c>
       <c r="S92" s="1" t="n">
-        <v>0.3</v>
+        <v>0.3658</v>
       </c>
       <c r="T92" s="1" t="n">
         <f aca="false">N92*I92/0.000001</f>
@@ -13455,7 +13344,7 @@
       </c>
       <c r="U92" s="1" t="n">
         <f aca="false">(4*PI()*R92*S92*I92^2)/0.000001</f>
-        <v>2534888.28032853</v>
+        <v>3090873.77648059</v>
       </c>
       <c r="V92" s="1" t="n">
         <v>15</v>
@@ -13506,25 +13395,25 @@
         <v>0.1</v>
       </c>
       <c r="M93" s="1" t="n">
-        <v>0.03</v>
+        <v>0.052</v>
       </c>
       <c r="N93" s="1" t="n">
         <f aca="false">M93</f>
-        <v>0.03</v>
+        <v>0.052</v>
       </c>
       <c r="R93" s="1" t="n">
-        <v>0.5</v>
+        <v>1.57</v>
       </c>
       <c r="S93" s="1" t="n">
-        <v>0.0396</v>
+        <v>0.0043</v>
       </c>
       <c r="T93" s="1" t="n">
         <f aca="false">N93*I93/0.000001</f>
-        <v>9000</v>
+        <v>15600</v>
       </c>
       <c r="U93" s="1" t="n">
         <f aca="false">(4*PI()*R93*S93*I93^2)/0.000001</f>
-        <v>22393.272434788</v>
+        <v>7635.20112157849</v>
       </c>
       <c r="AD93" s="1" t="s">
         <v>607</v>
@@ -13620,7 +13509,7 @@
         <v>1.5</v>
       </c>
       <c r="S95" s="1" t="n">
-        <v>0.125</v>
+        <v>0.22</v>
       </c>
       <c r="T95" s="1" t="n">
         <f aca="false">N95*I95/0.000001</f>
@@ -13628,7 +13517,7 @@
       </c>
       <c r="U95" s="1" t="n">
         <f aca="false">(4*PI()*R95*S95*I95^2)/0.000001</f>
-        <v>415632.70806993</v>
+        <v>731513.566203076</v>
       </c>
       <c r="AD95" s="1" t="s">
         <v>612</v>
@@ -13675,8 +13564,7 @@
         <v>0.42504</v>
       </c>
       <c r="N96" s="1" t="n">
-        <f aca="false">M96</f>
-        <v>0.42504</v>
+        <v>0.043478</v>
       </c>
       <c r="R96" s="1" t="n">
         <v>2</v>
@@ -13687,7 +13575,7 @@
       </c>
       <c r="T96" s="1" t="n">
         <f aca="false">N96*I96/0.000001</f>
-        <v>215070.24</v>
+        <v>21999.868</v>
       </c>
       <c r="U96" s="1" t="n">
         <f aca="false">(4*PI()*R96*S96*I96^2)/0.000001</f>
@@ -13753,18 +13641,10 @@
       <c r="R97" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="S97" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(30))*0.36,2)</f>
-        <v>0.21</v>
-      </c>
       <c r="T97" s="1" t="n">
         <f aca="false">N97*I97/0.000001</f>
         <v>77760</v>
       </c>
-      <c r="U97" s="1" t="n">
-        <f aca="false">(4*PI()*R97*S97*I97^2)/0.000001</f>
-        <v>1900035.23689111</v>
-      </c>
       <c r="AD97" s="1" t="s">
         <v>619</v>
       </c>
@@ -13813,17 +13693,10 @@
       <c r="R98" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S98" s="1" t="n">
-        <v>0.2886</v>
-      </c>
       <c r="T98" s="1" t="n">
         <f aca="false">N98*I98/0.000001</f>
         <v>561000</v>
       </c>
-      <c r="U98" s="1" t="n">
-        <f aca="false">(4*PI()*R98*S98*I98^2)/0.000001</f>
-        <v>4388252.01675791</v>
-      </c>
       <c r="AA98" s="1" t="n">
         <v>0.6</v>
       </c>
@@ -13880,17 +13753,10 @@
       <c r="R99" s="1" t="n">
         <v>0.55</v>
       </c>
-      <c r="S99" s="1" t="n">
-        <v>0.11</v>
-      </c>
       <c r="T99" s="1" t="n">
         <f aca="false">N99*I99/0.000001</f>
         <v>131100</v>
       </c>
-      <c r="U99" s="1" t="n">
-        <f aca="false">(4*PI()*R99*S99*I99^2)/0.000001</f>
-        <v>988040.942650481</v>
-      </c>
       <c r="AD99" s="1" t="s">
         <v>625</v>
       </c>
@@ -14085,7 +13951,7 @@
         <v>2.093</v>
       </c>
       <c r="S102" s="1" t="n">
-        <v>0.46185</v>
+        <v>0.125</v>
       </c>
       <c r="T102" s="1" t="n">
         <f aca="false">N102*I102/0.000001</f>
@@ -14093,7 +13959,7 @@
       </c>
       <c r="U102" s="1" t="n">
         <f aca="false">(4*PI()*R102*S102*I102^2)/0.000001</f>
-        <v>31097108.2635009</v>
+        <v>8416452.3826732</v>
       </c>
       <c r="AD102" s="1" t="s">
         <v>635</v>
@@ -14323,12 +14189,12 @@
   </sheetPr>
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R6" activeCellId="0" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="R41" activeCellId="0" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14888,17 +14754,9 @@
       <c r="Q9" s="9" t="n">
         <v>1.8</v>
       </c>
-      <c r="R9" s="9" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(10))*0.1,2)</f>
-        <v>0.02</v>
-      </c>
       <c r="S9" s="9" t="n">
         <f aca="false">(H9*M9)/0.000001</f>
         <v>79200</v>
-      </c>
-      <c r="T9" s="9" t="n">
-        <f aca="false">(4*PI()*Q9*R9*H9^2)/0.000001</f>
-        <v>49265.1993565337</v>
       </c>
       <c r="U9" s="9" t="n">
         <v>260</v>
@@ -15121,18 +14979,10 @@
       <c r="Q13" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="9" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(40))*0.165,2)</f>
-        <v>0.14</v>
-      </c>
       <c r="S13" s="9" t="n">
         <f aca="false">(H13*M13)/0.000001</f>
         <v>436590</v>
       </c>
-      <c r="T13" s="9" t="n">
-        <f aca="false">(4*PI()*Q13*R13*H13^2)/0.000001</f>
-        <v>6158679.21509699</v>
-      </c>
       <c r="U13" s="9" t="n">
         <v>55</v>
       </c>
@@ -15187,8 +15037,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="9" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(40))*0.1,2)</f>
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="S14" s="9" t="n">
         <f aca="false">(H14*M14)/0.000001</f>
@@ -15196,7 +15045,7 @@
       </c>
       <c r="T14" s="9" t="n">
         <f aca="false">(4*PI()*Q14*R14*H14^2)/0.000001</f>
-        <v>784183.990615593</v>
+        <v>931218.488856016</v>
       </c>
       <c r="Y14" s="11"/>
       <c r="AC14" s="12" t="s">
@@ -15303,8 +15152,7 @@
         <v>1.5</v>
       </c>
       <c r="R16" s="9" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(39.5))*(I16/3),2)</f>
-        <v>0.11</v>
+        <v>0.12674</v>
       </c>
       <c r="S16" s="9" t="n">
         <f aca="false">(H16*M16)/0.000001</f>
@@ -15312,7 +15160,7 @@
       </c>
       <c r="T16" s="9" t="n">
         <f aca="false">(4*PI()*Q16*R16*H16^2)/0.000001</f>
-        <v>1327008.73687633</v>
+        <v>1528955.33919733</v>
       </c>
       <c r="Y16" s="11"/>
       <c r="AC16" s="12" t="s">
@@ -15365,8 +15213,7 @@
         <v>2</v>
       </c>
       <c r="R17" s="9" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(40))*0.2,2)</f>
-        <v>0.17</v>
+        <v>0.3356</v>
       </c>
       <c r="S17" s="9" t="n">
         <f aca="false">(H17*M17)/0.000001</f>
@@ -15374,7 +15221,7 @@
       </c>
       <c r="T17" s="9" t="n">
         <f aca="false">(4*PI()*Q17*R17*H17^2)/0.000001</f>
-        <v>1068141.50222053</v>
+        <v>2108636.98908947</v>
       </c>
       <c r="V17" s="10" t="n">
         <v>3</v>
@@ -15525,26 +15372,25 @@
         <v>4</v>
       </c>
       <c r="L20" s="9" t="n">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="M20" s="9" t="n">
         <f aca="false">L20</f>
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="Q20" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="R20" s="9" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(40))*(I20/2),2)</f>
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="S20" s="9" t="n">
         <f aca="false">(H20*M20)/0.000001</f>
-        <v>220800</v>
+        <v>138000</v>
       </c>
       <c r="T20" s="9" t="n">
         <f aca="false">(4*PI()*Q20*R20*H20^2)/0.000001</f>
-        <v>465332.70384972</v>
+        <v>505218.364179696</v>
       </c>
       <c r="Y20" s="11"/>
       <c r="AC20" s="9" t="s">
@@ -15597,8 +15443,7 @@
         <v>0.8</v>
       </c>
       <c r="R21" s="9" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(40))*(I21/2),2)</f>
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="S21" s="9" t="n">
         <f aca="false">(H21*M21)/0.000001</f>
@@ -15606,7 +15451,7 @@
       </c>
       <c r="T21" s="9" t="n">
         <f aca="false">(4*PI()*Q21*R21*H21^2)/0.000001</f>
-        <v>628318.530717959</v>
+        <v>1130973.35529233</v>
       </c>
       <c r="Y21" s="11"/>
       <c r="AC21" s="9" t="s">
@@ -15658,18 +15503,10 @@
       <c r="Q22" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="R22" s="9" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(20))*(I22/2),2)</f>
-        <v>0.16</v>
-      </c>
       <c r="S22" s="9" t="n">
         <f aca="false">(H22*M22)/0.000001</f>
         <v>403000</v>
       </c>
-      <c r="T22" s="9" t="n">
-        <f aca="false">(4*PI()*Q22*R22*H22^2)/0.000001</f>
-        <v>1698973.30706136</v>
-      </c>
       <c r="Y22" s="11"/>
       <c r="AC22" s="9" t="s">
         <v>713</v>
@@ -15782,7 +15619,7 @@
         <v>1.2</v>
       </c>
       <c r="R24" s="9" t="n">
-        <v>0.052</v>
+        <v>0.18857</v>
       </c>
       <c r="S24" s="9" t="n">
         <f aca="false">(H24*M24)/0.000001</f>
@@ -15790,7 +15627,7 @@
       </c>
       <c r="T24" s="9" t="n">
         <f aca="false">(4*PI()*Q24*R24*H24^2)/0.000001</f>
-        <v>384229.347904646</v>
+        <v>1393348.61796883</v>
       </c>
       <c r="Y24" s="11"/>
       <c r="AC24" s="9" t="s">
@@ -15903,7 +15740,7 @@
         <v>1.28</v>
       </c>
       <c r="R26" s="9" t="n">
-        <v>0.057</v>
+        <v>0.42857</v>
       </c>
       <c r="S26" s="9" t="n">
         <f aca="false">(H26*M26)/0.000001</f>
@@ -15911,7 +15748,7 @@
       </c>
       <c r="T26" s="9" t="n">
         <f aca="false">(4*PI()*Q26*R26*H26^2)/0.000001</f>
-        <v>16218.0252140183</v>
+        <v>121939.632736348</v>
       </c>
       <c r="V26" s="10" t="n">
         <v>0.118</v>
@@ -16021,7 +15858,7 @@
         <v>1.25</v>
       </c>
       <c r="R28" s="9" t="n">
-        <v>0.00275</v>
+        <v>0.01527</v>
       </c>
       <c r="S28" s="9" t="n">
         <f aca="false">(H28*M28)/0.000001</f>
@@ -16029,7 +15866,7 @@
       </c>
       <c r="T28" s="9" t="n">
         <f aca="false">(4*PI()*Q28*R28*H28^2)/0.000001</f>
-        <v>1399.57952717425</v>
+        <v>7771.48341089122</v>
       </c>
       <c r="Y28" s="11"/>
       <c r="AC28" s="9" t="s">
@@ -16138,18 +15975,10 @@
       <c r="Q30" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="R30" s="9" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(40))*0.43,2)</f>
-        <v>0.36</v>
-      </c>
       <c r="S30" s="9" t="n">
         <f aca="false">(H30*M30)/0.000001</f>
         <v>111000</v>
       </c>
-      <c r="T30" s="9" t="n">
-        <f aca="false">(4*PI()*Q30*R30*H30^2)/0.000001</f>
-        <v>928981.514037116</v>
-      </c>
       <c r="V30" s="10" t="n">
         <v>0.01</v>
       </c>
@@ -16203,18 +16032,10 @@
       <c r="Q31" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="R31" s="9" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(45))*(I31/2),2)</f>
-        <v>0.25</v>
-      </c>
       <c r="S31" s="9" t="n">
         <f aca="false">(H31*M31)/0.000001</f>
         <v>39000</v>
       </c>
-      <c r="T31" s="9" t="n">
-        <f aca="false">(4*PI()*Q31*R31*H31^2)/0.000001</f>
-        <v>282743.338823081</v>
-      </c>
       <c r="Y31" s="11"/>
       <c r="AC31" s="9" t="s">
         <v>738</v>
@@ -16266,7 +16087,7 @@
         <v>10</v>
       </c>
       <c r="R32" s="9" t="n">
-        <v>0.04</v>
+        <v>0.1533</v>
       </c>
       <c r="S32" s="9" t="n">
         <f aca="false">(H32*M32)/0.000001</f>
@@ -16274,7 +16095,7 @@
       </c>
       <c r="T32" s="9" t="n">
         <f aca="false">(4*PI()*Q32*R32*H32^2)/0.000001</f>
-        <v>113097.335529233</v>
+        <v>433445.538415784</v>
       </c>
       <c r="Y32" s="11"/>
       <c r="AC32" s="9" t="s">
@@ -16381,7 +16202,7 @@
         <v>0.4</v>
       </c>
       <c r="R34" s="9" t="n">
-        <v>0.015</v>
+        <v>0.107</v>
       </c>
       <c r="S34" s="9" t="n">
         <f aca="false">(H34*M34)/0.000001</f>
@@ -16389,7 +16210,7 @@
       </c>
       <c r="T34" s="9" t="n">
         <f aca="false">(4*PI()*Q34*R34*H34^2)/0.000001</f>
-        <v>1477.80518424864</v>
+        <v>10541.6769809736</v>
       </c>
       <c r="Y34" s="11"/>
       <c r="AC34" s="9" t="s">
@@ -16439,7 +16260,7 @@
         <v>10</v>
       </c>
       <c r="R35" s="9" t="n">
-        <v>0.025</v>
+        <v>0.2272</v>
       </c>
       <c r="S35" s="9" t="n">
         <f aca="false">(H35*M35)/0.000001</f>
@@ -16447,7 +16268,7 @@
       </c>
       <c r="T35" s="9" t="n">
         <f aca="false">(4*PI()*Q35*R35*H35^2)/0.000001</f>
-        <v>38013.2711084365</v>
+        <v>345464.607833471</v>
       </c>
       <c r="Y35" s="11"/>
       <c r="AC35" s="9" t="s">
@@ -16564,7 +16385,7 @@
         <v>0.5</v>
       </c>
       <c r="R37" s="9" t="n">
-        <v>0.3</v>
+        <v>0.35211</v>
       </c>
       <c r="S37" s="9" t="n">
         <f aca="false">(H37*M37)/0.000001</f>
@@ -16572,7 +16393,7 @@
       </c>
       <c r="T37" s="9" t="n">
         <f aca="false">(4*PI()*Q37*R37*H37^2)/0.000001</f>
-        <v>950206.114004769</v>
+        <v>1115256.9160074</v>
       </c>
       <c r="Y37" s="11"/>
       <c r="AC37" s="9" t="s">
@@ -16625,8 +16446,7 @@
         <v>0.157</v>
       </c>
       <c r="R38" s="9" t="n">
-        <f aca="false">0.2*0.1</f>
-        <v>0.02</v>
+        <v>0.010332</v>
       </c>
       <c r="S38" s="9" t="n">
         <f aca="false">(H38*M38)/0.000001</f>
@@ -16634,7 +16454,7 @@
       </c>
       <c r="T38" s="9" t="n">
         <f aca="false">(4*PI()*Q38*R38*H38^2)/0.000001</f>
-        <v>1740.11560445277</v>
+        <v>898.943721260302</v>
       </c>
       <c r="Y38" s="11"/>
       <c r="AC38" s="9" t="s">
@@ -16697,8 +16517,7 @@
         <v>0.167</v>
       </c>
       <c r="R39" s="9" t="n">
-        <f aca="false">0.45*0.085</f>
-        <v>0.03825</v>
+        <v>0.20238</v>
       </c>
       <c r="S39" s="9" t="n">
         <f aca="false">(H39*M39)/0.000001</f>
@@ -16706,7 +16525,7 @@
       </c>
       <c r="T39" s="9" t="n">
         <f aca="false">(4*PI()*Q39*R39*H39^2)/0.000001</f>
-        <v>971.277090091661</v>
+        <v>5139.00803902615</v>
       </c>
       <c r="Y39" s="11"/>
       <c r="AC39" s="9" t="s">

--- a/UUVDatabase.xlsx
+++ b/UUVDatabase.xlsx
@@ -2779,12 +2779,19 @@
     <cellStyle name="Text 13" xfId="29"/>
     <cellStyle name="Warning 14" xfId="30"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFCFCFC"/>
-          <bgColor rgb="FF1B1E20"/>
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7787,11 +7794,11 @@
   <dimension ref="A1:AD105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
-      <selection pane="bottomRight" activeCell="M96" activeCellId="0" sqref="M96"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8137,7 +8144,7 @@
         <v>1.6</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0.026</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="1" t="n">
         <f aca="false">N5*I5/0.000001</f>
@@ -8145,7 +8152,7 @@
       </c>
       <c r="U5" s="1" t="n">
         <f aca="false">(4*PI()*R5*S5*I5^2)/0.000001</f>
-        <v>15107.7934074072</v>
+        <v>145267.244301992</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>297</v>
@@ -8871,7 +8878,7 @@
         <v>338</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>1</v>
@@ -8892,7 +8899,7 @@
         <v>0.122</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="O17" s="2" t="n">
         <f aca="false">P17/L17</f>
@@ -8906,18 +8913,18 @@
         <v>1.331424</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="S17" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="T17" s="1" t="n">
         <f aca="false">N17*I17/0.000001</f>
-        <v>84000</v>
+        <v>82800</v>
       </c>
       <c r="U17" s="1" t="n">
         <f aca="false">(4*PI()*R17*S17*I17^2)/0.000001</f>
-        <v>49762.8276328623</v>
+        <v>31667.2539481851</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>347</v>

--- a/UUVDatabase.xlsx
+++ b/UUVDatabase.xlsx
@@ -8351,11 +8351,11 @@
   <dimension ref="A1:AE105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P15" activeCellId="0" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="Q18" activeCellId="0" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9715,39 +9715,39 @@
         <v>0.826</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>0.717</v>
+        <v>0.58</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="O17" s="2" t="n">
         <f aca="false">Q17/L17</f>
-        <v>121.06416464891</v>
+        <v>41.7466101694915</v>
       </c>
       <c r="P17" s="2" t="n">
         <f aca="false">O17/9.81</f>
-        <v>12.3408934402559</v>
+        <v>4.2555158174813</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>99.999</v>
+        <v>34.4827</v>
       </c>
       <c r="R17" s="1" t="n">
         <f aca="false">Q17*I17</f>
-        <v>42.699573</v>
+        <v>14.7241129</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>0.0187</v>
+        <v>0.0304</v>
       </c>
       <c r="U17" s="1" t="n">
         <f aca="false">N17*I17/0.000001</f>
-        <v>213500</v>
+        <v>247660</v>
       </c>
       <c r="V17" s="1" t="n">
         <f aca="false">(4*PI()*S17*T17*I17^2)/0.000001</f>
-        <v>299919.884815885</v>
+        <v>1114446.38635941</v>
       </c>
       <c r="AE17" s="1" t="s">
         <v>346</v>
@@ -14121,11 +14121,22 @@
       <c r="K93" s="1" t="n">
         <v>0.046</v>
       </c>
+      <c r="L93" s="1" t="n">
+        <v>0.00468</v>
+      </c>
       <c r="M93" s="1" t="n">
         <v>0.52</v>
       </c>
       <c r="N93" s="1" t="n">
         <v>0.52</v>
+      </c>
+      <c r="O93" s="2" t="n">
+        <f aca="false">Q93/L93</f>
+        <v>328.730769230769</v>
+      </c>
+      <c r="P93" s="2" t="n">
+        <f aca="false">O93/9.81</f>
+        <v>33.509762408845</v>
       </c>
       <c r="Q93" s="1" t="n">
         <v>1.53846</v>
@@ -14138,7 +14149,7 @@
         <v>19</v>
       </c>
       <c r="T93" s="1" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="U93" s="1" t="n">
         <f aca="false">N93*I93/0.000001</f>
@@ -14146,7 +14157,7 @@
       </c>
       <c r="V93" s="1" t="n">
         <f aca="false">(4*PI()*S93*T93*I93^2)/0.000001</f>
-        <v>119380.520836412</v>
+        <v>71628.3125018473</v>
       </c>
       <c r="AE93" s="1" t="s">
         <v>606</v>

--- a/UUVDatabase.xlsx
+++ b/UUVDatabase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Propeller" sheetId="1" state="visible" r:id="rId2"/>
@@ -2811,20 +2811,20 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3046,12 +3046,12 @@
   </sheetPr>
   <dimension ref="A1:BU110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3074,7 +3074,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="75" style="1" width="8.62"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3135,7 +3135,7 @@
       <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="4"/>
@@ -4221,7 +4221,7 @@
         <v>55</v>
       </c>
       <c r="S22" s="1"/>
-      <c r="U22" s="6" t="s">
+      <c r="U22" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
         <v>55</v>
       </c>
       <c r="S23" s="1"/>
-      <c r="U23" s="6" t="s">
+      <c r="U23" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5710,7 +5710,7 @@
         <v>86</v>
       </c>
       <c r="S53" s="1"/>
-      <c r="U53" s="6" t="s">
+      <c r="U53" s="7" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
         <v>133</v>
       </c>
       <c r="S54" s="1"/>
-      <c r="U54" s="6" t="s">
+      <c r="U54" s="7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5838,7 +5838,7 @@
         <v>133</v>
       </c>
       <c r="S55" s="1"/>
-      <c r="U55" s="6" t="s">
+      <c r="U55" s="7" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6670,11 +6670,11 @@
       <c r="Q72" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="R72" s="6" t="s">
+      <c r="R72" s="7" t="s">
         <v>174</v>
       </c>
       <c r="S72" s="1"/>
-      <c r="U72" s="6" t="s">
+      <c r="U72" s="7" t="s">
         <v>175</v>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
         <v>55</v>
       </c>
       <c r="S107" s="1"/>
-      <c r="U107" s="6" t="s">
+      <c r="U107" s="7" t="s">
         <v>257</v>
       </c>
     </row>
@@ -8433,7 +8433,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P21" activeCellId="0" sqref="P21"/>
+      <selection pane="bottomRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8466,47 +8466,47 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="74" style="1" width="8.62"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="8" t="s">
@@ -8515,49 +8515,49 @@
       <c r="P1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -18730,15 +18730,15 @@
   </sheetPr>
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V6" activeCellId="0" sqref="V6"/>
+      <selection pane="bottomRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.48"/>
@@ -18748,47 +18748,47 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="42.91"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="8" t="s">
@@ -18797,49 +18797,49 @@
       <c r="P1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="6" t="s">
         <v>20</v>
       </c>
     </row>

--- a/UUVDatabase.xlsx
+++ b/UUVDatabase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Propeller" sheetId="1" state="visible" r:id="rId2"/>
@@ -860,6 +860,102 @@
     <t xml:space="preserve">Mechanical Power [W]</t>
   </si>
   <si>
+    <t xml:space="preserve">Harvard Live Muscle Fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carangiform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1186/1743-0003-1-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Essex iSplah Micro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clapham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Essex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1109/IROS.2014.6942574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UV Tunabot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunniform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1126/scirobotics.aax4615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCSD DEA leptocephali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christianson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of California, San Diego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1126/scirobotics.aat1893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvard Finbot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvard University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ostraciiform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnetic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1088/1748-3190/abd013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miro-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airo Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.airo.kr/?ckattempt=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Polish Naval Academy Cyberfish</t>
   </si>
   <si>
@@ -869,28 +965,127 @@
     <t xml:space="preserve">Polish Naval Academy</t>
   </si>
   <si>
-    <t xml:space="preserve">Carangiform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servo</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://doi.org/10.1007/978-3-319-05353-0_43</t>
   </si>
   <si>
     <t xml:space="preserve">Miro-9</t>
   </si>
   <si>
-    <t xml:space="preserve">Joo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airo Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.airo.kr/?ckattempt=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miro-7</t>
+    <t xml:space="preserve">Nanyang NAF-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanyang Technological University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1109/ROBOT.2010.5509848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia Tech MFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ertuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia Institute of Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1088/1748-3182/8/1/016006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Ulsan Carangiform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Ulsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/S1672-6529(08)60140-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecole Polytechnique Salamandra Robotica-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crespi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecole Polytechnique Federale de Lausanne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anguiliform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1109/TRO.2012.2234311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecole Polytechnique DEA Carangiform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shintake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1089/soro.2017.0062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT Carangiform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s00348-009-0684-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyushu University Carangiform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fujiwara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyushu University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1109/IROS.2017.8206281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMSat Artefact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manfredi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Dundee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s00422-013-0566-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAS Robotic Shark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Academy of Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5772/62887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT Pnuematic SoFi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katzschmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1126/scirobotics.aar3449</t>
   </si>
   <si>
     <t xml:space="preserve">MAR</t>
@@ -902,28 +1097,37 @@
     <t xml:space="preserve">Technical University of Munich</t>
   </si>
   <si>
-    <t xml:space="preserve">Anguiliform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motor</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://doi.org/10.1088/1748-3190/ab6be0</t>
   </si>
   <si>
-    <t xml:space="preserve">UV Tunabot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thunniform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1126/scirobotics.aax4615</t>
+    <t xml:space="preserve">Beihang SPC-III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beihang University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1002/rob.20363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT RoboPike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massachusetts Institute of Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dspace.mit.edu/bitstream/handle/1721.1/8968/47045662-MIT.pdf?sequence=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanyang Arowana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1109/ICMA.2007.4303527</t>
   </si>
   <si>
     <t xml:space="preserve">SouthWest State Carangiform</t>
@@ -938,57 +1142,6 @@
     <t xml:space="preserve">https://doi.org/10.1051/ matecconf/20171130 2014</t>
   </si>
   <si>
-    <t xml:space="preserve">IMSat Artefact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manfredi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Dundee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1007/s00422-013-0566-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beihang SPC-III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beihang University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1002/rob.20363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIT RoboPike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massachusetts Institute of Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dspace.mit.edu/bitstream/handle/1721.1/8968/47045662-MIT.pdf?sequence=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia Tech MFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ertuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia Institute of Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1088/1748-3182/8/1/016006</t>
-  </si>
-  <si>
     <t xml:space="preserve">University of Glasgow RoboSalmon</t>
   </si>
   <si>
@@ -1004,52 +1157,19 @@
     <t xml:space="preserve">https://doi.org/10.1109/10.3390/robotics5010002</t>
   </si>
   <si>
-    <t xml:space="preserve">MIT Pnuematic SoFi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katzschmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1126/scirobotics.aar3449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanyang Arowana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanyang Technological University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1109/ICMA.2007.4303527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAS Robotic Shark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Academy of Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5772/62887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyushu University Carangiform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fujiwara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyushu University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1109/IROS.2017.8206281</t>
+    <t xml:space="preserve">Wichita State IPMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wichita State University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1115/DSCC2016-9915</t>
   </si>
   <si>
     <t xml:space="preserve">NTNU Mamba</t>
@@ -1064,93 +1184,6 @@
     <t xml:space="preserve">https://doi.org/10.1109/SSRR.2016.7784295</t>
   </si>
   <si>
-    <t xml:space="preserve">Harvard Finbot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berlinger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harvard University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ostraciiform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnetic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1088/1748-3190/abd013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harvard Live Muscle Fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1186/1743-0003-1-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Essex iSplah Micro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clapham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Essex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1109/IROS.2014.6942574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCSD DEA leptocephali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christianson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of California, San Diego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1126/scirobotics.aat1893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIT Carangiform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1007/s00348-009-0684-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanyang NAF-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1109/ROBOT.2010.5509848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wichita State IPMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wichita State University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1115/DSCC2016-9915</t>
-  </si>
-  <si>
     <t xml:space="preserve">MIT Robo Tuna</t>
   </si>
   <si>
@@ -1196,9 +1229,6 @@
     <t xml:space="preserve">Bayat</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecole Polytechnique Federale de Lausanne</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://doi.org/10.1109/AUV.2016.7778700</t>
   </si>
   <si>
@@ -1274,18 +1304,9 @@
     <t xml:space="preserve">Ecole Polytechnique Amphibot-II</t>
   </si>
   <si>
-    <t xml:space="preserve">Crespi</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://doi.org/10.1109/TRO.2008.915426</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecole Polytechnique Salamandra Robotica-II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1109/TRO.2012.2234311</t>
-  </si>
-  <si>
     <t xml:space="preserve">TUT SubCarang</t>
   </si>
   <si>
@@ -1793,15 +1814,6 @@
     <t xml:space="preserve">https://doi.org/10.1109/ICCIT.2007.391</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecole Polytechnique DEA Carangiform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shintake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1089/soro.2017.0062</t>
-  </si>
-  <si>
     <t xml:space="preserve">University of Victoria SMA</t>
   </si>
   <si>
@@ -1848,18 +1860,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1109/TIE.2017.2779431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Ulsan Carangiform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Ulsan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/S1672-6529(08)60140-7</t>
   </si>
   <si>
     <t xml:space="preserve">Harbin SMA</t>
@@ -2971,11 +2971,11 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="__Anonymous_Sheet_DB__1" displayName="__Anonymous_Sheet_DB__1" ref="A2:AE102" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="31">
-    <tableColumn id="1" name="Polish Naval Academy Cyberfish"/>
-    <tableColumn id="2" name="Szymak"/>
-    <tableColumn id="3" name="Polish Naval Academy"/>
+    <tableColumn id="1" name="Harvard Live Muscle Fish"/>
+    <tableColumn id="2" name="Herr"/>
+    <tableColumn id="3" name="MIT"/>
     <tableColumn id="4" name="Carangiform"/>
-    <tableColumn id="5" name="Servo"/>
+    <tableColumn id="5" name="Muscle"/>
     <tableColumn id="6" name="Column6"/>
     <tableColumn id="7" name="Column7"/>
     <tableColumn id="8" name="Column8"/>
@@ -3001,7 +3001,7 @@
     <tableColumn id="28" name="Column23"/>
     <tableColumn id="29" name="Column24"/>
     <tableColumn id="30" name="Column25"/>
-    <tableColumn id="31" name="https://doi.org/10.1007/978-3-319-05353-0_43"/>
+    <tableColumn id="31" name="https://doi.org/10.1186/1743-0003-1-6"/>
   </tableColumns>
 </table>
 </file>
@@ -3046,7 +3046,7 @@
   </sheetPr>
   <dimension ref="A1:BU110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -8428,12 +8428,12 @@
   </sheetPr>
   <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="bottomRight" activeCell="P29" activeCellId="0" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8449,7 +8449,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="8.57"/>
@@ -8578,70 +8578,66 @@
         <v>282</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.69</v>
+        <v>0.12</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.22</v>
+        <v>0.07</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>3.4</v>
+        <v>0.01215</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>0.66</v>
+        <v>0.045</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>0.66</v>
+        <f aca="false">M2</f>
+        <v>0.045</v>
       </c>
       <c r="O2" s="2" t="n">
         <f aca="false">Q2/L2</f>
-        <v>3.95588235294118</v>
+        <v>123.456790123457</v>
       </c>
       <c r="P2" s="2" t="n">
         <f aca="false">O2/9.81</f>
-        <v>0.403249985009294</v>
+        <v>12.5847900227785</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>13.45</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="1" t="n">
         <f aca="false">Q2*I2</f>
-        <v>9.2805</v>
+        <v>0.18</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(20))*(I2/3),2)</f>
-        <v>0.08</v>
+        <v>3.1</v>
       </c>
       <c r="U2" s="1" t="n">
         <f aca="false">N2*I2/0.000001</f>
-        <v>455400</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <f aca="false">(4*PI()*S2*T2*I2^2)/0.000001</f>
-        <v>670079.093543597</v>
+        <v>5400</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>0.4</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>11.1</v>
+        <v>2.8</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>2.4</v>
+        <v>0.096</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>283</v>
@@ -8661,243 +8657,232 @@
         <v>281</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.11</v>
+        <v>0.0065</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.25</v>
+        <v>0.046</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>2.6</v>
+        <v>0.00468</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="N3" s="1" t="n">
-        <f aca="false">M3</f>
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="O3" s="2" t="n">
         <f aca="false">Q3/L3</f>
-        <v>6.13846153846154</v>
+        <v>328.730769230769</v>
       </c>
       <c r="P3" s="2" t="n">
         <f aca="false">O3/9.81</f>
-        <v>0.625735121147965</v>
+        <v>33.509762408845</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>15.96</v>
+        <v>1.53846</v>
       </c>
       <c r="R3" s="1" t="n">
         <f aca="false">Q3*I3</f>
-        <v>8.4588</v>
+        <v>0.076923</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>0.12</v>
       </c>
       <c r="U3" s="1" t="n">
         <f aca="false">N3*I3/0.000001</f>
-        <v>265000</v>
-      </c>
-      <c r="X3" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y3" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>11.4</v>
+        <v>26000</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <f aca="false">(4*PI()*S3*T3*I3^2)/0.000001</f>
+        <v>71628.3125018473</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.35</v>
+        <v>0.255</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.07</v>
+        <v>0.0492</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.19</v>
+        <v>0.0678</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>1.3</v>
+        <v>0.306</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.5</v>
+        <v>1.02</v>
       </c>
       <c r="N4" s="1" t="n">
-        <f aca="false">M4</f>
-        <v>0.5</v>
+        <v>0.408</v>
       </c>
       <c r="O4" s="2" t="n">
         <f aca="false">Q4/L4</f>
-        <v>8.76923076923077</v>
+        <v>12.7441176470588</v>
       </c>
       <c r="P4" s="2" t="n">
         <f aca="false">O4/9.81</f>
-        <v>0.893907315925665</v>
+        <v>1.29909456137195</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>11.4</v>
+        <v>3.8997</v>
       </c>
       <c r="R4" s="1" t="n">
         <f aca="false">Q4*I4</f>
-        <v>3.99</v>
+        <v>0.9944235</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>0.17</v>
       </c>
       <c r="U4" s="1" t="n">
         <f aca="false">N4*I4/0.000001</f>
-        <v>175000</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y4" s="1" t="n">
-        <v>20</v>
+        <v>104040</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <f aca="false">(4*PI()*S4*T4*I4^2)/0.000001</f>
+        <v>805688.453709923</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA4" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB4" s="1" t="n">
-        <v>5.7</v>
+        <v>1.16</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>7.5</v>
+        <v>0.0251</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.47</v>
+        <v>0.0019</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>0.2974</v>
+        <v>0.0019</v>
       </c>
       <c r="O5" s="2" t="n">
         <f aca="false">Q5/L5</f>
-        <v>9.32533333333333</v>
+        <v>418.326693227092</v>
       </c>
       <c r="P5" s="2" t="n">
         <f aca="false">O5/9.81</f>
-        <v>0.950594631328576</v>
+        <v>42.6428841210083</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>69.94</v>
+        <v>10.5</v>
       </c>
       <c r="R5" s="1" t="n">
         <f aca="false">Q5*I5</f>
-        <v>75.5352</v>
+        <v>2.31</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>1.35</v>
+        <v>0.33</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>0.05</v>
       </c>
       <c r="U5" s="1" t="n">
         <f aca="false">N5*I5/0.000001</f>
-        <v>321192</v>
-      </c>
-      <c r="AB5" s="1" t="n">
-        <v>48</v>
+        <v>418</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <f aca="false">(4*PI()*S5*T5*I5^2)/0.000001</f>
+        <v>10035.5035726272</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>1</v>
@@ -8906,400 +8891,400 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0.0492</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0.0678</v>
+        <v>0.12</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>0.306</v>
+        <v>0.138</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>1.02</v>
+        <v>0.122</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>0.408</v>
+        <v>0.69</v>
       </c>
       <c r="O6" s="2" t="n">
         <f aca="false">Q6/L6</f>
-        <v>12.7441176470588</v>
+        <v>80.4</v>
       </c>
       <c r="P6" s="2" t="n">
         <f aca="false">O6/9.81</f>
-        <v>1.29909456137195</v>
+        <v>8.19571865443425</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>3.8997</v>
+        <v>11.0952</v>
       </c>
       <c r="R6" s="1" t="n">
         <f aca="false">Q6*I6</f>
-        <v>0.9944235</v>
+        <v>1.331424</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>5.8</v>
+        <v>1.75</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="U6" s="1" t="n">
         <f aca="false">N6*I6/0.000001</f>
-        <v>104040</v>
+        <v>82800</v>
       </c>
       <c r="V6" s="1" t="n">
         <f aca="false">(4*PI()*S6*T6*I6^2)/0.000001</f>
-        <v>805688.453709923</v>
-      </c>
-      <c r="Z6" s="1" t="n">
-        <v>1.16</v>
+        <v>31667.2539481851</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.28</v>
+        <v>0.07</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0.42</v>
+        <f aca="false">M7</f>
+        <v>0.5</v>
       </c>
       <c r="O7" s="2" t="n">
         <f aca="false">Q7/L7</f>
-        <v>22.1953188135593</v>
+        <v>8.76923076923077</v>
       </c>
       <c r="P7" s="2" t="n">
         <f aca="false">O7/9.81</f>
-        <v>2.26251975673388</v>
+        <v>0.893907315925665</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>130.952381</v>
+        <v>11.4</v>
       </c>
       <c r="R7" s="1" t="n">
         <f aca="false">Q7*I7</f>
-        <v>91.6666667</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>8</v>
+        <v>3.99</v>
       </c>
       <c r="U7" s="1" t="n">
         <f aca="false">N7*I7/0.000001</f>
-        <v>294000</v>
+        <v>175000</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="AB7" s="1" t="n">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.99</v>
+        <v>0.69</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.054</v>
+        <v>0.22</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.054</v>
+        <v>0.23</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.64</v>
+        <v>3.4</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.2475</v>
+        <v>0.66</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>0.2475</v>
+        <v>0.66</v>
       </c>
       <c r="O8" s="2" t="n">
         <f aca="false">Q8/L8</f>
-        <v>24.6864634146341</v>
+        <v>3.95588235294118</v>
       </c>
       <c r="P8" s="2" t="n">
         <f aca="false">O8/9.81</f>
-        <v>2.51645906367321</v>
+        <v>0.403249985009294</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>40.4858</v>
+        <v>13.45</v>
       </c>
       <c r="R8" s="1" t="n">
         <f aca="false">Q8*I8</f>
-        <v>40.080942</v>
+        <v>9.2805</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <f aca="false">ROUND(TAN(RADIANS(20))*(I8/3),2)</f>
+        <v>0.08</v>
       </c>
       <c r="U8" s="1" t="n">
         <f aca="false">N8*I8/0.000001</f>
-        <v>245025</v>
-      </c>
-      <c r="X8" s="1" t="n">
-        <v>1</v>
+        <v>455400</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <f aca="false">(4*PI()*S8*T8*I8^2)/0.000001</f>
+        <v>670079.093543597</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>5</v>
+        <v>11.1</v>
       </c>
       <c r="AB8" s="1" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC8" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD8" s="1" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F9" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>1.76</v>
+        <v>0.53</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>1.36</v>
+        <v>0.5</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>1.1</v>
+        <f aca="false">M9</f>
+        <v>0.5</v>
       </c>
       <c r="O9" s="2" t="n">
         <f aca="false">Q9/L9</f>
-        <v>24.7933</v>
+        <v>6.13846153846154</v>
       </c>
       <c r="P9" s="2" t="n">
         <f aca="false">O9/9.81</f>
-        <v>2.5273496432212</v>
+        <v>0.625735121147965</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>81.81789</v>
+        <v>15.96</v>
       </c>
       <c r="R9" s="1" t="n">
         <f aca="false">Q9*I9</f>
-        <v>143.9994864</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>2</v>
+        <v>8.4588</v>
       </c>
       <c r="U9" s="1" t="n">
         <f aca="false">N9*I9/0.000001</f>
-        <v>1936000</v>
+        <v>265000</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>1.75</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="Z9" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="AC9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD9" s="1" t="n">
-        <v>73</v>
+      <c r="AA9" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>11.4</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>6</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.82</v>
+        <v>0.661</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0.26</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>3.63</v>
+        <v>0.0068</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.09</v>
+        <f aca="false">M10</f>
+        <v>0.33</v>
       </c>
       <c r="O10" s="2" t="n">
         <f aca="false">Q10/L10</f>
-        <v>25.8953168044077</v>
+        <v>2451.47058823529</v>
       </c>
       <c r="P10" s="2" t="n">
         <f aca="false">O10/9.81</f>
-        <v>2.63968570891006</v>
+        <v>249.895065059663</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>94</v>
+        <v>16.67</v>
       </c>
       <c r="R10" s="1" t="n">
         <f aca="false">Q10*I10</f>
-        <v>77.08</v>
+        <v>11.01887</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" s="1" t="n">
-        <v>0.3658</v>
+        <v>2</v>
       </c>
       <c r="U10" s="1" t="n">
         <f aca="false">N10*I10/0.000001</f>
-        <v>73800</v>
-      </c>
-      <c r="V10" s="1" t="n">
-        <f aca="false">(4*PI()*S10*T10*I10^2)/0.000001</f>
-        <v>3090873.77648059</v>
-      </c>
-      <c r="W10" s="1" t="n">
+        <v>218130</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="X10" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(30)),2)</f>
-        <v>0.58</v>
-      </c>
-      <c r="AD10" s="1" t="n">
-        <v>8.5</v>
+      <c r="AB10" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>1</v>
@@ -9349,357 +9334,264 @@
         <v>1.4</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.146</v>
+        <v>0.62</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <f aca="false">Q12/L12</f>
-        <v>37.88</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <f aca="false">O12/9.81</f>
-        <v>3.86136595310907</v>
-      </c>
-      <c r="Q12" s="1" t="n">
-        <v>162.884</v>
-      </c>
-      <c r="R12" s="1" t="n">
-        <f aca="false">Q12*I12</f>
-        <v>146.5956</v>
+        <v>0.62</v>
       </c>
       <c r="S12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T12" s="1" t="n">
-        <v>0.15</v>
-      </c>
       <c r="U12" s="1" t="n">
         <f aca="false">N12*I12/0.000001</f>
-        <v>21600</v>
-      </c>
-      <c r="V12" s="1" t="n">
-        <f aca="false">(4*PI()*S12*T12*I12^2)/0.000001</f>
-        <v>1526814.02964464</v>
-      </c>
-      <c r="X12" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AA12" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB12" s="1" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AC12" s="1" t="n">
-        <v>3.9</v>
+        <v>744000</v>
       </c>
       <c r="AD12" s="1" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S13" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="N13" s="1" t="n">
-        <f aca="false">M13</f>
-        <v>0.235</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <f aca="false">Q13/L13</f>
-        <v>42.0363636363636</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <f aca="false">O13/9.81</f>
-        <v>4.28505235844685</v>
-      </c>
-      <c r="Q13" s="1" t="n">
-        <v>69.36</v>
-      </c>
-      <c r="R13" s="1" t="n">
-        <f aca="false">Q13*I13</f>
-        <v>32.5992</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>1.4</v>
       </c>
       <c r="U13" s="1" t="n">
         <f aca="false">N13*I13/0.000001</f>
-        <v>110450</v>
-      </c>
-      <c r="Z13" s="1" t="n">
-        <f aca="false">ROUND(40/60,2)</f>
-        <v>0.67</v>
-      </c>
-      <c r="AA13" s="1" t="n">
-        <v>8.4</v>
+        <v>561000</v>
       </c>
       <c r="AB13" s="1" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD13" s="1" t="n">
+        <v>6.5</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="K14" s="1" t="n">
         <v>0.15</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>2.5</v>
+        <v>0.0038</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.05</v>
+        <v>0.0372</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>0.05</v>
+        <v>0.0372</v>
       </c>
       <c r="O14" s="2" t="n">
         <f aca="false">Q14/L14</f>
-        <v>48.6</v>
+        <v>6508.15789473684</v>
       </c>
       <c r="P14" s="2" t="n">
         <f aca="false">O14/9.81</f>
-        <v>4.95412844036697</v>
+        <v>663.420784376844</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>121.5</v>
+        <v>24.731</v>
       </c>
       <c r="R14" s="1" t="n">
         <f aca="false">Q14*I14</f>
-        <v>60.75</v>
+        <v>3.70965</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>2.6</v>
+        <v>0.75</v>
       </c>
       <c r="T14" s="1" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(30))*(I14/3),2)</f>
-        <v>0.1</v>
+        <v>0.047</v>
       </c>
       <c r="U14" s="1" t="n">
         <f aca="false">N14*I14/0.000001</f>
-        <v>25000</v>
-      </c>
-      <c r="V14" s="1" t="n">
-        <f aca="false">(4*PI()*S14*T14*I14^2)/0.000001</f>
-        <v>816814.089933346</v>
-      </c>
-      <c r="Z14" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA14" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB14" s="1" t="n">
-        <v>2.7</v>
+        <v>5580</v>
+      </c>
+      <c r="AD14" s="1" t="n">
+        <v>0.92</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.35</v>
+        <v>0.148</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.61</v>
+        <v>0.0254</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0.83</v>
+        <v>0.0432</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>0.97</v>
+        <v>0.068</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="N15" s="1" t="n">
-        <f aca="false">M15</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O15" s="2" t="n">
         <f aca="false">Q15/L15</f>
-        <v>51.8762886597938</v>
+        <v>481.027941176471</v>
       </c>
       <c r="P15" s="2" t="n">
         <f aca="false">O15/9.81</f>
-        <v>5.28810281955085</v>
+        <v>49.034448641842</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>50.32</v>
+        <v>32.7099</v>
       </c>
       <c r="R15" s="1" t="n">
         <f aca="false">Q15*I15</f>
-        <v>17.612</v>
+        <v>4.8410652</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>3.5</v>
       </c>
       <c r="U15" s="1" t="n">
         <f aca="false">N15*I15/0.000001</f>
-        <v>175000</v>
-      </c>
-      <c r="Z15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="1" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB15" s="1" t="n">
-        <v>3.4</v>
+        <v>14800</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>1</v>
@@ -9755,1031 +9647,1141 @@
         <v>20.4</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1.6</v>
+        <v>0.99</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0.054</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>14.4</v>
+        <v>1.64</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2475</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>0.075</v>
+        <v>0.2475</v>
       </c>
       <c r="O17" s="2" t="n">
         <f aca="false">Q17/L17</f>
-        <v>64.8145833333333</v>
+        <v>24.6864634146341</v>
       </c>
       <c r="P17" s="2" t="n">
         <f aca="false">O17/9.81</f>
-        <v>6.6069911654774</v>
+        <v>2.51645906367321</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>933.33</v>
+        <v>40.4858</v>
       </c>
       <c r="R17" s="1" t="n">
         <f aca="false">Q17*I17</f>
-        <v>1493.328</v>
+        <v>40.080942</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="T17" s="1" t="n">
-        <v>0.125</v>
+        <v>0.6</v>
       </c>
       <c r="U17" s="1" t="n">
         <f aca="false">N17*I17/0.000001</f>
-        <v>120000</v>
-      </c>
-      <c r="V17" s="1" t="n">
-        <f aca="false">(4*PI()*S17*T17*I17^2)/0.000001</f>
-        <v>8416452.3826732</v>
+        <v>245025</v>
+      </c>
+      <c r="X17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="1" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC17" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>0.12</v>
+        <v>0.35</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0.83</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>0.138</v>
+        <v>0.97</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>0.122</v>
+        <v>0.5</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>0.69</v>
+        <f aca="false">M18</f>
+        <v>0.5</v>
       </c>
       <c r="O18" s="2" t="n">
         <f aca="false">Q18/L18</f>
-        <v>80.4</v>
+        <v>51.8762886597938</v>
       </c>
       <c r="P18" s="2" t="n">
         <f aca="false">O18/9.81</f>
-        <v>8.19571865443425</v>
+        <v>5.28810281955085</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>11.0952</v>
+        <v>50.32</v>
       </c>
       <c r="R18" s="1" t="n">
         <f aca="false">Q18*I18</f>
-        <v>1.331424</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T18" s="1" t="n">
-        <v>0.1</v>
+        <v>17.612</v>
       </c>
       <c r="U18" s="1" t="n">
         <f aca="false">N18*I18/0.000001</f>
-        <v>82800</v>
-      </c>
-      <c r="V18" s="1" t="n">
-        <f aca="false">(4*PI()*S18*T18*I18^2)/0.000001</f>
-        <v>31667.2539481851</v>
+        <v>175000</v>
+      </c>
+      <c r="Z18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB18" s="1" t="n">
+        <v>3.4</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>0.12</v>
+        <v>0.47</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>0.07</v>
+        <v>0.18</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>0.01215</v>
+        <v>1.65</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>0.045</v>
+        <v>0.235</v>
       </c>
       <c r="N19" s="1" t="n">
         <f aca="false">M19</f>
-        <v>0.045</v>
+        <v>0.235</v>
       </c>
       <c r="O19" s="2" t="n">
         <f aca="false">Q19/L19</f>
-        <v>123.456790123457</v>
+        <v>42.0363636363636</v>
       </c>
       <c r="P19" s="2" t="n">
         <f aca="false">O19/9.81</f>
-        <v>12.5847900227785</v>
+        <v>4.28505235844685</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>1.5</v>
+        <v>69.36</v>
       </c>
       <c r="R19" s="1" t="n">
         <f aca="false">Q19*I19</f>
-        <v>0.18</v>
+        <v>32.5992</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="U19" s="1" t="n">
         <f aca="false">N19*I19/0.000001</f>
-        <v>5400</v>
-      </c>
-      <c r="X19" s="1" t="n">
-        <v>0.4</v>
+        <v>110450</v>
       </c>
       <c r="Z19" s="1" t="n">
-        <v>4</v>
+        <f aca="false">ROUND(40/60,2)</f>
+        <v>0.67</v>
       </c>
       <c r="AA19" s="1" t="n">
-        <v>2.8</v>
+        <v>8.4</v>
       </c>
       <c r="AB19" s="1" t="n">
-        <v>0.096</v>
+        <v>1.3</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.05</v>
+        <v>1.08</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.0065</v>
+        <v>0.055</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>0.046</v>
+        <v>0.25</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>0.00468</v>
+        <v>7.5</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>0.52</v>
+        <v>0.2974</v>
       </c>
       <c r="O20" s="2" t="n">
         <f aca="false">Q20/L20</f>
-        <v>328.730769230769</v>
+        <v>9.32533333333333</v>
       </c>
       <c r="P20" s="2" t="n">
         <f aca="false">O20/9.81</f>
-        <v>33.509762408845</v>
+        <v>0.950594631328576</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>1.53846</v>
+        <v>69.94</v>
       </c>
       <c r="R20" s="1" t="n">
         <f aca="false">Q20*I20</f>
-        <v>0.076923</v>
+        <v>75.5352</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="T20" s="1" t="n">
-        <v>0.12</v>
+        <v>1.35</v>
       </c>
       <c r="U20" s="1" t="n">
         <f aca="false">N20*I20/0.000001</f>
-        <v>26000</v>
-      </c>
-      <c r="V20" s="1" t="n">
-        <f aca="false">(4*PI()*S20*T20*I20^2)/0.000001</f>
-        <v>71628.3125018473</v>
+        <v>321192</v>
+      </c>
+      <c r="AB20" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J21" s="1" t="n">
         <v>0.22</v>
       </c>
+      <c r="K21" s="1" t="n">
+        <v>0.22</v>
+      </c>
       <c r="L21" s="1" t="n">
-        <v>0.0251</v>
+        <v>3.3</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0.0019</v>
+        <v>1.36</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>0.0019</v>
+        <v>1.1</v>
       </c>
       <c r="O21" s="2" t="n">
         <f aca="false">Q21/L21</f>
-        <v>418.326693227092</v>
+        <v>24.7933</v>
       </c>
       <c r="P21" s="2" t="n">
         <f aca="false">O21/9.81</f>
-        <v>42.6428841210083</v>
+        <v>2.5273496432212</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>10.5</v>
+        <v>81.81789</v>
       </c>
       <c r="R21" s="1" t="n">
         <f aca="false">Q21*I21</f>
-        <v>2.31</v>
+        <v>143.9994864</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T21" s="1" t="n">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="U21" s="1" t="n">
         <f aca="false">N21*I21/0.000001</f>
-        <v>418</v>
-      </c>
-      <c r="V21" s="1" t="n">
-        <f aca="false">(4*PI()*S21*T21*I21^2)/0.000001</f>
-        <v>10035.5035726272</v>
+        <v>1936000</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD21" s="1" t="n">
+        <v>73</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.148</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>0.0254</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>0.0432</v>
+        <v>0.82</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.068</v>
+        <v>3.63</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.125</v>
+        <v>0.09</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="O22" s="2" t="n">
         <f aca="false">Q22/L22</f>
-        <v>481.027941176471</v>
+        <v>25.8953168044077</v>
       </c>
       <c r="P22" s="2" t="n">
         <f aca="false">O22/9.81</f>
-        <v>49.034448641842</v>
+        <v>2.63968570891006</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>32.7099</v>
+        <v>94</v>
       </c>
       <c r="R22" s="1" t="n">
         <f aca="false">Q22*I22</f>
-        <v>4.8410652</v>
+        <v>77.08</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>3.5</v>
+        <v>1</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>0.3658</v>
       </c>
       <c r="U22" s="1" t="n">
         <f aca="false">N22*I22/0.000001</f>
-        <v>14800</v>
+        <v>73800</v>
+      </c>
+      <c r="V22" s="1" t="n">
+        <f aca="false">(4*PI()*S22*T22*I22^2)/0.000001</f>
+        <v>3090873.77648059</v>
+      </c>
+      <c r="W22" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="X22" s="1" t="n">
+        <f aca="false">ROUND(TAN(RADIANS(30)),2)</f>
+        <v>0.58</v>
+      </c>
+      <c r="AD22" s="1" t="n">
+        <v>8.5</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.661</v>
+        <v>0.5</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.1</v>
+        <v>0.065</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>0.0068</v>
+        <v>2.5</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="N23" s="1" t="n">
-        <f aca="false">M23</f>
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="O23" s="2" t="n">
         <f aca="false">Q23/L23</f>
-        <v>2451.47058823529</v>
+        <v>48.6</v>
       </c>
       <c r="P23" s="2" t="n">
         <f aca="false">O23/9.81</f>
-        <v>249.895065059663</v>
+        <v>4.95412844036697</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>16.67</v>
+        <v>121.5</v>
       </c>
       <c r="R23" s="1" t="n">
         <f aca="false">Q23*I23</f>
-        <v>11.01887</v>
+        <v>60.75</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>2</v>
+        <v>2.6</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <f aca="false">ROUND(TAN(RADIANS(30))*(I23/3),2)</f>
+        <v>0.1</v>
       </c>
       <c r="U23" s="1" t="n">
         <f aca="false">N23*I23/0.000001</f>
-        <v>218130</v>
-      </c>
-      <c r="X23" s="1" t="n">
-        <v>0.1</v>
+        <v>25000</v>
+      </c>
+      <c r="V23" s="1" t="n">
+        <f aca="false">(4*PI()*S23*T23*I23^2)/0.000001</f>
+        <v>816814.089933346</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB23" s="1" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>3</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.018</v>
+        <v>0.7</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>0.008</v>
+        <v>0.28</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>0.008</v>
+        <v>0.23</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>0.15</v>
+        <v>5.9</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.00935</v>
+        <v>0.42</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>0.007</v>
+        <v>0.42</v>
       </c>
       <c r="O24" s="2" t="n">
         <f aca="false">Q24/L24</f>
-        <v>3565.06</v>
+        <v>22.1953188135593</v>
       </c>
       <c r="P24" s="2" t="n">
         <f aca="false">O24/9.81</f>
-        <v>363.410805300714</v>
+        <v>2.26251975673388</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>534.759</v>
+        <v>130.952381</v>
       </c>
       <c r="R24" s="1" t="n">
         <f aca="false">Q24*I24</f>
-        <v>9.625662</v>
+        <v>91.6666667</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0.4</v>
+        <v>8</v>
       </c>
       <c r="U24" s="1" t="n">
         <f aca="false">N24*I24/0.000001</f>
-        <v>126</v>
-      </c>
-      <c r="W24" s="1" t="n">
-        <v>2</v>
+        <v>294000</v>
+      </c>
+      <c r="X24" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AB24" s="1" t="n">
+        <v>3.5</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>173</v>
+        <v>4.3</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>1.25</v>
+        <v>0.146</v>
       </c>
       <c r="N25" s="1" t="n">
-        <f aca="false">M25</f>
-        <v>1.25</v>
+        <v>0.024</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <f aca="false">Q25/L25</f>
+        <v>37.88</v>
+      </c>
+      <c r="P25" s="2" t="n">
+        <f aca="false">O25/9.81</f>
+        <v>3.86136595310907</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>162.884</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <f aca="false">Q25*I25</f>
+        <v>146.5956</v>
       </c>
       <c r="S25" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="T25" s="1" t="n">
+        <v>0.15</v>
+      </c>
       <c r="U25" s="1" t="n">
         <f aca="false">N25*I25/0.000001</f>
-        <v>3000000</v>
-      </c>
-      <c r="W25" s="1" t="n">
-        <v>75</v>
+        <v>21600</v>
+      </c>
+      <c r="V25" s="1" t="n">
+        <f aca="false">(4*PI()*S25*T25*I25^2)/0.000001</f>
+        <v>1526814.02964464</v>
       </c>
       <c r="X25" s="1" t="n">
-        <f aca="false">3.2*I25</f>
-        <v>7.68</v>
-      </c>
-      <c r="Y25" s="1" t="n">
-        <v>10</v>
+        <v>0.6</v>
+      </c>
+      <c r="AA25" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB25" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC25" s="1" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD25" s="1" t="n">
+        <v>0.01</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="F26" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0.13</v>
+        <v>0.018</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>0.035</v>
+        <v>0.008</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0.045</v>
+        <v>0.008</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.0085</v>
+        <v>0.15</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.0078</v>
+        <v>0.00935</v>
       </c>
       <c r="N26" s="1" t="n">
-        <f aca="false">M26</f>
-        <v>0.0078</v>
+        <v>0.007</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <f aca="false">Q26/L26</f>
+        <v>3565.06</v>
+      </c>
+      <c r="P26" s="2" t="n">
+        <f aca="false">O26/9.81</f>
+        <v>363.410805300714</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>534.759</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <f aca="false">Q26*I26</f>
+        <v>9.625662</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="U26" s="1" t="n">
         <f aca="false">N26*I26/0.000001</f>
-        <v>1014</v>
-      </c>
-      <c r="Z26" s="1" t="n">
-        <v>0.25</v>
+        <v>126</v>
+      </c>
+      <c r="W26" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>0.215</v>
+        <v>1.6</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>3.1</v>
+        <v>14.4</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.68</v>
+        <v>0.1</v>
       </c>
       <c r="N27" s="1" t="n">
-        <f aca="false">M27</f>
-        <v>0.68</v>
+        <v>0.075</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <f aca="false">Q27/L27</f>
+        <v>64.8145833333333</v>
+      </c>
+      <c r="P27" s="2" t="n">
+        <f aca="false">O27/9.81</f>
+        <v>6.6069911654774</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>933.33</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <f aca="false">Q27*I27</f>
+        <v>1493.328</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>2.5</v>
+        <v>2.093</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>0.18198</v>
+        <v>0.125</v>
       </c>
       <c r="U27" s="1" t="n">
         <f aca="false">N27*I27/0.000001</f>
-        <v>340000</v>
+        <v>120000</v>
       </c>
       <c r="V27" s="1" t="n">
         <f aca="false">(4*PI()*S27*T27*I27^2)/0.000001</f>
-        <v>1429267.57775068</v>
-      </c>
-      <c r="X27" s="1" t="n">
-        <f aca="false">0.52*I27</f>
-        <v>0.26</v>
-      </c>
-      <c r="Z27" s="1" t="n">
-        <v>0.5</v>
+        <v>8416452.3826732</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F28" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.09</v>
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>173</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.87</v>
+        <v>1.25</v>
       </c>
       <c r="N28" s="1" t="n">
         <f aca="false">M28</f>
-        <v>0.87</v>
+        <v>1.25</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="U28" s="1" t="n">
         <f aca="false">N28*I28/0.000001</f>
-        <v>1131000</v>
+        <v>3000000</v>
+      </c>
+      <c r="W28" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="X28" s="1" t="n">
+        <f aca="false">3.2*I28</f>
+        <v>7.68</v>
+      </c>
+      <c r="Y28" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>282</v>
+        <v>380</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0.066</v>
+        <v>0.035</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0.12</v>
+        <v>0.045</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>0.46</v>
+        <v>0.0085</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>1.38</v>
+        <v>0.0078</v>
       </c>
       <c r="N29" s="1" t="n">
         <f aca="false">M29</f>
-        <v>1.38</v>
+        <v>0.0078</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U29" s="1" t="n">
         <f aca="false">N29*I29/0.000001</f>
-        <v>207000</v>
+        <v>1014</v>
+      </c>
+      <c r="Z29" s="1" t="n">
+        <v>0.25</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0.304</v>
+        <v>0.5</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.0742</v>
+        <v>0.076</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0.088</v>
+        <v>0.215</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>1.196</v>
+        <v>3.1</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.19</v>
+        <v>0.68</v>
       </c>
       <c r="N30" s="1" t="n">
         <f aca="false">M30</f>
-        <v>0.19</v>
+        <v>0.68</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>0.0784</v>
+        <v>0.18198</v>
       </c>
       <c r="U30" s="1" t="n">
         <f aca="false">N30*I30/0.000001</f>
-        <v>57760</v>
+        <v>340000</v>
       </c>
       <c r="V30" s="1" t="n">
         <f aca="false">(4*PI()*S30*T30*I30^2)/0.000001</f>
-        <v>409718.531722567</v>
+        <v>1429267.57775068</v>
+      </c>
+      <c r="X30" s="1" t="n">
+        <f aca="false">0.52*I30</f>
+        <v>0.26</v>
+      </c>
+      <c r="Z30" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>402</v>
+        <v>330</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.42</v>
+        <v>1.3</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>0.09</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.2982</v>
+        <v>0.87</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>0.2982</v>
+        <f aca="false">M31</f>
+        <v>0.87</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T31" s="1" t="n">
-        <v>0.22</v>
+        <v>1.25</v>
       </c>
       <c r="U31" s="1" t="n">
         <f aca="false">N31*I31/0.000001</f>
-        <v>125244</v>
-      </c>
-      <c r="V31" s="1" t="n">
-        <f aca="false">(4*PI()*S31*T31*I31^2)/0.000001</f>
-        <v>731513.566203076</v>
+        <v>1131000</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>3</v>
@@ -10788,33 +10790,30 @@
         <v>0</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>1.05</v>
+        <v>0.15</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>0.22</v>
+        <v>0.066</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>26.2</v>
+        <v>0.46</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0.65</v>
+        <v>1.38</v>
       </c>
       <c r="N32" s="1" t="n">
         <f aca="false">M32</f>
-        <v>0.65</v>
+        <v>1.38</v>
       </c>
       <c r="S32" s="1" t="n">
         <v>2</v>
       </c>
       <c r="U32" s="1" t="n">
         <f aca="false">N32*I32/0.000001</f>
-        <v>682500</v>
-      </c>
-      <c r="X32" s="1" t="n">
-        <v>1</v>
+        <v>207000</v>
       </c>
       <c r="AE32" s="1" t="s">
         <v>405</v>
@@ -10825,16 +10824,16 @@
         <v>406</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>1</v>
@@ -10843,560 +10842,547 @@
         <v>1</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>0.223</v>
+        <v>0.304</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>0.0057</v>
+        <v>0.0742</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0.088</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>0.29</v>
+        <v>1.196</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="N33" s="1" t="n">
         <f aca="false">M33</f>
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>0.089686</v>
+        <v>0.0784</v>
       </c>
       <c r="U33" s="1" t="n">
         <f aca="false">N33*I33/0.000001</f>
-        <v>4460</v>
+        <v>57760</v>
       </c>
       <c r="V33" s="1" t="n">
         <f aca="false">(4*PI()*S33*T33*I33^2)/0.000001</f>
-        <v>56045.9512894277</v>
+        <v>409718.531722567</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J34" s="1" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="K34" s="1" t="n">
-        <v>0.086</v>
-      </c>
-      <c r="L34" s="1" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0.174</v>
+        <v>0.2982</v>
       </c>
       <c r="N34" s="1" t="n">
-        <f aca="false">M34</f>
-        <v>0.174</v>
+        <v>0.2982</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>30</v>
+        <v>1.5</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>0.0471</v>
+        <v>0.22</v>
       </c>
       <c r="U34" s="1" t="n">
         <f aca="false">N34*I34/0.000001</f>
-        <v>52200</v>
+        <v>125244</v>
       </c>
       <c r="V34" s="1" t="n">
         <f aca="false">(4*PI()*S34*T34*I34^2)/0.000001</f>
-        <v>1598065.35102806</v>
-      </c>
-      <c r="W34" s="1" t="n">
-        <v>7.5</v>
+        <v>731513.566203076</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0.25</v>
+        <v>1.05</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>0.062</v>
+        <v>0.22</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.367</v>
+        <v>26.2</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="N35" s="1" t="n">
         <f aca="false">M35</f>
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T35" s="1" t="n">
-        <v>0.176</v>
+        <v>2</v>
       </c>
       <c r="U35" s="1" t="n">
         <f aca="false">N35*I35/0.000001</f>
-        <v>175000</v>
-      </c>
-      <c r="V35" s="1" t="n">
-        <f aca="false">(4*PI()*S35*T35*I35^2)/0.000001</f>
-        <v>912318.506602476</v>
+        <v>682500</v>
+      </c>
+      <c r="X35" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.32</v>
+        <v>0.223</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="K36" s="1" t="n">
-        <v>0.112</v>
+        <v>0.0057</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0.835</v>
+        <v>0.29</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>3.7</v>
+        <v>0.02</v>
       </c>
       <c r="N36" s="1" t="n">
         <f aca="false">M36</f>
-        <v>3.7</v>
+        <v>0.02</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>0.196875</v>
+        <v>0.089686</v>
       </c>
       <c r="U36" s="1" t="n">
         <f aca="false">N36*I36/0.000001</f>
-        <v>1184000</v>
+        <v>4460</v>
       </c>
       <c r="V36" s="1" t="n">
         <f aca="false">(4*PI()*S36*T36*I36^2)/0.000001</f>
-        <v>5066760.63170962</v>
+        <v>56045.9512894277</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>292</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0.77</v>
+        <v>0.3</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>0.45</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>0.249</v>
+        <v>0.174</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>0.222</v>
+        <f aca="false">M37</f>
+        <v>0.174</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="T37" s="1" t="n">
-        <v>0.661</v>
+        <v>0.0471</v>
       </c>
       <c r="U37" s="1" t="n">
         <f aca="false">N37*I37/0.000001</f>
-        <v>170940</v>
+        <v>52200</v>
       </c>
       <c r="V37" s="1" t="n">
         <f aca="false">(4*PI()*S37*T37*I37^2)/0.000001</f>
-        <v>4924847.3517246</v>
+        <v>1598065.35102806</v>
+      </c>
+      <c r="W37" s="1" t="n">
+        <v>7.5</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>416</v>
+        <v>285</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>390</v>
+        <v>286</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>1.1</v>
+        <v>0.25</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>0.367</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q38" s="1" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="R38" s="1" t="n">
-        <f aca="false">Q38*I38</f>
-        <v>21.56</v>
+        <f aca="false">M38</f>
+        <v>0.7</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>1</v>
+        <v>6.6</v>
+      </c>
+      <c r="T38" s="1" t="n">
+        <v>0.176</v>
       </c>
       <c r="U38" s="1" t="n">
         <f aca="false">N38*I38/0.000001</f>
-        <v>561000</v>
-      </c>
-      <c r="AB38" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AC38" s="1" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AD38" s="1" t="n">
-        <v>6.5</v>
+        <v>175000</v>
+      </c>
+      <c r="V38" s="1" t="n">
+        <f aca="false">(4*PI()*S38*T38*I38^2)/0.000001</f>
+        <v>912318.506602476</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>421</v>
+        <v>285</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>422</v>
+        <v>286</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.08</v>
+        <v>0.048</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0.15</v>
+        <v>0.112</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>0.835</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>0.161</v>
+        <v>3.7</v>
       </c>
       <c r="N39" s="1" t="n">
         <f aca="false">M39</f>
-        <v>0.161</v>
+        <v>3.7</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>0.105</v>
+        <v>0.196875</v>
       </c>
       <c r="U39" s="1" t="n">
         <f aca="false">N39*I39/0.000001</f>
-        <v>35420</v>
+        <v>1184000</v>
       </c>
       <c r="V39" s="1" t="n">
         <f aca="false">(4*PI()*S39*T39*I39^2)/0.000001</f>
-        <v>63862.2954621733</v>
+        <v>5066760.63170962</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>425</v>
+        <v>329</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>426</v>
+        <v>330</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>427</v>
+        <v>287</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L40" s="1" t="n">
-        <v>0.001</v>
+        <v>0.77</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>0.222</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="T40" s="1" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="U40" s="1" t="n">
+        <f aca="false">N40*I40/0.000001</f>
+        <v>170940</v>
+      </c>
+      <c r="V40" s="1" t="n">
+        <f aca="false">(4*PI()*S40*T40*I40^2)/0.000001</f>
+        <v>4924847.3517246</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0.7</v>
+        <v>0.22</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0.32</v>
+        <v>0.08</v>
       </c>
       <c r="K41" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="L41" s="1" t="n">
-        <v>4.995</v>
-      </c>
       <c r="M41" s="1" t="n">
-        <v>0.45</v>
+        <v>0.161</v>
       </c>
       <c r="N41" s="1" t="n">
         <f aca="false">M41</f>
-        <v>0.45</v>
+        <v>0.161</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>1.65</v>
+        <v>1</v>
       </c>
       <c r="T41" s="1" t="n">
-        <v>0.082</v>
+        <v>0.105</v>
       </c>
       <c r="U41" s="1" t="n">
         <f aca="false">N41*I41/0.000001</f>
-        <v>315000</v>
+        <v>35420</v>
       </c>
       <c r="V41" s="1" t="n">
         <f aca="false">(4*PI()*S41*T41*I41^2)/0.000001</f>
-        <v>833112.67262017</v>
-      </c>
-      <c r="X41" s="1" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z41" s="1" t="n">
-        <v>1</v>
+        <v>63862.2954621733</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K42" s="1" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M42" s="1" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="N42" s="1" t="n">
-        <f aca="false">M42</f>
-        <v>0.104</v>
+        <v>0.02</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>0.001</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T42" s="1" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="U42" s="1" t="n">
-        <f aca="false">N42*I42/0.000001</f>
-        <v>17680</v>
-      </c>
-      <c r="V42" s="1" t="n">
-        <f aca="false">(4*PI()*S42*T42*I42^2)/0.000001</f>
-        <v>145267.244301992</v>
+        <v>5</v>
       </c>
       <c r="AE42" s="1" t="s">
         <v>435</v>
@@ -11410,65 +11396,72 @@
         <v>437</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>438</v>
+        <v>349</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>0.057</v>
+        <v>0.7</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0.007</v>
+        <v>0.15</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>0.00145</v>
+        <v>4.995</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>0.007</v>
+        <v>0.45</v>
       </c>
       <c r="N43" s="1" t="n">
-        <v>0.0045</v>
+        <f aca="false">M43</f>
+        <v>0.45</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>9</v>
+        <v>1.65</v>
       </c>
       <c r="T43" s="1" t="n">
-        <v>0.00877</v>
+        <v>0.082</v>
       </c>
       <c r="U43" s="1" t="n">
         <f aca="false">N43*I43/0.000001</f>
-        <v>256.5</v>
+        <v>315000</v>
       </c>
       <c r="V43" s="1" t="n">
         <f aca="false">(4*PI()*S43*T43*I43^2)/0.000001</f>
-        <v>3222.56494228936</v>
+        <v>833112.67262017</v>
+      </c>
+      <c r="X43" s="1" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z43" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>441</v>
@@ -11477,52 +11470,43 @@
         <v>281</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J44" s="1" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L44" s="1" t="n">
-        <v>200</v>
+        <v>0.06</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>0.9</v>
+        <v>0.104</v>
       </c>
       <c r="N44" s="1" t="n">
         <f aca="false">M44</f>
-        <v>0.9</v>
+        <v>0.104</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="T44" s="1" t="n">
-        <v>0.11083</v>
+        <v>0.25</v>
       </c>
       <c r="U44" s="1" t="n">
         <f aca="false">N44*I44/0.000001</f>
-        <v>2160000</v>
+        <v>17680</v>
       </c>
       <c r="V44" s="1" t="n">
         <f aca="false">(4*PI()*S44*T44*I44^2)/0.000001</f>
-        <v>6417703.78071288</v>
-      </c>
-      <c r="W44" s="1" t="n">
-        <v>1.9</v>
+        <v>145267.244301992</v>
       </c>
       <c r="AE44" s="1" t="s">
         <v>442</v>
@@ -11542,42 +11526,48 @@
         <v>281</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>282</v>
+        <v>380</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>0.65</v>
+        <v>0.057</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.148</v>
+        <v>0.01</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>0.148</v>
+        <v>0.007</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>1.1</v>
+        <v>0.00145</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>0.4</v>
+        <v>0.007</v>
       </c>
       <c r="N45" s="1" t="n">
-        <f aca="false">M45</f>
-        <v>0.4</v>
+        <v>0.0045</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="T45" s="1" t="n">
+        <v>0.00877</v>
       </c>
       <c r="U45" s="1" t="n">
         <f aca="false">N45*I45/0.000001</f>
-        <v>260000</v>
+        <v>256.5</v>
+      </c>
+      <c r="V45" s="1" t="n">
+        <f aca="false">(4*PI()*S45*T45*I45^2)/0.000001</f>
+        <v>3222.56494228936</v>
       </c>
       <c r="AE45" s="1" t="s">
         <v>446</v>
@@ -11591,13 +11581,13 @@
         <v>444</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>2</v>
@@ -11606,53 +11596,66 @@
         <v>2</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>0.34</v>
+        <v>2.4</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>0.7</v>
       </c>
       <c r="L46" s="1" t="n">
-        <v>1.1</v>
+        <v>200</v>
       </c>
       <c r="M46" s="1" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="N46" s="1" t="n">
         <f aca="false">M46</f>
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
+      </c>
+      <c r="T46" s="1" t="n">
+        <v>0.11083</v>
       </c>
       <c r="U46" s="1" t="n">
         <f aca="false">N46*I46/0.000001</f>
-        <v>68000</v>
-      </c>
-      <c r="X46" s="1" t="n">
-        <v>0.0875</v>
+        <v>2160000</v>
+      </c>
+      <c r="V46" s="1" t="n">
+        <f aca="false">(4*PI()*S46*T46*I46^2)/0.000001</f>
+        <v>6417703.78071288</v>
+      </c>
+      <c r="W46" s="1" t="n">
+        <v>1.9</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>3</v>
@@ -11661,147 +11664,157 @@
         <v>0</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>0.27</v>
+        <v>0.148</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>0.28</v>
+        <v>0.148</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="N47" s="1" t="n">
         <f aca="false">M47</f>
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U47" s="1" t="n">
         <f aca="false">N47*I47/0.000001</f>
-        <v>174800</v>
-      </c>
-      <c r="X47" s="1" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AA47" s="1" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AB47" s="1" t="n">
-        <v>2.5</v>
+        <v>260000</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
+      </c>
+      <c r="L48" s="1" t="n">
+        <v>1.1</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
       <c r="N48" s="1" t="n">
         <f aca="false">M48</f>
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="U48" s="1" t="n">
         <f aca="false">N48*I48/0.000001</f>
-        <v>275600</v>
-      </c>
-      <c r="W48" s="1" t="n">
-        <v>75</v>
+        <v>68000</v>
+      </c>
+      <c r="X48" s="1" t="n">
+        <v>0.0875</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0.177</v>
+        <v>0.46</v>
+      </c>
+      <c r="J49" s="1" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>0.28</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>0.0674</v>
+        <v>2.2</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.028</v>
+        <v>0.38</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>0.028</v>
+        <f aca="false">M49</f>
+        <v>0.38</v>
       </c>
       <c r="S49" s="1" t="n">
         <v>2</v>
       </c>
       <c r="U49" s="1" t="n">
         <f aca="false">N49*I49/0.000001</f>
-        <v>4956</v>
+        <v>174800</v>
+      </c>
+      <c r="X49" s="1" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AA49" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB49" s="1" t="n">
+        <v>2.5</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>285</v>
+        <v>457</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>286</v>
@@ -11810,221 +11823,195 @@
         <v>281</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J50" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K50" s="1" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="L50" s="1" t="n">
-        <v>5.9</v>
+        <v>0.52</v>
       </c>
       <c r="M50" s="1" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>0.2</v>
+        <f aca="false">M50</f>
+        <v>0.53</v>
+      </c>
+      <c r="S50" s="1" t="n">
+        <v>1.9</v>
       </c>
       <c r="U50" s="1" t="n">
         <f aca="false">N50*I50/0.000001</f>
-        <v>160000</v>
-      </c>
-      <c r="Y50" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z50" s="1" t="n">
-        <v>12</v>
+        <v>275600</v>
+      </c>
+      <c r="W50" s="1" t="n">
+        <v>75</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1" t="n">
-        <v>0</v>
+        <v>0.177</v>
       </c>
       <c r="L51" s="1" t="n">
-        <v>0.0006</v>
+        <v>0.0674</v>
       </c>
       <c r="M51" s="1" t="n">
-        <v>0.008</v>
+        <v>0.028</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>0.008</v>
+        <v>0.028</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="U51" s="1" t="n">
         <f aca="false">N51*I51/0.000001</f>
-        <v>960</v>
+        <v>4956</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>466</v>
+        <v>306</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>467</v>
+        <v>307</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>0.096</v>
+        <v>0.8</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>0.024</v>
+        <v>0.3</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>0.025</v>
+        <v>0.39</v>
       </c>
       <c r="L52" s="1" t="n">
-        <v>0.0162</v>
+        <v>5.9</v>
       </c>
       <c r="M52" s="1" t="n">
-        <v>0.0236</v>
+        <v>0.6</v>
       </c>
       <c r="N52" s="1" t="n">
-        <v>0.0236</v>
-      </c>
-      <c r="S52" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="T52" s="1" t="n">
-        <v>0.013</v>
+        <v>0.2</v>
       </c>
       <c r="U52" s="1" t="n">
         <f aca="false">N52*I52/0.000001</f>
-        <v>2265.6</v>
-      </c>
-      <c r="V52" s="1" t="n">
-        <f aca="false">(4*PI()*S52*T52*I52^2)/0.000001</f>
-        <v>6022.20692226058</v>
+        <v>160000</v>
+      </c>
+      <c r="Y52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z52" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>470</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1" t="n">
-        <v>0.00215</v>
+        <v>0.0006</v>
       </c>
       <c r="M53" s="1" t="n">
-        <v>0.065</v>
+        <v>0.008</v>
       </c>
       <c r="N53" s="1" t="n">
-        <f aca="false">M53</f>
-        <v>0.065</v>
+        <v>0.008</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="T53" s="1" t="n">
-        <v>0.1558</v>
+        <v>0.4</v>
       </c>
       <c r="U53" s="1" t="n">
         <f aca="false">N53*I53/0.000001</f>
-        <v>2600</v>
-      </c>
-      <c r="V53" s="1" t="n">
-        <f aca="false">(4*PI()*S53*T53*I53^2)/0.000001</f>
-        <v>15662.7243337373</v>
+        <v>960</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>471</v>
@@ -12041,45 +12028,51 @@
         <v>474</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>282</v>
+        <v>380</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>0.15</v>
+        <v>0.096</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.092</v>
+        <v>0.024</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0.085</v>
+        <v>0.025</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>0.49</v>
+        <v>0.0162</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>0.0411</v>
+        <v>0.0236</v>
       </c>
       <c r="N54" s="1" t="n">
-        <f aca="false">M54</f>
-        <v>0.0411</v>
+        <v>0.0236</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0.8</v>
+        <v>4</v>
+      </c>
+      <c r="T54" s="1" t="n">
+        <v>0.013</v>
       </c>
       <c r="U54" s="1" t="n">
         <f aca="false">N54*I54/0.000001</f>
-        <v>6165</v>
+        <v>2265.6</v>
+      </c>
+      <c r="V54" s="1" t="n">
+        <f aca="false">(4*PI()*S54*T54*I54^2)/0.000001</f>
+        <v>6022.20692226058</v>
       </c>
       <c r="AE54" s="1" t="s">
         <v>475</v>
@@ -12090,57 +12083,58 @@
         <v>476</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F55" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" s="1" t="n">
-        <v>0.167</v>
+        <v>0.04</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.026</v>
+        <v>0.012</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0.048</v>
+        <v>0.011</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>0.07</v>
+        <v>0.00215</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>0.08</v>
+        <v>0.065</v>
       </c>
       <c r="N55" s="1" t="n">
-        <v>0.08</v>
+        <f aca="false">M55</f>
+        <v>0.065</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>0.1497</v>
+        <v>0.1558</v>
       </c>
       <c r="U55" s="1" t="n">
         <f aca="false">N55*I55/0.000001</f>
-        <v>13360</v>
+        <v>2600</v>
       </c>
       <c r="V55" s="1" t="n">
         <f aca="false">(4*PI()*S55*T55*I55^2)/0.000001</f>
-        <v>104928.774913121</v>
+        <v>15662.7243337373</v>
       </c>
       <c r="AE55" s="1" t="s">
         <v>478</v>
@@ -12157,46 +12151,45 @@
         <v>481</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F56" s="1" t="n">
         <v>3</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
+      </c>
+      <c r="J56" s="1" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>0.085</v>
       </c>
       <c r="L56" s="1" t="n">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="M56" s="1" t="n">
-        <v>0.37</v>
+        <v>0.0411</v>
       </c>
       <c r="N56" s="1" t="n">
         <f aca="false">M56</f>
-        <v>0.37</v>
+        <v>0.0411</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="T56" s="1" t="n">
-        <v>0.20977</v>
+        <v>0.8</v>
       </c>
       <c r="U56" s="1" t="n">
         <f aca="false">N56*I56/0.000001</f>
-        <v>92500</v>
-      </c>
-      <c r="V56" s="1" t="n">
-        <f aca="false">(4*PI()*S56*T56*I56^2)/0.000001</f>
-        <v>1318023.78188706</v>
+        <v>6165</v>
       </c>
       <c r="AE56" s="1" t="s">
         <v>482</v>
@@ -12210,102 +12203,110 @@
         <v>484</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>485</v>
+        <v>393</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H57" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>1.14</v>
+        <v>0.167</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>0.038</v>
+        <v>0.026</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>0.097</v>
+        <v>0.048</v>
+      </c>
+      <c r="L57" s="1" t="n">
+        <v>0.07</v>
       </c>
       <c r="M57" s="1" t="n">
-        <v>0.115</v>
+        <v>0.08</v>
       </c>
       <c r="N57" s="1" t="n">
-        <v>0.115</v>
+        <v>0.08</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0.55</v>
+        <v>2</v>
+      </c>
+      <c r="T57" s="1" t="n">
+        <v>0.1497</v>
       </c>
       <c r="U57" s="1" t="n">
         <f aca="false">N57*I57/0.000001</f>
-        <v>131100</v>
+        <v>13360</v>
+      </c>
+      <c r="V57" s="1" t="n">
+        <f aca="false">(4*PI()*S57*T57*I57^2)/0.000001</f>
+        <v>104928.774913121</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="J58" s="1" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="K58" s="1" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
+      </c>
+      <c r="L58" s="1" t="n">
+        <v>0.44</v>
       </c>
       <c r="M58" s="1" t="n">
-        <v>0.173</v>
+        <v>0.37</v>
       </c>
       <c r="N58" s="1" t="n">
-        <v>0.173</v>
+        <f aca="false">M58</f>
+        <v>0.37</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="T58" s="1" t="n">
-        <v>0.141</v>
+        <v>0.20977</v>
       </c>
       <c r="U58" s="1" t="n">
         <f aca="false">N58*I58/0.000001</f>
-        <v>55360</v>
+        <v>92500</v>
       </c>
       <c r="V58" s="1" t="n">
         <f aca="false">(4*PI()*S58*T58*I58^2)/0.000001</f>
-        <v>435451.885148072</v>
+        <v>1318023.78188706</v>
       </c>
       <c r="AE58" s="1" t="s">
         <v>489</v>
@@ -12319,65 +12320,64 @@
         <v>491</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>336</v>
+        <v>492</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H59" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="L59" s="1" t="n">
-        <v>1.256</v>
+        <v>1.14</v>
+      </c>
+      <c r="J59" s="1" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>0.097</v>
       </c>
       <c r="M59" s="1" t="n">
-        <v>0.335</v>
+        <v>0.115</v>
       </c>
       <c r="N59" s="1" t="n">
-        <f aca="false">M59</f>
-        <v>0.335</v>
+        <v>0.115</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="U59" s="1" t="n">
         <f aca="false">N59*I59/0.000001</f>
-        <v>165825</v>
-      </c>
-      <c r="W59" s="1" t="n">
-        <v>51.4</v>
+        <v>131100</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>495</v>
+        <v>412</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="F60" s="1" t="n">
         <v>1</v>
@@ -12389,37 +12389,33 @@
         <v>1</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>0.054</v>
+        <v>0.32</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>0.008</v>
+        <v>0.064</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="L60" s="1" t="n">
-        <v>0.72</v>
+        <v>0.1</v>
       </c>
       <c r="M60" s="1" t="n">
-        <v>0.00467</v>
+        <v>0.173</v>
       </c>
       <c r="N60" s="1" t="n">
-        <f aca="false">M60</f>
-        <v>0.00467</v>
+        <v>0.173</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="T60" s="1" t="n">
-        <v>0.001296</v>
+        <v>0.141</v>
       </c>
       <c r="U60" s="1" t="n">
         <f aca="false">N60*I60/0.000001</f>
-        <v>252.18</v>
+        <v>55360</v>
       </c>
       <c r="V60" s="1" t="n">
         <f aca="false">(4*PI()*S60*T60*I60^2)/0.000001</f>
-        <v>223.203110816914</v>
+        <v>435451.885148072</v>
       </c>
       <c r="AE60" s="1" t="s">
         <v>496</v>
@@ -12430,51 +12426,48 @@
         <v>497</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="J61" s="1" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K61" s="1" t="n">
-        <v>0.065</v>
+        <v>0.495</v>
       </c>
       <c r="L61" s="1" t="n">
-        <v>0.16565</v>
+        <v>1.256</v>
       </c>
       <c r="M61" s="1" t="n">
-        <v>0.0075</v>
+        <v>0.335</v>
       </c>
       <c r="N61" s="1" t="n">
         <f aca="false">M61</f>
-        <v>0.0075</v>
+        <v>0.335</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="U61" s="1" t="n">
         <f aca="false">N61*I61/0.000001</f>
-        <v>1485</v>
+        <v>165825</v>
+      </c>
+      <c r="W61" s="1" t="n">
+        <v>51.4</v>
       </c>
       <c r="AE61" s="1" t="s">
         <v>499</v>
@@ -12491,31 +12484,52 @@
         <v>502</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>0.545</v>
+        <v>0.054</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>0.008</v>
       </c>
       <c r="L62" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA62" s="1" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB62" s="1" t="n">
-        <v>2.1</v>
+        <v>0.72</v>
+      </c>
+      <c r="M62" s="1" t="n">
+        <v>0.00467</v>
+      </c>
+      <c r="N62" s="1" t="n">
+        <f aca="false">M62</f>
+        <v>0.00467</v>
+      </c>
+      <c r="S62" s="1" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T62" s="1" t="n">
+        <v>0.001296</v>
+      </c>
+      <c r="U62" s="1" t="n">
+        <f aca="false">N62*I62/0.000001</f>
+        <v>252.18</v>
+      </c>
+      <c r="V62" s="1" t="n">
+        <f aca="false">(4*PI()*S62*T62*I62^2)/0.000001</f>
+        <v>223.203110816914</v>
       </c>
       <c r="AE62" s="1" t="s">
         <v>503</v>
@@ -12526,365 +12540,337 @@
         <v>504</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>0.7</v>
+        <v>0.198</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>0.065</v>
       </c>
       <c r="L63" s="1" t="n">
-        <v>7.426</v>
+        <v>0.16565</v>
       </c>
       <c r="M63" s="1" t="n">
-        <v>0.29</v>
+        <v>0.0075</v>
       </c>
       <c r="N63" s="1" t="n">
         <f aca="false">M63</f>
-        <v>0.29</v>
+        <v>0.0075</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T63" s="1" t="n">
-        <v>0.0836</v>
+        <v>0.27</v>
       </c>
       <c r="U63" s="1" t="n">
         <f aca="false">N63*I63/0.000001</f>
-        <v>203000</v>
-      </c>
-      <c r="V63" s="1" t="n">
-        <f aca="false">(4*PI()*S63*T63*I63^2)/0.000001</f>
-        <v>772153.208769914</v>
+        <v>1485</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA64" s="1" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB64" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AE64" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="F64" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" s="1" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="J64" s="1" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K64" s="1" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L64" s="1" t="n">
-        <v>0.0162</v>
-      </c>
-      <c r="M64" s="1" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="N64" s="1" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="S64" s="1" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="U64" s="1" t="n">
-        <f aca="false">N64*I64/0.000001</f>
-        <v>4125</v>
-      </c>
-      <c r="W64" s="1" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AE64" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>0.158</v>
-      </c>
-      <c r="K65" s="1" t="n">
-        <v>0.064</v>
+        <v>0.7</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>7.426</v>
       </c>
       <c r="M65" s="1" t="n">
-        <v>0.792</v>
+        <v>0.29</v>
       </c>
       <c r="N65" s="1" t="n">
-        <v>0.792</v>
+        <f aca="false">M65</f>
+        <v>0.29</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>25</v>
+        <v>1.5</v>
+      </c>
+      <c r="T65" s="1" t="n">
+        <v>0.0836</v>
       </c>
       <c r="U65" s="1" t="n">
         <f aca="false">N65*I65/0.000001</f>
-        <v>125136</v>
+        <v>203000</v>
+      </c>
+      <c r="V65" s="1" t="n">
+        <f aca="false">(4*PI()*S65*T65*I65^2)/0.000001</f>
+        <v>772153.208769914</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>427</v>
+        <v>518</v>
       </c>
       <c r="F66" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="J66" s="1" t="n">
         <v>0.02</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>0.045</v>
+        <v>0.02</v>
       </c>
       <c r="L66" s="1" t="n">
-        <v>0.01498</v>
+        <v>0.0162</v>
       </c>
       <c r="M66" s="1" t="n">
-        <v>0.325</v>
+        <v>0.033</v>
       </c>
       <c r="N66" s="1" t="n">
-        <v>0.225</v>
+        <v>0.033</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="T66" s="1" t="n">
-        <v>0.1454</v>
+        <v>0.75</v>
       </c>
       <c r="U66" s="1" t="n">
         <f aca="false">N66*I66/0.000001</f>
-        <v>24750</v>
-      </c>
-      <c r="V66" s="1" t="n">
-        <f aca="false">(4*PI()*S66*T66*I66^2)/0.000001</f>
-        <v>508495.924963333</v>
+        <v>4125</v>
+      </c>
+      <c r="W66" s="1" t="n">
+        <v>0.15</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J67" s="1" t="n">
-        <v>0.12</v>
+        <v>0.158</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L67" s="1" t="n">
-        <v>1.4</v>
+        <v>0.064</v>
       </c>
       <c r="M67" s="1" t="n">
-        <v>0.7</v>
+        <v>0.792</v>
       </c>
       <c r="N67" s="1" t="n">
-        <f aca="false">M67</f>
-        <v>0.7</v>
+        <v>0.792</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>3.5</v>
+        <v>25</v>
       </c>
       <c r="U67" s="1" t="n">
         <f aca="false">N67*I67/0.000001</f>
-        <v>420000</v>
-      </c>
-      <c r="Z67" s="1" t="n">
-        <v>0.25</v>
+        <v>125136</v>
       </c>
       <c r="AE67" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>282</v>
+        <v>434</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>2.285</v>
+        <v>0.11</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>0.242</v>
+        <v>0.02</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>0.509</v>
+        <v>0.045</v>
       </c>
       <c r="L68" s="1" t="n">
-        <v>55</v>
+        <v>0.01498</v>
       </c>
       <c r="M68" s="1" t="n">
-        <v>1.5</v>
+        <v>0.325</v>
       </c>
       <c r="N68" s="1" t="n">
-        <v>1.5</v>
+        <v>0.225</v>
+      </c>
+      <c r="S68" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="T68" s="1" t="n">
-        <v>0.075</v>
+        <v>0.1454</v>
       </c>
       <c r="U68" s="1" t="n">
         <f aca="false">N68*I68/0.000001</f>
-        <v>3427500</v>
-      </c>
-      <c r="W68" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="X68" s="1" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y68" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z68" s="1" t="n">
-        <v>6</v>
+        <v>24750</v>
+      </c>
+      <c r="V68" s="1" t="n">
+        <f aca="false">(4*PI()*S68*T68*I68^2)/0.000001</f>
+        <v>508495.924963333</v>
       </c>
       <c r="AE68" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>2</v>
@@ -12893,108 +12879,122 @@
         <v>0</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>0.5428</v>
+        <v>0.6</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>0.1143</v>
+        <v>0.12</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>0.127</v>
+        <v>0.2</v>
       </c>
       <c r="L69" s="1" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="M69" s="1" t="n">
-        <v>0.597</v>
+        <v>0.7</v>
       </c>
       <c r="N69" s="1" t="n">
         <f aca="false">M69</f>
-        <v>0.597</v>
+        <v>0.7</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T69" s="1" t="n">
-        <v>0.11647</v>
+        <v>3.5</v>
       </c>
       <c r="U69" s="1" t="n">
         <f aca="false">N69*I69/0.000001</f>
-        <v>324051.6</v>
-      </c>
-      <c r="V69" s="1" t="n">
-        <f aca="false">(4*PI()*S69*T69*I69^2)/0.000001</f>
-        <v>819326.908765552</v>
+        <v>420000</v>
+      </c>
+      <c r="Z69" s="1" t="n">
+        <v>0.25</v>
       </c>
       <c r="AE69" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>533</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>0.255</v>
+        <v>2.285</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>0.045</v>
+        <v>0.242</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="S70" s="1" t="n">
-        <v>1.7</v>
+        <v>0.509</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="M70" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N70" s="1" t="n">
+        <v>1.5</v>
       </c>
       <c r="T70" s="1" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="V70" s="1" t="n">
-        <f aca="false">(4*PI()*S70*T70*I70^2)/0.000001</f>
-        <v>152802.982600158</v>
+        <v>0.075</v>
+      </c>
+      <c r="U70" s="1" t="n">
+        <f aca="false">N70*I70/0.000001</f>
+        <v>3427500</v>
+      </c>
+      <c r="W70" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="X70" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y70" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z70" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>398</v>
+        <v>536</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>427</v>
+        <v>308</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>2</v>
@@ -13003,212 +13003,203 @@
         <v>0</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5428</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>0.15</v>
+        <v>0.1143</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>0.04</v>
+        <v>0.127</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="M71" s="1" t="n">
-        <v>0.032</v>
+        <v>0.597</v>
       </c>
       <c r="N71" s="1" t="n">
-        <v>0.032</v>
+        <f aca="false">M71</f>
+        <v>0.597</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="T71" s="1" t="n">
-        <v>0.001</v>
+        <v>0.11647</v>
       </c>
       <c r="U71" s="1" t="n">
         <f aca="false">N71*I71/0.000001</f>
-        <v>12800</v>
+        <v>324051.6</v>
       </c>
       <c r="V71" s="1" t="n">
         <f aca="false">(4*PI()*S71*T71*I71^2)/0.000001</f>
-        <v>2814.86701761645</v>
+        <v>819326.908765552</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T72" s="1" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="V72" s="1" t="n">
+        <f aca="false">(4*PI()*S72*T72*I72^2)/0.000001</f>
+        <v>152802.982600158</v>
+      </c>
+      <c r="AE72" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M73" s="1" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="N73" s="1" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="S73" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T73" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="U73" s="1" t="n">
+        <f aca="false">N73*I73/0.000001</f>
+        <v>12800</v>
+      </c>
+      <c r="V73" s="1" t="n">
+        <f aca="false">(4*PI()*S73*T73*I73^2)/0.000001</f>
+        <v>2814.86701761645</v>
+      </c>
+      <c r="AE73" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F72" s="1" t="n">
+      <c r="D74" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F74" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G72" s="1" t="n">
+      <c r="G74" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H72" s="1" t="n">
+      <c r="H74" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I72" s="1" t="n">
+      <c r="I74" s="1" t="n">
         <v>0.72</v>
       </c>
-      <c r="J72" s="1" t="n">
+      <c r="J74" s="1" t="n">
         <v>0.056</v>
       </c>
-      <c r="K72" s="1" t="n">
+      <c r="K74" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="L72" s="1" t="n">
-        <f aca="false">ROUND(1000*I72*J72*K72,2)</f>
+      <c r="L74" s="1" t="n">
+        <f aca="false">ROUND(1000*I74*J74*K74,2)</f>
         <v>2.54</v>
       </c>
-      <c r="M72" s="1" t="n">
+      <c r="M74" s="1" t="n">
         <v>0.115</v>
       </c>
-      <c r="N72" s="1" t="n">
-        <f aca="false">M72</f>
+      <c r="N74" s="1" t="n">
+        <f aca="false">M74</f>
         <v>0.115</v>
       </c>
-      <c r="S72" s="1" t="n">
+      <c r="S74" s="1" t="n">
         <f aca="false">ROUND(DEGREES(9.5)/360,2)</f>
         <v>1.51</v>
       </c>
-      <c r="U72" s="1" t="n">
-        <f aca="false">N72*I72/0.000001</f>
-        <v>82800</v>
-      </c>
-      <c r="X72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE72" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F73" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" s="1" t="n">
-        <v>0.337</v>
-      </c>
-      <c r="M73" s="1" t="n">
-        <v>0.157</v>
-      </c>
-      <c r="N73" s="1" t="n">
-        <f aca="false">M73</f>
-        <v>0.157</v>
-      </c>
-      <c r="S73" s="1" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="T73" s="1" t="n">
-        <v>0.10654</v>
-      </c>
-      <c r="U73" s="1" t="n">
-        <f aca="false">N73*I73/0.000001</f>
-        <v>52909</v>
-      </c>
-      <c r="V73" s="1" t="n">
-        <f aca="false">(4*PI()*S73*T73*I73^2)/0.000001</f>
-        <v>475151.801168599</v>
-      </c>
-      <c r="AA73" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB73" s="1" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AE73" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F74" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G74" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" s="1" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="J74" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K74" s="1" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="L74" s="1" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M74" s="1" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="N74" s="1" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="S74" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="U74" s="1" t="n">
         <f aca="false">N74*I74/0.000001</f>
-        <v>63020</v>
-      </c>
-      <c r="AA74" s="1" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB74" s="1" t="n">
-        <v>2.2</v>
+        <v>82800</v>
+      </c>
+      <c r="X74" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AE74" s="1" t="s">
         <v>546</v>
@@ -13222,71 +13213,75 @@
         <v>548</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H75" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J75" s="1" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="K75" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L75" s="1" t="n">
-        <v>1.79</v>
+        <v>0.337</v>
       </c>
       <c r="M75" s="1" t="n">
-        <v>0.1296</v>
+        <v>0.157</v>
       </c>
       <c r="N75" s="1" t="n">
         <f aca="false">M75</f>
-        <v>0.1296</v>
+        <v>0.157</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>2</v>
+        <v>3.125</v>
+      </c>
+      <c r="T75" s="1" t="n">
+        <v>0.10654</v>
       </c>
       <c r="U75" s="1" t="n">
         <f aca="false">N75*I75/0.000001</f>
-        <v>77760</v>
+        <v>52909</v>
+      </c>
+      <c r="V75" s="1" t="n">
+        <f aca="false">(4*PI()*S75*T75*I75^2)/0.000001</f>
+        <v>475151.801168599</v>
+      </c>
+      <c r="AA75" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB75" s="1" t="n">
+        <v>2.75</v>
       </c>
       <c r="AE75" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>553</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>4</v>
@@ -13295,338 +13290,359 @@
         <v>0</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>0.07784</v>
+        <v>0.46</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>0.0487</v>
+        <v>0.1</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>0.03584</v>
+        <v>0.19</v>
       </c>
       <c r="L76" s="1" t="n">
-        <v>0.02561</v>
+        <v>1.17</v>
       </c>
       <c r="M76" s="1" t="n">
-        <v>0.02595</v>
+        <v>0.137</v>
       </c>
       <c r="N76" s="1" t="n">
-        <f aca="false">M76</f>
-        <v>0.02595</v>
+        <v>0.137</v>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="U76" s="1" t="n">
         <f aca="false">N76*I76/0.000001</f>
-        <v>2019.948</v>
-      </c>
-      <c r="W76" s="1" t="n">
-        <v>40</v>
+        <v>63020</v>
+      </c>
+      <c r="AA76" s="1" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB76" s="1" t="n">
+        <v>2.2</v>
       </c>
       <c r="AE76" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>292</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H77" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>0.074</v>
+        <v>0.1</v>
       </c>
       <c r="L77" s="1" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="M77" s="1" t="n">
-        <v>0.0195</v>
+        <v>0.1296</v>
       </c>
       <c r="N77" s="1" t="n">
         <f aca="false">M77</f>
-        <v>0.0195</v>
+        <v>0.1296</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U77" s="1" t="n">
         <f aca="false">N77*I77/0.000001</f>
-        <v>12675</v>
+        <v>77760</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="D78" s="1" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H78" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I78" s="1" t="n">
+        <v>0.07784</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>0.03584</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>0.02561</v>
+      </c>
       <c r="M78" s="1" t="n">
-        <v>0.3</v>
+        <v>0.02595</v>
       </c>
       <c r="N78" s="1" t="n">
         <f aca="false">M78</f>
-        <v>0.3</v>
-      </c>
-      <c r="S78" s="1" t="n">
-        <v>1.2</v>
+        <v>0.02595</v>
+      </c>
+      <c r="U78" s="1" t="n">
+        <f aca="false">N78*I78/0.000001</f>
+        <v>2019.948</v>
+      </c>
+      <c r="W78" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>565</v>
-      </c>
       <c r="D79" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>566</v>
+        <v>308</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H79" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>0.3</v>
+        <v>0.65</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>0.074</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>0.1</v>
+        <v>0.074</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>1.75</v>
       </c>
       <c r="M79" s="1" t="n">
-        <v>0.052</v>
+        <v>0.0195</v>
       </c>
       <c r="N79" s="1" t="n">
         <f aca="false">M79</f>
-        <v>0.052</v>
+        <v>0.0195</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T79" s="1" t="n">
-        <v>0.0043</v>
+        <v>3.5</v>
       </c>
       <c r="U79" s="1" t="n">
         <f aca="false">N79*I79/0.000001</f>
-        <v>15600</v>
-      </c>
-      <c r="V79" s="1" t="n">
-        <f aca="false">(4*PI()*S79*T79*I79^2)/0.000001</f>
-        <v>7635.20112157849</v>
+        <v>12675</v>
       </c>
       <c r="AE79" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="D80" s="1" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" s="1" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="J80" s="1" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="K80" s="1" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="L80" s="1" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="M80" s="1" t="n">
-        <v>2.57</v>
+        <v>0.3</v>
       </c>
       <c r="N80" s="1" t="n">
         <f aca="false">M80</f>
-        <v>2.57</v>
+        <v>0.3</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U80" s="1" t="n">
-        <f aca="false">N80*I80/0.000001</f>
-        <v>3906400</v>
-      </c>
-      <c r="X80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y80" s="1" t="n">
-        <v>91.4</v>
-      </c>
-      <c r="Z80" s="1" t="n">
-        <v>8</v>
+        <v>1.2</v>
       </c>
       <c r="AE80" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="D81" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F81" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H81" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J81" s="1" t="n">
-        <v>0.146</v>
+        <v>0.3</v>
       </c>
       <c r="K81" s="1" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="L81" s="1" t="n">
-        <v>4.7</v>
+        <v>0.1</v>
       </c>
       <c r="M81" s="1" t="n">
-        <v>1.5</v>
+        <v>0.052</v>
       </c>
       <c r="N81" s="1" t="n">
-        <v>1.5</v>
+        <f aca="false">M81</f>
+        <v>0.052</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T81" s="1" t="n">
+        <v>0.0043</v>
       </c>
       <c r="U81" s="1" t="n">
         <f aca="false">N81*I81/0.000001</f>
-        <v>750000</v>
+        <v>15600</v>
+      </c>
+      <c r="V81" s="1" t="n">
+        <f aca="false">(4*PI()*S81*T81*I81^2)/0.000001</f>
+        <v>7635.20112157849</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="D82" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>282</v>
+        <v>389</v>
       </c>
       <c r="F82" s="1" t="n">
         <v>3</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>0.45</v>
+        <v>1.52</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <v>40.8</v>
       </c>
       <c r="M82" s="1" t="n">
-        <v>0.378</v>
+        <v>2.57</v>
       </c>
       <c r="N82" s="1" t="n">
         <f aca="false">M82</f>
-        <v>0.378</v>
+        <v>2.57</v>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="U82" s="1" t="n">
         <f aca="false">N82*I82/0.000001</f>
-        <v>170100</v>
+        <v>3906400</v>
+      </c>
+      <c r="X82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y82" s="1" t="n">
+        <v>91.4</v>
+      </c>
+      <c r="Z82" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="AE82" s="1" t="s">
         <v>578</v>
@@ -13640,141 +13656,110 @@
         <v>580</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>336</v>
+        <v>581</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F83" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H83" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>0.56</v>
+        <v>0.5</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>0.24</v>
+        <v>0.146</v>
       </c>
       <c r="K83" s="1" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="L83" s="1" t="n">
-        <v>3.29</v>
+        <v>4.7</v>
       </c>
       <c r="M83" s="1" t="n">
-        <v>0.616</v>
+        <v>1.5</v>
       </c>
       <c r="N83" s="1" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="S83" s="1" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U83" s="1" t="n">
         <f aca="false">N83*I83/0.000001</f>
-        <v>344960</v>
-      </c>
-      <c r="X83" s="1" t="n">
-        <v>0.224</v>
-      </c>
-      <c r="Z83" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA83" s="1" t="n">
-        <v>7.4</v>
+        <v>750000</v>
       </c>
       <c r="AE83" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>582</v>
+        <v>458</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H84" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J84" s="1" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="K84" s="1" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="L84" s="1" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="M84" s="1" t="n">
-        <v>0.032</v>
+        <v>0.378</v>
       </c>
       <c r="N84" s="1" t="n">
         <f aca="false">M84</f>
-        <v>0.032</v>
-      </c>
-      <c r="S84" s="1" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T84" s="1" t="n">
-        <v>0.346</v>
+        <v>0.378</v>
       </c>
       <c r="U84" s="1" t="n">
         <f aca="false">N84*I84/0.000001</f>
-        <v>8320</v>
-      </c>
-      <c r="V84" s="1" t="n">
-        <f aca="false">(4*PI()*S84*T84*I84^2)/0.000001</f>
-        <v>94055.1622789169</v>
+        <v>170100</v>
       </c>
       <c r="AE84" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>587</v>
+        <v>349</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>4</v>
@@ -13783,30 +13768,38 @@
         <v>0</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>0.78</v>
+        <v>0.56</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="K85" s="1" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="L85" s="1" t="n">
-        <v>4.23</v>
+        <v>3.29</v>
       </c>
       <c r="M85" s="1" t="n">
-        <v>0.72</v>
+        <v>0.616</v>
       </c>
       <c r="N85" s="1" t="n">
-        <f aca="false">M85</f>
-        <v>0.72</v>
+        <v>0.616</v>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>1.4</v>
       </c>
       <c r="U85" s="1" t="n">
         <f aca="false">N85*I85/0.000001</f>
-        <v>561600</v>
+        <v>344960</v>
       </c>
       <c r="X85" s="1" t="n">
-        <v>0.37</v>
+        <v>0.224</v>
+      </c>
+      <c r="Z85" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA85" s="1" t="n">
+        <v>7.4</v>
       </c>
       <c r="AE85" s="1" t="s">
         <v>588</v>
@@ -13820,13 +13813,13 @@
         <v>590</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>390</v>
+        <v>589</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="F86" s="1" t="n">
         <v>1</v>
@@ -13835,35 +13828,40 @@
         <v>1</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
+      </c>
+      <c r="J86" s="1" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>0.115</v>
       </c>
       <c r="L86" s="1" t="n">
-        <v>0.0038</v>
+        <v>0.53</v>
       </c>
       <c r="M86" s="1" t="n">
-        <v>0.0372</v>
+        <v>0.032</v>
       </c>
       <c r="N86" s="1" t="n">
-        <v>0.0372</v>
-      </c>
-      <c r="Q86" s="1" t="n">
-        <v>24.731</v>
+        <f aca="false">M86</f>
+        <v>0.032</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>0.75</v>
+        <v>0.32</v>
       </c>
       <c r="T86" s="1" t="n">
-        <v>0.047</v>
+        <v>0.346</v>
       </c>
       <c r="U86" s="1" t="n">
         <f aca="false">N86*I86/0.000001</f>
-        <v>5580</v>
-      </c>
-      <c r="AD86" s="1" t="n">
-        <v>0.92</v>
+        <v>8320</v>
+      </c>
+      <c r="V86" s="1" t="n">
+        <f aca="false">(4*PI()*S86*T86*I86^2)/0.000001</f>
+        <v>94055.1622789169</v>
       </c>
       <c r="AE86" s="1" t="s">
         <v>591</v>
@@ -13883,29 +13881,42 @@
         <v>281</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>566</v>
+        <v>287</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H87" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S87" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T87" s="1" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="V87" s="1" t="n">
-        <f aca="false">(4*PI()*S87*T87*I87^2)/0.000001</f>
-        <v>351858.377202057</v>
+        <v>0.78</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L87" s="1" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="M87" s="1" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="N87" s="1" t="n">
+        <f aca="false">M87</f>
+        <v>0.72</v>
+      </c>
+      <c r="U87" s="1" t="n">
+        <f aca="false">N87*I87/0.000001</f>
+        <v>561600</v>
+      </c>
+      <c r="X87" s="1" t="n">
+        <v>0.37</v>
       </c>
       <c r="AE87" s="1" t="s">
         <v>595</v>
@@ -13919,113 +13930,100 @@
         <v>597</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>318</v>
+        <v>598</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>319</v>
+        <v>573</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I88" s="1" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="M88" s="1" t="n">
-        <v>0.2562</v>
-      </c>
-      <c r="N88" s="1" t="n">
-        <v>0.2562</v>
+        <v>1</v>
       </c>
       <c r="S88" s="1" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="U88" s="1" t="n">
-        <f aca="false">N88*I88/0.000001</f>
-        <v>78141</v>
+        <v>0.5</v>
+      </c>
+      <c r="T88" s="1" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="V88" s="1" t="n">
+        <f aca="false">(4*PI()*S88*T88*I88^2)/0.000001</f>
+        <v>351858.377202057</v>
       </c>
       <c r="AE88" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J89" s="1" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="K89" s="1" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="L89" s="1" t="n">
-        <v>0.295</v>
+        <v>0.305</v>
       </c>
       <c r="M89" s="1" t="n">
-        <v>0.0063</v>
+        <v>0.2562</v>
       </c>
       <c r="N89" s="1" t="n">
-        <f aca="false">M89</f>
-        <v>0.0063</v>
+        <v>0.2562</v>
       </c>
       <c r="S89" s="1" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="U89" s="1" t="n">
         <f aca="false">N89*I89/0.000001</f>
-        <v>1449</v>
+        <v>78141</v>
       </c>
       <c r="AE89" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>602</v>
-      </c>
       <c r="C90" s="1" t="s">
-        <v>603</v>
+        <v>404</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="F90" s="1" t="n">
         <v>1</v>
@@ -14037,30 +14035,30 @@
         <v>1</v>
       </c>
       <c r="I90" s="1" t="n">
-        <v>0.063</v>
+        <v>0.23</v>
       </c>
       <c r="J90" s="1" t="n">
-        <v>0.034</v>
+        <v>0.065</v>
       </c>
       <c r="K90" s="1" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
+      </c>
+      <c r="L90" s="1" t="n">
+        <v>0.295</v>
       </c>
       <c r="M90" s="1" t="n">
-        <v>0.02</v>
+        <v>0.0063</v>
       </c>
       <c r="N90" s="1" t="n">
         <f aca="false">M90</f>
-        <v>0.02</v>
+        <v>0.0063</v>
       </c>
       <c r="S90" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U90" s="1" t="n">
         <f aca="false">N90*I90/0.000001</f>
-        <v>1260</v>
-      </c>
-      <c r="X90" s="1" t="n">
-        <v>0.04</v>
+        <v>1449</v>
       </c>
       <c r="AE90" s="1" t="s">
         <v>604</v>
@@ -14074,96 +14072,96 @@
         <v>606</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>176</v>
+        <v>607</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="1" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="L91" s="1" t="n">
-        <v>2.49</v>
+        <v>0.063</v>
+      </c>
+      <c r="J91" s="1" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="K91" s="1" t="n">
+        <v>0.01</v>
       </c>
       <c r="M91" s="1" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="N91" s="1" t="n">
-        <v>0.15</v>
+        <f aca="false">M91</f>
+        <v>0.02</v>
       </c>
       <c r="S91" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U91" s="1" t="n">
         <f aca="false">N91*I91/0.000001</f>
-        <v>87000</v>
+        <v>1260</v>
+      </c>
+      <c r="X91" s="1" t="n">
+        <v>0.04</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>610</v>
+        <v>176</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F92" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I92" s="1" t="n">
-        <v>1.2</v>
+        <v>0.58</v>
+      </c>
+      <c r="L92" s="1" t="n">
+        <v>2.49</v>
       </c>
       <c r="M92" s="1" t="n">
-        <v>0.62</v>
+        <v>0.15</v>
       </c>
       <c r="N92" s="1" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Q92" s="1" t="n">
-        <v>19.3548</v>
-      </c>
-      <c r="R92" s="1" t="n">
-        <f aca="false">Q92*I92</f>
-        <v>23.22576</v>
+        <v>0.15</v>
       </c>
       <c r="S92" s="1" t="n">
         <v>1</v>
       </c>
       <c r="U92" s="1" t="n">
         <f aca="false">N92*I92/0.000001</f>
-        <v>744000</v>
-      </c>
-      <c r="AD92" s="1" t="n">
-        <v>10</v>
+        <v>87000</v>
       </c>
       <c r="AE92" s="1" t="s">
         <v>611</v>
@@ -14177,13 +14175,13 @@
         <v>613</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="F93" s="1" t="n">
         <v>1</v>
@@ -14248,13 +14246,13 @@
         <v>613</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F94" s="1" t="n">
         <v>3</v>
@@ -14291,7 +14289,7 @@
         <v>5</v>
       </c>
       <c r="AE94" s="1" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14305,10 +14303,10 @@
         <v>617</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="F95" s="1" t="n">
         <v>1</v>
@@ -14359,7 +14357,7 @@
         <v>281</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F96" s="1" t="n">
         <v>4</v>
@@ -14415,13 +14413,13 @@
         <v>623</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F97" s="1" t="n">
         <v>3</v>
@@ -14492,7 +14490,7 @@
         <v>281</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F98" s="1" t="n">
         <v>4</v>
@@ -14538,7 +14536,7 @@
         <v>281</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F99" s="1" t="n">
         <v>4</v>
@@ -14599,13 +14597,13 @@
         <v>633</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F100" s="1" t="n">
         <v>1</v>
@@ -14658,16 +14656,16 @@
         <v>635</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>636</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F101" s="1" t="n">
         <v>1</v>
@@ -14723,16 +14721,16 @@
         <v>638</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F102" s="1" t="n">
         <v>18</v>
@@ -14774,16 +14772,16 @@
         <v>640</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F103" s="1" t="n">
         <v>6</v>
@@ -14836,16 +14834,16 @@
         <v>642</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F104" s="1" t="n">
         <v>1</v>
@@ -14897,10 +14895,10 @@
         <v>630</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F105" s="1" t="n">
         <v>4</v>
@@ -14955,13 +14953,13 @@
         <v>648</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F106" s="1" t="n">
         <v>6</v>
@@ -15010,13 +15008,13 @@
         <v>650</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F107" s="1" t="n">
         <v>4</v>
@@ -15062,7 +15060,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AE21" r:id="rId1" display="https://doi.org/10.1126/scirobotics.aat1893"/>
+    <hyperlink ref="AE5" r:id="rId1" display="https://doi.org/10.1126/scirobotics.aat1893"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
@@ -15085,9 +15083,9 @@
   <dimension ref="A1:AD42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="S6" activeCellId="0" sqref="S6"/>
     </sheetView>
@@ -15220,7 +15218,7 @@
         <v>655</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F2" s="9" t="n">
         <v>2</v>
@@ -15278,10 +15276,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>590</v>
+        <v>334</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>657</v>
@@ -15290,7 +15288,7 @@
         <v>658</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="F3" s="9" t="n">
         <v>2</v>
@@ -15341,7 +15339,7 @@
       </c>
       <c r="Z3" s="11"/>
       <c r="AD3" s="9" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15349,10 +15347,10 @@
         <v>659</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>658</v>
@@ -15428,16 +15426,16 @@
         <v>662</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>658</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F5" s="9" t="n">
         <v>2</v>
@@ -15566,7 +15564,7 @@
         <v>658</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F7" s="9" t="n">
         <v>1</v>
@@ -15627,7 +15625,7 @@
         <v>658</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F8" s="9" t="n">
         <v>1</v>
@@ -15682,13 +15680,13 @@
         <v>669</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>658</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F9" s="9" t="n">
         <v>3</v>
@@ -15722,7 +15720,7 @@
       </c>
       <c r="Z9" s="11"/>
       <c r="AD9" s="9" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15733,13 +15731,13 @@
         <v>669</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>658</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F10" s="9" t="n">
         <v>3</v>
@@ -15783,7 +15781,7 @@
       </c>
       <c r="Z10" s="11"/>
       <c r="AD10" s="9" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15794,13 +15792,13 @@
         <v>677</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>658</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F11" s="9" t="n">
         <v>2</v>
@@ -15854,7 +15852,7 @@
         <v>658</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F12" s="9" t="n">
         <v>3</v>
@@ -15914,7 +15912,7 @@
         <v>658</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F13" s="9" t="n">
         <v>2</v>
@@ -15975,7 +15973,7 @@
         <v>658</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F14" s="9" t="n">
         <v>2</v>
@@ -16029,7 +16027,7 @@
         <v>655</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F15" s="9" t="n">
         <v>12</v>
@@ -16085,7 +16083,7 @@
         <v>655</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F16" s="9" t="n">
         <v>2</v>
@@ -16142,7 +16140,7 @@
         <v>655</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F17" s="9" t="n">
         <v>2</v>
@@ -16193,7 +16191,7 @@
         <v>655</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F18" s="9" t="n">
         <v>3</v>
@@ -16253,7 +16251,7 @@
         <v>655</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F19" s="9" t="n">
         <v>1</v>
@@ -16291,7 +16289,7 @@
         <v>703</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>704</v>
@@ -16300,7 +16298,7 @@
         <v>658</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="F20" s="9" t="n">
         <v>2</v>
@@ -16350,7 +16348,7 @@
         <v>706</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>707</v>
@@ -16359,7 +16357,7 @@
         <v>708</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F21" s="9" t="n">
         <v>16</v>
@@ -16416,7 +16414,7 @@
         <v>658</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F22" s="9" t="n">
         <v>2</v>
@@ -16468,16 +16466,16 @@
         <v>714</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>658</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F23" s="9" t="n">
         <v>6</v>
@@ -16525,16 +16523,16 @@
         <v>716</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>708</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F24" s="9" t="n">
         <v>8</v>
@@ -16590,16 +16588,16 @@
         <v>718</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>658</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F25" s="9" t="n">
         <v>2</v>
@@ -16714,7 +16712,7 @@
         <v>726</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F27" s="9" t="n">
         <v>16</v>
@@ -16766,7 +16764,7 @@
         <v>728</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>729</v>
@@ -16775,7 +16773,7 @@
         <v>708</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F28" s="9" t="n">
         <v>12</v>
@@ -16831,7 +16829,7 @@
         <v>726</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="F29" s="9" t="n">
         <v>4</v>
@@ -16885,7 +16883,7 @@
         <v>726</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F30" s="9" t="n">
         <v>34</v>
@@ -16946,7 +16944,7 @@
         <v>655</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F31" s="9" t="n">
         <v>4</v>
@@ -17006,7 +17004,7 @@
         <v>658</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F32" s="9" t="n">
         <v>4</v>
@@ -17051,7 +17049,7 @@
         <v>658</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F33" s="9" t="n">
         <v>2</v>
@@ -17112,7 +17110,7 @@
         <v>658</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F34" s="9" t="n">
         <v>16</v>
@@ -17167,13 +17165,13 @@
         <v>755</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>726</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F35" s="9" t="n">
         <v>3</v>
@@ -17230,7 +17228,7 @@
         <v>708</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F36" s="9" t="n">
         <v>6</v>
@@ -17274,13 +17272,13 @@
         <v>613</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>658</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="F37" s="9" t="n">
         <v>4</v>
@@ -17344,7 +17342,7 @@
         <v>655</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F38" s="9" t="n">
         <v>7</v>
@@ -17386,13 +17384,13 @@
         <v>626</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>658</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F39" s="9" t="n">
         <v>1</v>
@@ -17456,7 +17454,7 @@
         <v>658</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F40" s="9" t="n">
         <v>8</v>
@@ -17510,7 +17508,7 @@
         <v>658</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F41" s="9" t="n">
         <v>2</v>
@@ -17562,13 +17560,13 @@
         <v>776</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>658</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F42" s="9" t="n">
         <v>6</v>
@@ -17807,7 +17805,7 @@
         <v>780</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F2" s="9" t="n">
         <v>8</v>
@@ -17877,7 +17875,7 @@
         <v>780</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F3" s="9" t="n">
         <v>4</v>
@@ -17954,7 +17952,7 @@
         <v>780</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F4" s="9" t="n">
         <v>2</v>
@@ -18007,7 +18005,7 @@
         <v>780</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F5" s="9" t="n">
         <v>4</v>
@@ -18063,7 +18061,7 @@
         <v>780</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F6" s="9" t="n">
         <v>4</v>
@@ -18122,7 +18120,7 @@
         <v>780</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F7" s="9" t="n">
         <v>12</v>
@@ -18172,7 +18170,7 @@
         <v>780</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F8" s="9" t="n">
         <v>6</v>
@@ -18231,7 +18229,7 @@
         <v>780</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F9" s="9" t="n">
         <v>6</v>
@@ -18290,7 +18288,7 @@
         <v>780</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F10" s="9" t="n">
         <v>12</v>
@@ -18346,7 +18344,7 @@
         <v>780</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F11" s="9" t="n">
         <v>20</v>
@@ -18396,13 +18394,13 @@
         <v>773</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>780</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F12" s="9" t="n">
         <v>8</v>
@@ -18455,7 +18453,7 @@
         <v>780</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F13" s="9" t="n">
         <v>4</v>
@@ -18514,7 +18512,7 @@
         <v>780</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F14" s="9" t="n">
         <v>8</v>
@@ -18564,7 +18562,7 @@
         <v>780</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F15" s="9" t="n">
         <v>6</v>
@@ -18616,7 +18614,7 @@
         <v>780</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F16" s="9" t="n">
         <v>8</v>
@@ -18657,7 +18655,7 @@
         <v>829</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>830</v>
@@ -18666,7 +18664,7 @@
         <v>780</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="F17" s="9" t="n">
         <v>8</v>
@@ -18738,7 +18736,7 @@
       <selection pane="bottomRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.48"/>
@@ -18848,16 +18846,16 @@
         <v>833</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>834</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>8</v>
@@ -18923,7 +18921,7 @@
         <v>834</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -18989,7 +18987,7 @@
         <v>834</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -19041,7 +19039,7 @@
         <v>4.51</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19058,7 +19056,7 @@
         <v>834</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>

--- a/UUVDatabase.xlsx
+++ b/UUVDatabase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Propeller" sheetId="1" state="visible" r:id="rId2"/>
@@ -845,10 +845,10 @@
     <t xml:space="preserve">Sw</t>
   </si>
   <si>
-    <t xml:space="preserve">Yaw Speed [m/s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yaw Radius [m]</t>
+    <t xml:space="preserve">Max turn rate [deg/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min radius [m]</t>
   </si>
   <si>
     <t xml:space="preserve">Operating Voltage [V]</t>
@@ -3030,8 +3030,8 @@
     <tableColumn id="19" name="A [BL]"/>
     <tableColumn id="20" name="Re"/>
     <tableColumn id="21" name="Sw"/>
-    <tableColumn id="22" name="Yaw Speed [m/s]"/>
-    <tableColumn id="23" name="Yaw Radius [m]"/>
+    <tableColumn id="22" name="Max turn rate [deg/s]"/>
+    <tableColumn id="23" name="Min radius [m]"/>
     <tableColumn id="24" name="Max Depth [m]"/>
     <tableColumn id="25" name="Endurance [hr]"/>
     <tableColumn id="26" name="Operating Voltage [V]"/>
@@ -8429,11 +8429,11 @@
   <dimension ref="A1:AE107"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
-      <selection pane="bottomRight" activeCell="D93" activeCellId="0" sqref="D93"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="W1" activeCellId="0" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15083,11 +15083,11 @@
   <dimension ref="A1:AD42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="V1" activeCellId="0" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15176,10 +15176,10 @@
       <c r="U1" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="6" t="s">
         <v>274</v>
       </c>
       <c r="X1" s="11" t="s">
@@ -17630,12 +17630,12 @@
   </sheetPr>
   <dimension ref="A1:BQ17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M37" activeCellId="0" sqref="M37"/>
+      <selection pane="bottomRight" activeCell="V1" activeCellId="0" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17724,7 +17724,7 @@
       <c r="U1" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="6" t="s">
         <v>273</v>
       </c>
       <c r="W1" s="11" t="s">
@@ -18728,15 +18728,15 @@
   </sheetPr>
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="bottomRight" activeCell="V42" activeCellId="0" sqref="V42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.48"/>
